--- a/BackTest/2019-11-01 BackTest IOST.xlsx
+++ b/BackTest/2019-11-01 BackTest IOST.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1499999999999968</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>8.086000000000002</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1799999999999962</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-6.666666666666667</v>
+      </c>
       <c r="L13" t="n">
         <v>8.087000000000002</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.1999999999999957</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L14" t="n">
         <v>8.084000000000003</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2099999999999955</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-17.64705882352941</v>
+      </c>
       <c r="L15" t="n">
         <v>8.081000000000003</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.2799999999999958</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-54.54545454545491</v>
+      </c>
       <c r="L16" t="n">
         <v>8.071000000000002</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.2899999999999956</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-50.00000000000044</v>
+      </c>
       <c r="L17" t="n">
         <v>8.058000000000003</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.3599999999999959</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-11.11111111111097</v>
+      </c>
       <c r="L18" t="n">
         <v>8.055000000000003</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4299999999999962</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-37.49999999999993</v>
+      </c>
       <c r="L19" t="n">
         <v>8.045000000000003</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.4799999999999951</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-11.76470588235328</v>
+      </c>
       <c r="L20" t="n">
         <v>8.038000000000004</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.529999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-21.05263157894754</v>
+      </c>
       <c r="L21" t="n">
         <v>8.029000000000005</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5399999999999947</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.3333333333335</v>
+      </c>
       <c r="L22" t="n">
         <v>8.020000000000005</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.5499999999999945</v>
       </c>
       <c r="K23" t="n">
-        <v>-22.22222222222246</v>
+        <v>-31.42857142857163</v>
       </c>
       <c r="L23" t="n">
         <v>8.007000000000003</v>
@@ -1466,7 +1488,7 @@
         <v>0.5599999999999943</v>
       </c>
       <c r="K24" t="n">
-        <v>-28.301886792453</v>
+        <v>-31.42857142857163</v>
       </c>
       <c r="L24" t="n">
         <v>7.995000000000005</v>
@@ -1515,7 +1537,7 @@
         <v>0.5699999999999941</v>
       </c>
       <c r="K25" t="n">
-        <v>-28.301886792453</v>
+        <v>-17.24137931034487</v>
       </c>
       <c r="L25" t="n">
         <v>7.983000000000004</v>
@@ -1564,7 +1586,7 @@
         <v>0.7899999999999947</v>
       </c>
       <c r="K26" t="n">
-        <v>-49.33333333333364</v>
+        <v>-52.00000000000023</v>
       </c>
       <c r="L26" t="n">
         <v>7.956000000000005</v>
@@ -1613,7 +1635,7 @@
         <v>1.029999999999995</v>
       </c>
       <c r="K27" t="n">
-        <v>-15.4639175257732</v>
+        <v>-13.43283582089565</v>
       </c>
       <c r="L27" t="n">
         <v>7.954000000000003</v>
@@ -1662,7 +1684,7 @@
         <v>1.049999999999995</v>
       </c>
       <c r="K28" t="n">
-        <v>-10.41666666666666</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>7.947000000000005</v>
@@ -1711,7 +1733,7 @@
         <v>1.069999999999995</v>
       </c>
       <c r="K29" t="n">
-        <v>-8.163265306122481</v>
+        <v>-5.084745762711758</v>
       </c>
       <c r="L29" t="n">
         <v>7.949000000000003</v>
@@ -1760,7 +1782,7 @@
         <v>1.069999999999995</v>
       </c>
       <c r="K30" t="n">
-        <v>-10.41666666666666</v>
+        <v>3.703703703703618</v>
       </c>
       <c r="L30" t="n">
         <v>7.946000000000003</v>
@@ -1809,7 +1831,7 @@
         <v>1.069999999999995</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.526881720430155</v>
+        <v>5.660377358490611</v>
       </c>
       <c r="L31" t="n">
         <v>7.948000000000003</v>
@@ -1860,7 +1882,7 @@
         <v>1.179999999999995</v>
       </c>
       <c r="K32" t="n">
-        <v>-16.50485436893214</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L32" t="n">
         <v>7.940000000000003</v>
@@ -1911,7 +1933,7 @@
         <v>1.259999999999995</v>
       </c>
       <c r="K33" t="n">
-        <v>-25.92592592592597</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L33" t="n">
         <v>7.925000000000004</v>
@@ -1962,7 +1984,7 @@
         <v>1.509999999999996</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.7633587786259376</v>
+        <v>12.76595744680849</v>
       </c>
       <c r="L34" t="n">
         <v>7.936000000000004</v>
@@ -2013,7 +2035,7 @@
         <v>1.509999999999996</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>47.22222222222223</v>
       </c>
       <c r="L35" t="n">
         <v>7.948000000000005</v>
@@ -2064,7 +2086,7 @@
         <v>1.589999999999996</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.7633587786259376</v>
+        <v>3.571428571428645</v>
       </c>
       <c r="L36" t="n">
         <v>7.974000000000006</v>
@@ -2166,7 +2188,7 @@
         <v>1.769999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>-17.73049645390076</v>
+        <v>-28.57142857142851</v>
       </c>
       <c r="L38" t="n">
         <v>7.958000000000006</v>
@@ -2217,7 +2239,7 @@
         <v>1.959999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6535947712418156</v>
+        <v>-1.123595505617951</v>
       </c>
       <c r="L39" t="n">
         <v>7.957000000000005</v>
@@ -2268,7 +2290,7 @@
         <v>1.959999999999997</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.702702702702641</v>
+        <v>-1.123595505617951</v>
       </c>
       <c r="L40" t="n">
         <v>7.956000000000005</v>
@@ -2319,7 +2341,7 @@
         <v>1.959999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6993006993006828</v>
+        <v>12.82051282051285</v>
       </c>
       <c r="L41" t="n">
         <v>7.955000000000004</v>
@@ -2370,7 +2392,7 @@
         <v>1.969999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>2.097902097902112</v>
+        <v>26.76056338028168</v>
       </c>
       <c r="L42" t="n">
         <v>7.966000000000004</v>
@@ -2421,7 +2443,7 @@
         <v>2.009999999999997</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L43" t="n">
         <v>7.981000000000003</v>
@@ -2472,7 +2494,7 @@
         <v>2.009999999999997</v>
       </c>
       <c r="K44" t="n">
-        <v>0.6896551724137771</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L44" t="n">
         <v>7.971000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>2.009999999999997</v>
       </c>
       <c r="K45" t="n">
-        <v>1.388888888888856</v>
+        <v>-4.761904761904863</v>
       </c>
       <c r="L45" t="n">
         <v>7.961000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>2.089999999999997</v>
       </c>
       <c r="K46" t="n">
-        <v>12.30769230769229</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L46" t="n">
         <v>7.951000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>2.099999999999997</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.54205607476637</v>
+        <v>27.27272727272723</v>
       </c>
       <c r="L47" t="n">
         <v>7.942</v>
@@ -2676,7 +2698,7 @@
         <v>2.109999999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.547169811320745</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L48" t="n">
         <v>7.952000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>2.109999999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>-9.615384615384556</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L49" t="n">
         <v>7.943000000000002</v>
@@ -2778,7 +2800,7 @@
         <v>2.209999999999997</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L50" t="n">
         <v>7.944000000000003</v>
@@ -2829,7 +2851,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.317073170731684</v>
+        <v>-27.27272727272723</v>
       </c>
       <c r="L51" t="n">
         <v>7.936000000000003</v>
@@ -2880,7 +2902,7 @@
         <v>2.469999999999997</v>
       </c>
       <c r="K52" t="n">
-        <v>-11.62790697674413</v>
+        <v>-47.82608695652169</v>
       </c>
       <c r="L52" t="n">
         <v>7.910000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>2.559999999999997</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.30769230769224</v>
+        <v>-56.36363636363632</v>
       </c>
       <c r="L53" t="n">
         <v>7.879000000000003</v>
@@ -2982,7 +3004,7 @@
         <v>2.569999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>-39.62264150943399</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L54" t="n">
         <v>7.847000000000004</v>
@@ -3033,7 +3055,7 @@
         <v>2.839999999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>-11.27819548872182</v>
+        <v>4.000000000000028</v>
       </c>
       <c r="L55" t="n">
         <v>7.842000000000004</v>
@@ -3084,7 +3106,7 @@
         <v>2.909999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L56" t="n">
         <v>7.852000000000006</v>
@@ -3135,7 +3157,7 @@
         <v>2.939999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.222222222222237</v>
+        <v>6.024096385542141</v>
       </c>
       <c r="L57" t="n">
         <v>7.858000000000006</v>
@@ -3186,7 +3208,7 @@
         <v>2.939999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>12.82051282051283</v>
+        <v>6.024096385542141</v>
       </c>
       <c r="L58" t="n">
         <v>7.863000000000005</v>
@@ -3237,7 +3259,7 @@
         <v>3.039999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>5.555555555555592</v>
+        <v>6.024096385542241</v>
       </c>
       <c r="L59" t="n">
         <v>7.878000000000005</v>
@@ -3288,7 +3310,7 @@
         <v>3.059999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>7.27272727272727</v>
+        <v>21.05263157894735</v>
       </c>
       <c r="L60" t="n">
         <v>7.885000000000005</v>
@@ -3339,7 +3361,7 @@
         <v>3.059999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>7.27272727272727</v>
+        <v>55.93220338983037</v>
       </c>
       <c r="L61" t="n">
         <v>7.901000000000005</v>
@@ -3390,7 +3412,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>-5.691056910569118</v>
+        <v>43.74999999999974</v>
       </c>
       <c r="L62" t="n">
         <v>7.920000000000006</v>
@@ -3441,7 +3463,7 @@
         <v>3.42</v>
       </c>
       <c r="K63" t="n">
-        <v>13.47517730496454</v>
+        <v>59.99999999999992</v>
       </c>
       <c r="L63" t="n">
         <v>7.970000000000006</v>
@@ -3492,7 +3514,7 @@
         <v>3.65</v>
       </c>
       <c r="K64" t="n">
-        <v>-2.4390243902439</v>
+        <v>1.234567901234538</v>
       </c>
       <c r="L64" t="n">
         <v>7.998000000000006</v>
@@ -3543,7 +3565,7 @@
         <v>3.680000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.5988023952095668</v>
+        <v>-3.896103896103917</v>
       </c>
       <c r="L65" t="n">
         <v>8.002000000000006</v>
@@ -3594,7 +3616,7 @@
         <v>3.710000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>2.469135802469133</v>
+        <v>-3.896103896103917</v>
       </c>
       <c r="L66" t="n">
         <v>7.996000000000007</v>
@@ -3645,7 +3667,7 @@
         <v>3.920000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-9.890109890109853</v>
+        <v>-24.48979591836731</v>
       </c>
       <c r="L67" t="n">
         <v>7.972000000000006</v>
@@ -3696,7 +3718,7 @@
         <v>4.170000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>2.912621359223277</v>
+        <v>-7.964601769911559</v>
       </c>
       <c r="L68" t="n">
         <v>7.973000000000004</v>
@@ -3747,7 +3769,7 @@
         <v>4.23</v>
       </c>
       <c r="K69" t="n">
-        <v>5.660377358490522</v>
+        <v>-4.273504273504328</v>
       </c>
       <c r="L69" t="n">
         <v>7.970000000000004</v>
@@ -3798,7 +3820,7 @@
         <v>4.27</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.9708737864077452</v>
+        <v>-7.438016528925603</v>
       </c>
       <c r="L70" t="n">
         <v>7.961000000000004</v>
@@ -3849,7 +3871,7 @@
         <v>4.289999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>4.522613065326621</v>
+        <v>6.42201834862388</v>
       </c>
       <c r="L71" t="n">
         <v>7.954000000000005</v>
@@ -3900,7 +3922,7 @@
         <v>4.509999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>1.96078431372549</v>
+        <v>-33.94495412844041</v>
       </c>
       <c r="L72" t="n">
         <v>7.939000000000004</v>
@@ -3951,7 +3973,7 @@
         <v>4.52</v>
       </c>
       <c r="K73" t="n">
-        <v>6.122448979591788</v>
+        <v>-17.24137931034488</v>
       </c>
       <c r="L73" t="n">
         <v>7.901000000000003</v>
@@ -4002,7 +4024,7 @@
         <v>4.53</v>
       </c>
       <c r="K74" t="n">
-        <v>7.142857142857162</v>
+        <v>-20</v>
       </c>
       <c r="L74" t="n">
         <v>7.887000000000003</v>
@@ -4053,7 +4075,7 @@
         <v>4.53</v>
       </c>
       <c r="K75" t="n">
-        <v>-7.692307692307676</v>
+        <v>-17.07317073170729</v>
       </c>
       <c r="L75" t="n">
         <v>7.870000000000003</v>
@@ -4104,7 +4126,7 @@
         <v>4.53</v>
       </c>
       <c r="K76" t="n">
-        <v>-12.34567901234568</v>
+        <v>11.47540983606563</v>
       </c>
       <c r="L76" t="n">
         <v>7.856000000000003</v>
@@ -4155,7 +4177,7 @@
         <v>4.53</v>
       </c>
       <c r="K77" t="n">
-        <v>-10.69182389937105</v>
+        <v>-50</v>
       </c>
       <c r="L77" t="n">
         <v>7.863000000000004</v>
@@ -4206,7 +4228,7 @@
         <v>4.58</v>
       </c>
       <c r="K78" t="n">
-        <v>-13.41463414634144</v>
+        <v>-82.85714285714269</v>
       </c>
       <c r="L78" t="n">
         <v>7.840000000000005</v>
@@ -4257,7 +4279,7 @@
         <v>4.84</v>
       </c>
       <c r="K79" t="n">
-        <v>-3.33333333333336</v>
+        <v>1.754385964912242</v>
       </c>
       <c r="L79" t="n">
         <v>7.837000000000005</v>
@@ -4308,7 +4330,7 @@
         <v>4.84</v>
       </c>
       <c r="K80" t="n">
-        <v>-4.494382022471911</v>
+        <v>-1.818181818181777</v>
       </c>
       <c r="L80" t="n">
         <v>7.838000000000004</v>
@@ -4359,7 +4381,7 @@
         <v>5.09</v>
       </c>
       <c r="K81" t="n">
-        <v>-16.25615763546798</v>
+        <v>-6.896551724137925</v>
       </c>
       <c r="L81" t="n">
         <v>7.812000000000003</v>
@@ -4410,7 +4432,7 @@
         <v>5.09</v>
       </c>
       <c r="K82" t="n">
-        <v>-10.05291005291002</v>
+        <v>-5.263157894736727</v>
       </c>
       <c r="L82" t="n">
         <v>7.808000000000002</v>
@@ -4461,7 +4483,7 @@
         <v>5.1</v>
       </c>
       <c r="K83" t="n">
-        <v>-23.80952380952384</v>
+        <v>-5.263157894736891</v>
       </c>
       <c r="L83" t="n">
         <v>7.806000000000003</v>
@@ -4512,7 +4534,7 @@
         <v>5.1</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.72413793103448</v>
+        <v>-5.263157894736891</v>
       </c>
       <c r="L84" t="n">
         <v>7.803000000000003</v>
@@ -4563,7 +4585,7 @@
         <v>5.1</v>
       </c>
       <c r="K85" t="n">
-        <v>-14.08450704225354</v>
+        <v>-5.263157894736891</v>
       </c>
       <c r="L85" t="n">
         <v>7.800000000000002</v>
@@ -4614,7 +4636,7 @@
         <v>5.34</v>
       </c>
       <c r="K86" t="n">
-        <v>4.294478527607382</v>
+        <v>25.92592592592593</v>
       </c>
       <c r="L86" t="n">
         <v>7.821000000000002</v>
@@ -4665,7 +4687,7 @@
         <v>5.55</v>
       </c>
       <c r="K87" t="n">
-        <v>4.294478527607382</v>
+        <v>5.154639175257715</v>
       </c>
       <c r="L87" t="n">
         <v>7.821000000000002</v>
@@ -4716,7 +4738,7 @@
         <v>5.76</v>
       </c>
       <c r="K88" t="n">
-        <v>1.886792452830206</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>7.847000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>5.76</v>
       </c>
       <c r="K89" t="n">
-        <v>-1.960784313725449</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>7.847000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>5.76</v>
       </c>
       <c r="K90" t="n">
-        <v>0.671140939597301</v>
+        <v>37.3134328358209</v>
       </c>
       <c r="L90" t="n">
         <v>7.847000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>5.76</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.6802721088435226</v>
+        <v>37.3134328358209</v>
       </c>
       <c r="L91" t="n">
         <v>7.872000000000002</v>
@@ -4920,7 +4942,7 @@
         <v>5.76</v>
       </c>
       <c r="K92" t="n">
-        <v>16.79999999999998</v>
+        <v>36.36363636363639</v>
       </c>
       <c r="L92" t="n">
         <v>7.897000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>5.76</v>
       </c>
       <c r="K93" t="n">
-        <v>17.74193548387101</v>
+        <v>36.36363636363639</v>
       </c>
       <c r="L93" t="n">
         <v>7.921000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>5.76</v>
       </c>
       <c r="K94" t="n">
-        <v>17.07317073170732</v>
+        <v>36.36363636363639</v>
       </c>
       <c r="L94" t="n">
         <v>7.945</v>
@@ -5073,7 +5095,7 @@
         <v>5.76</v>
       </c>
       <c r="K95" t="n">
-        <v>17.07317073170732</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>7.968999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>5.76</v>
       </c>
       <c r="K96" t="n">
-        <v>17.07317073170732</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>7.968999999999999</v>
@@ -5174,9 +5196,7 @@
       <c r="J97" t="n">
         <v>5.76</v>
       </c>
-      <c r="K97" t="n">
-        <v>17.07317073170732</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>7.989999999999999</v>
       </c>
@@ -5225,9 +5245,7 @@
       <c r="J98" t="n">
         <v>5.76</v>
       </c>
-      <c r="K98" t="n">
-        <v>22.03389830508473</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>7.989999999999999</v>
       </c>
@@ -5277,7 +5295,7 @@
         <v>5.77</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.075268817204278</v>
+        <v>-100</v>
       </c>
       <c r="L99" t="n">
         <v>7.989</v>
@@ -5328,7 +5346,7 @@
         <v>5.97</v>
       </c>
       <c r="K100" t="n">
-        <v>-18.58407079646017</v>
+        <v>-100</v>
       </c>
       <c r="L100" t="n">
         <v>7.968000000000001</v>
@@ -5379,7 +5397,7 @@
         <v>6.039999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>11.578947368421</v>
+        <v>-50.00000000000032</v>
       </c>
       <c r="L101" t="n">
         <v>7.954000000000001</v>
@@ -5430,7 +5448,7 @@
         <v>6.05</v>
       </c>
       <c r="K102" t="n">
-        <v>12.50000000000001</v>
+        <v>-44.82758620689651</v>
       </c>
       <c r="L102" t="n">
         <v>7.941000000000001</v>
@@ -5481,7 +5499,7 @@
         <v>6.17</v>
       </c>
       <c r="K103" t="n">
-        <v>21.49532710280377</v>
+        <v>-2.43902439024385</v>
       </c>
       <c r="L103" t="n">
         <v>7.940000000000002</v>
@@ -5532,7 +5550,7 @@
         <v>6.48</v>
       </c>
       <c r="K104" t="n">
-        <v>-5.797101449275364</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L104" t="n">
         <v>7.908000000000003</v>
@@ -5583,7 +5601,7 @@
         <v>6.510000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>-3.546099290780127</v>
+        <v>-38.66666666666663</v>
       </c>
       <c r="L105" t="n">
         <v>7.879000000000003</v>
@@ -5634,7 +5652,7 @@
         <v>6.510000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>-24.78632478632477</v>
+        <v>-38.66666666666663</v>
       </c>
       <c r="L106" t="n">
         <v>7.850000000000004</v>
@@ -5685,7 +5703,7 @@
         <v>6.510000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>-8.333333333333332</v>
+        <v>-38.66666666666663</v>
       </c>
       <c r="L107" t="n">
         <v>7.821000000000005</v>
@@ -5736,7 +5754,7 @@
         <v>6.510000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-38.66666666666663</v>
+        <v>-37.83783783783782</v>
       </c>
       <c r="L108" t="n">
         <v>7.792000000000006</v>
@@ -5787,7 +5805,7 @@
         <v>6.510000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>-38.66666666666663</v>
+        <v>-14.8148148148148</v>
       </c>
       <c r="L109" t="n">
         <v>7.764000000000006</v>
@@ -5838,7 +5856,7 @@
         <v>6.710000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.47368421052629</v>
+        <v>7.462686567164265</v>
       </c>
       <c r="L110" t="n">
         <v>7.776000000000006</v>
@@ -5889,7 +5907,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-30.64516129032254</v>
+        <v>-26.31578947368418</v>
       </c>
       <c r="L111" t="n">
         <v>7.752000000000007</v>
@@ -5940,7 +5958,7 @@
         <v>7.040000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>-32.81249999999996</v>
+        <v>-47.12643678160916</v>
       </c>
       <c r="L112" t="n">
         <v>7.723000000000006</v>
@@ -5991,7 +6009,7 @@
         <v>7.080000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>-28.78787878787876</v>
+        <v>-9.999999999999925</v>
       </c>
       <c r="L113" t="n">
         <v>7.686000000000005</v>
@@ -6042,7 +6060,7 @@
         <v>7.170000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-20.56737588652481</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>7.689000000000005</v>
@@ -6093,7 +6111,7 @@
         <v>7.220000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-16.43835616438357</v>
+        <v>7.042253521126736</v>
       </c>
       <c r="L115" t="n">
         <v>7.694000000000005</v>
@@ -6144,7 +6162,7 @@
         <v>7.32</v>
       </c>
       <c r="K116" t="n">
-        <v>-21.79487179487178</v>
+        <v>-6.172839506172821</v>
       </c>
       <c r="L116" t="n">
         <v>7.689000000000005</v>
@@ -6195,7 +6213,7 @@
         <v>7.380000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>-24.69135802469136</v>
+        <v>-12.64367816091957</v>
       </c>
       <c r="L117" t="n">
         <v>7.678000000000006</v>
@@ -6246,7 +6264,7 @@
         <v>7.680000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-5.208333333333359</v>
+        <v>16.2393162393162</v>
       </c>
       <c r="L118" t="n">
         <v>7.697000000000005</v>
@@ -6297,7 +6315,7 @@
         <v>7.96</v>
       </c>
       <c r="K119" t="n">
-        <v>-16.89497716894977</v>
+        <v>-23.20000000000002</v>
       </c>
       <c r="L119" t="n">
         <v>7.688000000000005</v>
@@ -6348,7 +6366,7 @@
         <v>8.219999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>3.999999999999995</v>
+        <v>21.31147540983608</v>
       </c>
       <c r="L120" t="n">
         <v>7.685000000000005</v>
@@ -6399,7 +6417,7 @@
         <v>8.309999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>-3.083700440528609</v>
+        <v>16.53543307086617</v>
       </c>
       <c r="L121" t="n">
         <v>7.702000000000005</v>
@@ -6450,7 +6468,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>-5.627705627705624</v>
+        <v>9.37500000000002</v>
       </c>
       <c r="L122" t="n">
         <v>7.718000000000006</v>
@@ -6501,7 +6519,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>-12.61261261261262</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>7.727000000000007</v>
@@ -6552,7 +6570,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>4.568527918781721</v>
+        <v>0.8130081300812844</v>
       </c>
       <c r="L124" t="n">
         <v>7.733000000000007</v>
@@ -6603,7 +6621,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>3.092783505154621</v>
+        <v>9.734513274336241</v>
       </c>
       <c r="L125" t="n">
         <v>7.734000000000007</v>
@@ -6654,7 +6672,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>3.092783505154621</v>
+        <v>15.88785046728974</v>
       </c>
       <c r="L126" t="n">
         <v>7.745000000000007</v>
@@ -6705,7 +6723,7 @@
         <v>8.459999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>3.589743589743562</v>
+        <v>-15.38461538461543</v>
       </c>
       <c r="L127" t="n">
         <v>7.763000000000007</v>
@@ -6756,7 +6774,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="K128" t="n">
-        <v>1.507537688442225</v>
+        <v>22.22222222222231</v>
       </c>
       <c r="L128" t="n">
         <v>7.747000000000007</v>
@@ -6807,7 +6825,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="K129" t="n">
-        <v>1.507537688442225</v>
+        <v>-50</v>
       </c>
       <c r="L129" t="n">
         <v>7.759000000000007</v>
@@ -6858,7 +6876,7 @@
         <v>8.649999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>-1.030927835051571</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L130" t="n">
         <v>7.760000000000007</v>
@@ -6909,7 +6927,7 @@
         <v>8.829999999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>4.918032786885245</v>
+        <v>-6.382978723404324</v>
       </c>
       <c r="L131" t="n">
         <v>7.752000000000007</v>
@@ -6960,7 +6978,7 @@
         <v>8.879999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>4.34782608695653</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L132" t="n">
         <v>7.744000000000007</v>
@@ -7011,7 +7029,7 @@
         <v>9.099999999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>12.87128712871288</v>
+        <v>16.92307692307701</v>
       </c>
       <c r="L133" t="n">
         <v>7.761000000000007</v>
@@ -7062,7 +7080,7 @@
         <v>9.099999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>8.808290155440424</v>
+        <v>16.92307692307701</v>
       </c>
       <c r="L134" t="n">
         <v>7.772000000000007</v>
@@ -7113,7 +7131,7 @@
         <v>9.119999999999997</v>
       </c>
       <c r="K135" t="n">
-        <v>5.263157894736832</v>
+        <v>13.43283582089554</v>
       </c>
       <c r="L135" t="n">
         <v>7.781000000000006</v>
@@ -7164,7 +7182,7 @@
         <v>9.169999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>8.108108108108089</v>
+        <v>4.225352112676097</v>
       </c>
       <c r="L136" t="n">
         <v>7.785000000000005</v>
@@ -7215,7 +7233,7 @@
         <v>9.209999999999997</v>
       </c>
       <c r="K137" t="n">
-        <v>13.66120218579238</v>
+        <v>15.49295774647881</v>
       </c>
       <c r="L137" t="n">
         <v>7.792000000000006</v>
@@ -7266,7 +7284,7 @@
         <v>9.249999999999996</v>
       </c>
       <c r="K138" t="n">
-        <v>-5.732484076433128</v>
+        <v>9.333333333333275</v>
       </c>
       <c r="L138" t="n">
         <v>7.799000000000005</v>
@@ -7317,7 +7335,7 @@
         <v>9.389999999999997</v>
       </c>
       <c r="K139" t="n">
-        <v>3.496503496503491</v>
+        <v>-29.72972972972976</v>
       </c>
       <c r="L139" t="n">
         <v>7.792000000000004</v>
@@ -7368,7 +7386,7 @@
         <v>9.539999999999996</v>
       </c>
       <c r="K140" t="n">
-        <v>-4.545454545454594</v>
+        <v>15.49295774647885</v>
       </c>
       <c r="L140" t="n">
         <v>7.785000000000005</v>
@@ -7419,7 +7437,7 @@
         <v>9.559999999999995</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7999999999999853</v>
+        <v>20.58823529411772</v>
       </c>
       <c r="L141" t="n">
         <v>7.794000000000006</v>
@@ -7470,7 +7488,7 @@
         <v>9.569999999999995</v>
       </c>
       <c r="K142" t="n">
-        <v>4.132231404958678</v>
+        <v>-19.14893617021286</v>
       </c>
       <c r="L142" t="n">
         <v>7.807000000000005</v>
@@ -7521,7 +7539,7 @@
         <v>9.579999999999995</v>
       </c>
       <c r="K143" t="n">
-        <v>5.882352941176448</v>
+        <v>-20.83333333333358</v>
       </c>
       <c r="L143" t="n">
         <v>7.797000000000004</v>
@@ -7572,7 +7590,7 @@
         <v>9.599999999999994</v>
       </c>
       <c r="K144" t="n">
-        <v>2.608695652173946</v>
+        <v>-12.5</v>
       </c>
       <c r="L144" t="n">
         <v>7.789000000000004</v>
@@ -7623,7 +7641,7 @@
         <v>9.609999999999994</v>
       </c>
       <c r="K145" t="n">
-        <v>1.72413793103453</v>
+        <v>-4.54545454545449</v>
       </c>
       <c r="L145" t="n">
         <v>7.782000000000005</v>
@@ -7674,7 +7692,7 @@
         <v>9.689999999999994</v>
       </c>
       <c r="K146" t="n">
-        <v>-4.838709677419343</v>
+        <v>-29.16666666666679</v>
       </c>
       <c r="L146" t="n">
         <v>7.772000000000006</v>
@@ -7725,7 +7743,7 @@
         <v>9.689999999999994</v>
       </c>
       <c r="K147" t="n">
-        <v>-5.691056910569079</v>
+        <v>-22.72727272727276</v>
       </c>
       <c r="L147" t="n">
         <v>7.758000000000005</v>
@@ -7776,7 +7794,7 @@
         <v>9.789999999999994</v>
       </c>
       <c r="K148" t="n">
-        <v>5.426356589147258</v>
+        <v>35.0000000000002</v>
       </c>
       <c r="L148" t="n">
         <v>7.758000000000005</v>
@@ -7827,7 +7845,7 @@
         <v>9.789999999999994</v>
       </c>
       <c r="K149" t="n">
-        <v>5.426356589147258</v>
+        <v>-3.999999999999943</v>
       </c>
       <c r="L149" t="n">
         <v>7.772000000000006</v>
@@ -7878,7 +7896,7 @@
         <v>9.819999999999993</v>
       </c>
       <c r="K150" t="n">
-        <v>-9.401709401709473</v>
+        <v>-7.692307692307929</v>
       </c>
       <c r="L150" t="n">
         <v>7.768000000000005</v>
@@ -7929,7 +7947,7 @@
         <v>9.819999999999993</v>
       </c>
       <c r="K151" t="n">
-        <v>7.070707070707047</v>
+        <v>-4.000000000000298</v>
       </c>
       <c r="L151" t="n">
         <v>7.766000000000004</v>
@@ -7980,7 +7998,7 @@
         <v>9.829999999999995</v>
       </c>
       <c r="K152" t="n">
-        <v>13.68421052631584</v>
+        <v>4.00000000000027</v>
       </c>
       <c r="L152" t="n">
         <v>7.766000000000004</v>
@@ -8031,7 +8049,7 @@
         <v>9.969999999999995</v>
       </c>
       <c r="K153" t="n">
-        <v>-26.43678160919553</v>
+        <v>-40.54054054054053</v>
       </c>
       <c r="L153" t="n">
         <v>7.753000000000005</v>
@@ -8082,7 +8100,7 @@
         <v>9.969999999999995</v>
       </c>
       <c r="K154" t="n">
-        <v>-26.43678160919553</v>
+        <v>-38.88888888888891</v>
       </c>
       <c r="L154" t="n">
         <v>7.738000000000004</v>
@@ -8133,7 +8151,7 @@
         <v>9.969999999999995</v>
       </c>
       <c r="K155" t="n">
-        <v>-24.70588235294123</v>
+        <v>-21.42857142857152</v>
       </c>
       <c r="L155" t="n">
         <v>7.724000000000004</v>
@@ -8184,7 +8202,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>-3.225806451612943</v>
+        <v>17.07317073170716</v>
       </c>
       <c r="L156" t="n">
         <v>7.731000000000003</v>
@@ -8235,7 +8253,7 @@
         <v>10.11</v>
       </c>
       <c r="K157" t="n">
-        <v>-6.666666666666633</v>
+        <v>-6.249999999999827</v>
       </c>
       <c r="L157" t="n">
         <v>7.739000000000003</v>
@@ -8286,7 +8304,7 @@
         <v>10.12</v>
       </c>
       <c r="K158" t="n">
-        <v>-1.149425287356298</v>
+        <v>-3.030303030302949</v>
       </c>
       <c r="L158" t="n">
         <v>7.738000000000004</v>
@@ -8337,7 +8355,7 @@
         <v>10.13</v>
       </c>
       <c r="K159" t="n">
-        <v>16.21621621621626</v>
+        <v>3.225806451613098</v>
       </c>
       <c r="L159" t="n">
         <v>7.736000000000004</v>
@@ -8388,7 +8406,7 @@
         <v>10.14</v>
       </c>
       <c r="K160" t="n">
-        <v>-6.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>7.736000000000004</v>
@@ -8439,7 +8457,7 @@
         <v>10.21</v>
       </c>
       <c r="K161" t="n">
-        <v>-13.84615384615378</v>
+        <v>-21.05263157894725</v>
       </c>
       <c r="L161" t="n">
         <v>7.729000000000005</v>
@@ -8490,7 +8508,7 @@
         <v>10.21</v>
       </c>
       <c r="K162" t="n">
-        <v>-12.49999999999996</v>
+        <v>25</v>
       </c>
       <c r="L162" t="n">
         <v>7.721000000000005</v>
@@ -8541,7 +8559,7 @@
         <v>10.22</v>
       </c>
       <c r="K163" t="n">
-        <v>-12.49999999999983</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L163" t="n">
         <v>7.726000000000004</v>
@@ -8592,7 +8610,7 @@
         <v>10.23</v>
       </c>
       <c r="K164" t="n">
-        <v>-14.2857142857142</v>
+        <v>23.07692307692313</v>
       </c>
       <c r="L164" t="n">
         <v>7.732000000000005</v>
@@ -8643,7 +8661,7 @@
         <v>10.24</v>
       </c>
       <c r="K165" t="n">
-        <v>-14.2857142857142</v>
+        <v>-57.1428571428556</v>
       </c>
       <c r="L165" t="n">
         <v>7.737000000000005</v>
@@ -8694,7 +8712,7 @@
         <v>10.28</v>
       </c>
       <c r="K166" t="n">
-        <v>-8.474576271186361</v>
+        <v>-76.47058823529329</v>
       </c>
       <c r="L166" t="n">
         <v>7.725000000000006</v>
@@ -8745,7 +8763,7 @@
         <v>10.4</v>
       </c>
       <c r="K167" t="n">
-        <v>9.859154929577343</v>
+        <v>-7.142857142857278</v>
       </c>
       <c r="L167" t="n">
         <v>7.724000000000006</v>
@@ -8796,7 +8814,7 @@
         <v>10.54</v>
       </c>
       <c r="K168" t="n">
-        <v>-22.6666666666666</v>
+        <v>-36.58536585365861</v>
       </c>
       <c r="L168" t="n">
         <v>7.708000000000004</v>
@@ -8847,7 +8865,7 @@
         <v>10.64</v>
       </c>
       <c r="K169" t="n">
-        <v>-31.76470588235284</v>
+        <v>-48.00000000000004</v>
       </c>
       <c r="L169" t="n">
         <v>7.683000000000004</v>
@@ -8904,7 +8922,7 @@
         <v>10.65</v>
       </c>
       <c r="K170" t="n">
-        <v>-27.71084337349386</v>
+        <v>-36.36363636363658</v>
       </c>
       <c r="L170" t="n">
         <v>7.660000000000005</v>
@@ -8961,7 +8979,7 @@
         <v>10.65</v>
       </c>
       <c r="K171" t="n">
-        <v>-27.71084337349386</v>
+        <v>-36.36363636363658</v>
       </c>
       <c r="L171" t="n">
         <v>7.644000000000005</v>
@@ -9020,7 +9038,7 @@
         <v>10.65</v>
       </c>
       <c r="K172" t="n">
-        <v>-29.26829268292684</v>
+        <v>-34.88372093023281</v>
       </c>
       <c r="L172" t="n">
         <v>7.628000000000005</v>
@@ -9081,7 +9099,7 @@
         <v>10.65999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>-13.04347826086955</v>
+        <v>-34.88372093023281</v>
       </c>
       <c r="L173" t="n">
         <v>7.614000000000006</v>
@@ -9144,7 +9162,7 @@
         <v>10.73</v>
       </c>
       <c r="K174" t="n">
-        <v>-2.631578947368366</v>
+        <v>-14.28571428571439</v>
       </c>
       <c r="L174" t="n">
         <v>7.606000000000006</v>
@@ -9205,7 +9223,7 @@
         <v>10.73</v>
       </c>
       <c r="K175" t="n">
-        <v>-2.631578947368366</v>
+        <v>-6.666666666666758</v>
       </c>
       <c r="L175" t="n">
         <v>7.599000000000006</v>
@@ -9268,7 +9286,7 @@
         <v>10.73</v>
       </c>
       <c r="K176" t="n">
-        <v>-23.80952380952369</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L176" t="n">
         <v>7.596000000000006</v>
@@ -9329,7 +9347,7 @@
         <v>10.88</v>
       </c>
       <c r="K177" t="n">
-        <v>-1.298701298701387</v>
+        <v>41.17647058823522</v>
       </c>
       <c r="L177" t="n">
         <v>7.596000000000006</v>
@@ -9392,7 +9410,7 @@
         <v>10.88</v>
       </c>
       <c r="K178" t="n">
-        <v>-2.631578947368483</v>
+        <v>99.99999999999963</v>
       </c>
       <c r="L178" t="n">
         <v>7.610000000000007</v>
@@ -9453,7 +9471,7 @@
         <v>11.00999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>-15.90909090909099</v>
+        <v>27.77777777777772</v>
       </c>
       <c r="L179" t="n">
         <v>7.621000000000007</v>
@@ -9514,7 +9532,7 @@
         <v>11.13</v>
       </c>
       <c r="K180" t="n">
-        <v>-1.01010101010099</v>
+        <v>45.83333333333324</v>
       </c>
       <c r="L180" t="n">
         <v>7.643000000000006</v>
@@ -9575,7 +9593,7 @@
         <v>11.14</v>
       </c>
       <c r="K181" t="n">
-        <v>7.526881720430059</v>
+        <v>46.93877551020397</v>
       </c>
       <c r="L181" t="n">
         <v>7.666000000000006</v>
@@ -9632,7 +9650,7 @@
         <v>11.14</v>
       </c>
       <c r="K182" t="n">
-        <v>7.526881720430059</v>
+        <v>45.83333333333324</v>
       </c>
       <c r="L182" t="n">
         <v>7.689000000000004</v>
@@ -9689,7 +9707,7 @@
         <v>11.15</v>
       </c>
       <c r="K183" t="n">
-        <v>7.526881720430059</v>
+        <v>33.33333333333326</v>
       </c>
       <c r="L183" t="n">
         <v>7.710000000000005</v>
@@ -9746,7 +9764,7 @@
         <v>11.16999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>4.255319148936184</v>
+        <v>27.27272727272733</v>
       </c>
       <c r="L184" t="n">
         <v>7.722000000000004</v>
@@ -9803,7 +9821,7 @@
         <v>11.16999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>5.376344086021499</v>
+        <v>27.27272727272733</v>
       </c>
       <c r="L185" t="n">
         <v>7.734000000000004</v>
@@ -9862,7 +9880,7 @@
         <v>11.17999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>8.888888888888928</v>
+        <v>-13.3333333333331</v>
       </c>
       <c r="L186" t="n">
         <v>7.745000000000003</v>
@@ -9923,7 +9941,7 @@
         <v>11.17999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>-5.128205128205035</v>
+        <v>-13.3333333333331</v>
       </c>
       <c r="L187" t="n">
         <v>7.741000000000004</v>
@@ -9984,7 +10002,7 @@
         <v>11.18999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>16.92307692307701</v>
+        <v>55.55555555555593</v>
       </c>
       <c r="L188" t="n">
         <v>7.738000000000004</v>
@@ -10043,7 +10061,7 @@
         <v>11.19999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>35.71428571428583</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L189" t="n">
         <v>7.747000000000004</v>
@@ -10102,7 +10120,7 @@
         <v>11.25999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>40.98360655737709</v>
+        <v>16.66666666666716</v>
       </c>
       <c r="L190" t="n">
         <v>7.750000000000004</v>
@@ -10159,7 +10177,7 @@
         <v>11.25999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>40.98360655737709</v>
+        <v>16.66666666666716</v>
       </c>
       <c r="L191" t="n">
         <v>7.752000000000005</v>
@@ -10216,7 +10234,7 @@
         <v>11.26999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>38.70967741935492</v>
+        <v>16.66666666666716</v>
       </c>
       <c r="L192" t="n">
         <v>7.753000000000005</v>
@@ -10273,7 +10291,7 @@
         <v>11.40999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>11.99999999999998</v>
+        <v>-41.66666666666685</v>
       </c>
       <c r="L193" t="n">
         <v>7.741000000000005</v>
@@ -10328,7 +10346,7 @@
         <v>11.52</v>
       </c>
       <c r="K194" t="n">
-        <v>16.45569620253161</v>
+        <v>2.857142857142784</v>
       </c>
       <c r="L194" t="n">
         <v>7.742000000000006</v>
@@ -10385,7 +10403,7 @@
         <v>11.55</v>
       </c>
       <c r="K195" t="n">
-        <v>19.51219512195119</v>
+        <v>13.51351351351336</v>
       </c>
       <c r="L195" t="n">
         <v>7.746000000000007</v>
@@ -10442,7 +10460,7 @@
         <v>11.55</v>
       </c>
       <c r="K196" t="n">
-        <v>19.51219512195119</v>
+        <v>13.51351351351336</v>
       </c>
       <c r="L196" t="n">
         <v>7.751000000000007</v>
@@ -10499,7 +10517,7 @@
         <v>11.7</v>
       </c>
       <c r="K197" t="n">
-        <v>-17.07317073170724</v>
+        <v>-21.56862745098031</v>
       </c>
       <c r="L197" t="n">
         <v>7.741000000000005</v>
@@ -10556,7 +10574,7 @@
         <v>11.73</v>
       </c>
       <c r="K198" t="n">
-        <v>-12.94117647058815</v>
+        <v>-13.2075471698113</v>
       </c>
       <c r="L198" t="n">
         <v>7.733000000000006</v>
@@ -10613,7 +10631,7 @@
         <v>11.74</v>
       </c>
       <c r="K199" t="n">
-        <v>4.109589041095912</v>
+        <v>-24.99999999999991</v>
       </c>
       <c r="L199" t="n">
         <v>7.727000000000006</v>
@@ -10670,7 +10688,7 @@
         <v>11.82</v>
       </c>
       <c r="K200" t="n">
-        <v>-1.449275362318807</v>
+        <v>-7.14285714285712</v>
       </c>
       <c r="L200" t="n">
         <v>7.723000000000004</v>
@@ -10727,7 +10745,7 @@
         <v>11.82</v>
       </c>
       <c r="K201" t="n">
-        <v>-2.941176470588166</v>
+        <v>-5.454545454545475</v>
       </c>
       <c r="L201" t="n">
         <v>7.719000000000004</v>
@@ -10784,7 +10802,7 @@
         <v>11.82</v>
       </c>
       <c r="K202" t="n">
-        <v>-2.941176470588166</v>
+        <v>26.82926829268288</v>
       </c>
       <c r="L202" t="n">
         <v>7.716000000000004</v>
@@ -10841,7 +10859,7 @@
         <v>11.82</v>
       </c>
       <c r="K203" t="n">
-        <v>-1.4925373134328</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>7.727000000000004</v>
@@ -10898,7 +10916,7 @@
         <v>11.94</v>
       </c>
       <c r="K204" t="n">
-        <v>-14.28571428571427</v>
+        <v>-38.4615384615385</v>
       </c>
       <c r="L204" t="n">
         <v>7.715000000000003</v>
@@ -10955,7 +10973,7 @@
         <v>12.05</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>-8.000000000000007</v>
       </c>
       <c r="L205" t="n">
         <v>7.711000000000003</v>
@@ -11012,7 +11030,7 @@
         <v>12.06</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>27.77777777777797</v>
       </c>
       <c r="L206" t="n">
         <v>7.706000000000003</v>
@@ -11069,7 +11087,7 @@
         <v>12.06</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>21.21212121212129</v>
       </c>
       <c r="L207" t="n">
         <v>7.716000000000004</v>
@@ -11126,7 +11144,7 @@
         <v>12.14</v>
       </c>
       <c r="K208" t="n">
-        <v>-9.473684210526272</v>
+        <v>-4.999999999999889</v>
       </c>
       <c r="L208" t="n">
         <v>7.715000000000005</v>
@@ -11183,7 +11201,7 @@
         <v>12.16</v>
       </c>
       <c r="K209" t="n">
-        <v>-10.41666666666669</v>
+        <v>-35.29411764705887</v>
       </c>
       <c r="L209" t="n">
         <v>7.711000000000004</v>
@@ -11240,7 +11258,7 @@
         <v>12.18</v>
       </c>
       <c r="K210" t="n">
-        <v>-15.21739130434776</v>
+        <v>-27.77777777777772</v>
       </c>
       <c r="L210" t="n">
         <v>7.701000000000005</v>
@@ -11297,7 +11315,7 @@
         <v>12.19</v>
       </c>
       <c r="K211" t="n">
-        <v>-13.97849462365588</v>
+        <v>-24.32432432432434</v>
       </c>
       <c r="L211" t="n">
         <v>7.692000000000005</v>
@@ -11354,7 +11372,7 @@
         <v>12.22</v>
       </c>
       <c r="K212" t="n">
-        <v>-9.47368421052629</v>
+        <v>-14.99999999999996</v>
       </c>
       <c r="L212" t="n">
         <v>7.686000000000004</v>
@@ -11405,7 +11423,7 @@
         <v>12.23</v>
       </c>
       <c r="K213" t="n">
-        <v>7.317073170731765</v>
+        <v>24.13793103448308</v>
       </c>
       <c r="L213" t="n">
         <v>7.681000000000004</v>
@@ -11456,7 +11474,7 @@
         <v>12.29</v>
       </c>
       <c r="K214" t="n">
-        <v>-14.28571428571433</v>
+        <v>-41.66666666666716</v>
       </c>
       <c r="L214" t="n">
         <v>7.682000000000005</v>
@@ -11507,7 +11525,7 @@
         <v>12.35</v>
       </c>
       <c r="K215" t="n">
-        <v>-10.00000000000002</v>
+        <v>-10.34482758620701</v>
       </c>
       <c r="L215" t="n">
         <v>7.678000000000006</v>
@@ -11558,7 +11576,7 @@
         <v>12.36</v>
       </c>
       <c r="K216" t="n">
-        <v>-8.641975308642023</v>
+        <v>-6.666666666666845</v>
       </c>
       <c r="L216" t="n">
         <v>7.676000000000005</v>
@@ -11609,7 +11627,7 @@
         <v>12.36</v>
       </c>
       <c r="K217" t="n">
-        <v>12.12121212121216</v>
+        <v>27.27272727272724</v>
       </c>
       <c r="L217" t="n">
         <v>7.674000000000004</v>
@@ -11660,7 +11678,7 @@
         <v>12.43</v>
       </c>
       <c r="K218" t="n">
-        <v>17.14285714285718</v>
+        <v>55.55555555555578</v>
       </c>
       <c r="L218" t="n">
         <v>7.687000000000003</v>
@@ -11711,7 +11729,7 @@
         <v>12.44</v>
       </c>
       <c r="K219" t="n">
-        <v>17.14285714285718</v>
+        <v>53.84615384615377</v>
       </c>
       <c r="L219" t="n">
         <v>7.703000000000005</v>
@@ -11762,7 +11780,7 @@
         <v>12.48999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>13.43283582089554</v>
+        <v>60.00000000000012</v>
       </c>
       <c r="L220" t="n">
         <v>7.722000000000004</v>
@@ -11813,7 +11831,7 @@
         <v>12.50999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>10.14492753623196</v>
+        <v>44.82758620689665</v>
       </c>
       <c r="L221" t="n">
         <v>7.738000000000005</v>
@@ -11864,7 +11882,7 @@
         <v>12.50999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>10.14492753623196</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L222" t="n">
         <v>7.751000000000005</v>
@@ -11915,7 +11933,7 @@
         <v>12.54</v>
       </c>
       <c r="K223" t="n">
-        <v>5.55555555555557</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L223" t="n">
         <v>7.760000000000005</v>
@@ -11966,7 +11984,7 @@
         <v>12.54</v>
       </c>
       <c r="K224" t="n">
-        <v>26.66666666666678</v>
+        <v>47.36842105263162</v>
       </c>
       <c r="L224" t="n">
         <v>7.775000000000006</v>
@@ -12017,7 +12035,7 @@
         <v>12.63</v>
       </c>
       <c r="K225" t="n">
-        <v>24.13793103448277</v>
+        <v>62.96296296296303</v>
       </c>
       <c r="L225" t="n">
         <v>7.793000000000005</v>
@@ -12068,7 +12086,7 @@
         <v>12.63</v>
       </c>
       <c r="K226" t="n">
-        <v>26.31578947368419</v>
+        <v>62.96296296296303</v>
       </c>
       <c r="L226" t="n">
         <v>7.810000000000005</v>
@@ -12119,7 +12137,7 @@
         <v>12.68</v>
       </c>
       <c r="K227" t="n">
-        <v>32.25806451612896</v>
+        <v>59.99999999999979</v>
       </c>
       <c r="L227" t="n">
         <v>7.832000000000006</v>
@@ -12170,7 +12188,7 @@
         <v>12.69</v>
       </c>
       <c r="K228" t="n">
-        <v>49.09090909090911</v>
+        <v>51.99999999999996</v>
       </c>
       <c r="L228" t="n">
         <v>7.846000000000006</v>
@@ -12221,7 +12239,7 @@
         <v>12.85</v>
       </c>
       <c r="K229" t="n">
-        <v>18.84057971014493</v>
+        <v>-22.22222222222217</v>
       </c>
       <c r="L229" t="n">
         <v>7.843000000000006</v>
@@ -12272,7 +12290,7 @@
         <v>12.87</v>
       </c>
       <c r="K230" t="n">
-        <v>18.84057971014488</v>
+        <v>-11.11111111111103</v>
       </c>
       <c r="L230" t="n">
         <v>7.837000000000006</v>
@@ -12323,7 +12341,7 @@
         <v>13</v>
       </c>
       <c r="K231" t="n">
-        <v>30.86419753086418</v>
+        <v>18.36734693877541</v>
       </c>
       <c r="L231" t="n">
         <v>7.846000000000006</v>
@@ -12374,7 +12392,7 @@
         <v>13</v>
       </c>
       <c r="K232" t="n">
-        <v>28.20512820512813</v>
+        <v>26.08695652173911</v>
       </c>
       <c r="L232" t="n">
         <v>7.855000000000007</v>
@@ -12425,7 +12443,7 @@
         <v>13</v>
       </c>
       <c r="K233" t="n">
-        <v>27.27272727272722</v>
+        <v>26.08695652173911</v>
       </c>
       <c r="L233" t="n">
         <v>7.867000000000006</v>
@@ -12476,7 +12494,7 @@
         <v>13.02</v>
       </c>
       <c r="K234" t="n">
-        <v>34.24657534246573</v>
+        <v>2.564102564102506</v>
       </c>
       <c r="L234" t="n">
         <v>7.877000000000005</v>
@@ -12527,7 +12545,7 @@
         <v>13.11</v>
       </c>
       <c r="K235" t="n">
-        <v>13.15789473684206</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L235" t="n">
         <v>7.869000000000005</v>
@@ -12578,7 +12596,7 @@
         <v>13.23</v>
       </c>
       <c r="K236" t="n">
-        <v>24.13793103448273</v>
+        <v>-1.818181818181777</v>
       </c>
       <c r="L236" t="n">
         <v>7.873000000000006</v>
@@ -12629,7 +12647,7 @@
         <v>13.24</v>
       </c>
       <c r="K237" t="n">
-        <v>22.72727272727273</v>
+        <v>-1.818181818181777</v>
       </c>
       <c r="L237" t="n">
         <v>7.871000000000007</v>
@@ -12680,7 +12698,7 @@
         <v>13.25</v>
       </c>
       <c r="K238" t="n">
-        <v>14.63414634146342</v>
+        <v>35.00000000000011</v>
       </c>
       <c r="L238" t="n">
         <v>7.869000000000007</v>
@@ -12731,7 +12749,7 @@
         <v>13.28</v>
       </c>
       <c r="K239" t="n">
-        <v>9.523809523809513</v>
+        <v>21.95121951219508</v>
       </c>
       <c r="L239" t="n">
         <v>7.880000000000007</v>
@@ -12782,7 +12800,7 @@
         <v>13.28</v>
       </c>
       <c r="K240" t="n">
-        <v>3.797468354430398</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L240" t="n">
         <v>7.889000000000007</v>
@@ -12833,7 +12851,7 @@
         <v>13.29</v>
       </c>
       <c r="K241" t="n">
-        <v>5.128205128205114</v>
+        <v>-17.24137931034471</v>
       </c>
       <c r="L241" t="n">
         <v>7.884000000000007</v>
@@ -12884,7 +12902,7 @@
         <v>13.47</v>
       </c>
       <c r="K242" t="n">
-        <v>-14.58333333333333</v>
+        <v>-48.93617021276579</v>
       </c>
       <c r="L242" t="n">
         <v>7.861000000000007</v>
@@ -12935,7 +12953,7 @@
         <v>13.57</v>
       </c>
       <c r="K243" t="n">
-        <v>-0.9708737864077419</v>
+        <v>-19.99999999999974</v>
       </c>
       <c r="L243" t="n">
         <v>7.848000000000008</v>
@@ -12986,7 +13004,7 @@
         <v>13.57</v>
       </c>
       <c r="K244" t="n">
-        <v>-0.9708737864077419</v>
+        <v>-4.347826086956387</v>
       </c>
       <c r="L244" t="n">
         <v>7.837000000000008</v>
@@ -13037,7 +13055,7 @@
         <v>13.67</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>-9.090909090909035</v>
       </c>
       <c r="L245" t="n">
         <v>7.845000000000008</v>
@@ -13088,7 +13106,7 @@
         <v>13.72</v>
       </c>
       <c r="K246" t="n">
-        <v>-4.587155963302721</v>
+        <v>-16.6666666666666</v>
       </c>
       <c r="L246" t="n">
         <v>7.836000000000007</v>
@@ -13139,7 +13157,7 @@
         <v>13.75</v>
       </c>
       <c r="K247" t="n">
-        <v>-12.14953271028032</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L247" t="n">
         <v>7.825000000000007</v>
@@ -13190,7 +13208,7 @@
         <v>13.75</v>
       </c>
       <c r="K248" t="n">
-        <v>-11.3207547169811</v>
+        <v>-14.89361702127658</v>
       </c>
       <c r="L248" t="n">
         <v>7.815000000000007</v>
@@ -13241,7 +13259,7 @@
         <v>13.8</v>
       </c>
       <c r="K249" t="n">
-        <v>9.473684210526255</v>
+        <v>-3.846153846153912</v>
       </c>
       <c r="L249" t="n">
         <v>7.813000000000005</v>
@@ -13292,7 +13310,7 @@
         <v>13.8</v>
       </c>
       <c r="K250" t="n">
-        <v>7.526881720430016</v>
+        <v>-1.96078431372561</v>
       </c>
       <c r="L250" t="n">
         <v>7.811000000000004</v>
@@ -13343,7 +13361,7 @@
         <v>13.92</v>
       </c>
       <c r="K251" t="n">
-        <v>6.521739130434703</v>
+        <v>64.44444444444404</v>
       </c>
       <c r="L251" t="n">
         <v>7.822000000000005</v>
@@ -13394,7 +13412,7 @@
         <v>13.95</v>
       </c>
       <c r="K252" t="n">
-        <v>9.473684210526237</v>
+        <v>57.89473684210481</v>
       </c>
       <c r="L252" t="n">
         <v>7.854000000000005</v>
@@ -13445,7 +13463,7 @@
         <v>13.95</v>
       </c>
       <c r="K253" t="n">
-        <v>9.473684210526237</v>
+        <v>57.89473684210481</v>
       </c>
       <c r="L253" t="n">
         <v>7.876000000000005</v>
@@ -13496,7 +13514,7 @@
         <v>14.02</v>
       </c>
       <c r="K254" t="n">
-        <v>17.99999999999993</v>
+        <v>54.2857142857139</v>
       </c>
       <c r="L254" t="n">
         <v>7.905000000000004</v>
@@ -13547,7 +13565,7 @@
         <v>14.04</v>
       </c>
       <c r="K255" t="n">
-        <v>31.1827956989245</v>
+        <v>81.24999999999896</v>
       </c>
       <c r="L255" t="n">
         <v>7.926000000000005</v>
@@ -13598,7 +13616,7 @@
         <v>14.13</v>
       </c>
       <c r="K256" t="n">
-        <v>8.888888888888841</v>
+        <v>52.63157894736812</v>
       </c>
       <c r="L256" t="n">
         <v>7.943000000000005</v>
@@ -13649,7 +13667,7 @@
         <v>14.22</v>
       </c>
       <c r="K257" t="n">
-        <v>18.36734693877537</v>
+        <v>61.70212765957416</v>
       </c>
       <c r="L257" t="n">
         <v>7.972000000000006</v>
@@ -13700,7 +13718,7 @@
         <v>14.27</v>
       </c>
       <c r="K258" t="n">
-        <v>13.72549019607822</v>
+        <v>40.42553191489331</v>
       </c>
       <c r="L258" t="n">
         <v>7.996000000000005</v>
@@ -13751,7 +13769,7 @@
         <v>14.41</v>
       </c>
       <c r="K259" t="n">
-        <v>2.65486725663718</v>
+        <v>8.19672131147551</v>
       </c>
       <c r="L259" t="n">
         <v>8.001000000000007</v>
@@ -13802,7 +13820,7 @@
         <v>14.47</v>
       </c>
       <c r="K260" t="n">
-        <v>7.563025210083992</v>
+        <v>-1.818181818181777</v>
       </c>
       <c r="L260" t="n">
         <v>8.012000000000006</v>
@@ -13853,7 +13871,7 @@
         <v>14.47</v>
       </c>
       <c r="K261" t="n">
-        <v>8.474576271186374</v>
+        <v>-7.692307692307705</v>
       </c>
       <c r="L261" t="n">
         <v>8.011000000000006</v>
@@ -13904,7 +13922,7 @@
         <v>14.55</v>
       </c>
       <c r="K262" t="n">
-        <v>18.51851851851847</v>
+        <v>-20.00000000000003</v>
       </c>
       <c r="L262" t="n">
         <v>7.999000000000005</v>
@@ -13955,7 +13973,7 @@
         <v>14.55</v>
       </c>
       <c r="K263" t="n">
-        <v>10.204081632653</v>
+        <v>-35.8490566037737</v>
       </c>
       <c r="L263" t="n">
         <v>7.987000000000005</v>
@@ -14006,7 +14024,7 @@
         <v>14.66</v>
       </c>
       <c r="K264" t="n">
-        <v>19.2660550458715</v>
+        <v>-16.12903225806443</v>
       </c>
       <c r="L264" t="n">
         <v>7.979000000000005</v>
@@ -14057,7 +14075,7 @@
         <v>14.76</v>
       </c>
       <c r="K265" t="n">
-        <v>19.2660550458715</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L265" t="n">
         <v>7.979000000000005</v>
@@ -14108,7 +14126,7 @@
         <v>14.91</v>
       </c>
       <c r="K266" t="n">
-        <v>9.243697478991585</v>
+        <v>-21.73913043478249</v>
       </c>
       <c r="L266" t="n">
         <v>7.973000000000004</v>
@@ -14159,7 +14177,7 @@
         <v>15.04</v>
       </c>
       <c r="K267" t="n">
-        <v>20.93023255813953</v>
+        <v>3.896103896104046</v>
       </c>
       <c r="L267" t="n">
         <v>7.971000000000004</v>
@@ -14210,7 +14228,7 @@
         <v>15.24</v>
       </c>
       <c r="K268" t="n">
-        <v>4.69798657718122</v>
+        <v>-3.614457831325331</v>
       </c>
       <c r="L268" t="n">
         <v>7.954000000000005</v>
@@ -14261,7 +14279,7 @@
         <v>15.45</v>
       </c>
       <c r="K269" t="n">
-        <v>13.93939393939395</v>
+        <v>12.24489795918368</v>
       </c>
       <c r="L269" t="n">
         <v>7.972000000000004</v>
@@ -14312,7 +14330,7 @@
         <v>15.45</v>
       </c>
       <c r="K270" t="n">
-        <v>13.93939393939395</v>
+        <v>12.24489795918368</v>
       </c>
       <c r="L270" t="n">
         <v>7.984000000000004</v>
@@ -14363,7 +14381,7 @@
         <v>15.46</v>
       </c>
       <c r="K271" t="n">
-        <v>6.493506493506525</v>
+        <v>20.87912087912092</v>
       </c>
       <c r="L271" t="n">
         <v>7.995000000000006</v>
@@ -14414,7 +14432,7 @@
         <v>15.47</v>
       </c>
       <c r="K272" t="n">
-        <v>5.263157894736848</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L272" t="n">
         <v>8.015000000000006</v>
@@ -14465,7 +14483,7 @@
         <v>15.65</v>
       </c>
       <c r="K273" t="n">
-        <v>-5.882352941176452</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L273" t="n">
         <v>8.017000000000007</v>
@@ -14516,7 +14534,7 @@
         <v>15.81</v>
       </c>
       <c r="K274" t="n">
-        <v>-0.5586592178770834</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L274" t="n">
         <v>8.024000000000008</v>
@@ -14567,7 +14585,7 @@
         <v>15.97</v>
       </c>
       <c r="K275" t="n">
-        <v>-9.844559585492203</v>
+        <v>-3.773584905660385</v>
       </c>
       <c r="L275" t="n">
         <v>8.005000000000008</v>
@@ -14618,7 +14636,7 @@
         <v>15.97</v>
       </c>
       <c r="K276" t="n">
-        <v>-5.434782608695634</v>
+        <v>-18.27956989247312</v>
       </c>
       <c r="L276" t="n">
         <v>8.001000000000008</v>
@@ -14669,7 +14687,7 @@
         <v>16.12</v>
       </c>
       <c r="K277" t="n">
-        <v>-2.10526315789469</v>
+        <v>20.45454545454546</v>
       </c>
       <c r="L277" t="n">
         <v>7.999000000000009</v>
@@ -14720,7 +14738,7 @@
         <v>16.12</v>
       </c>
       <c r="K278" t="n">
-        <v>0.5405405405406246</v>
+        <v>-4.4776119402984</v>
       </c>
       <c r="L278" t="n">
         <v>8.017000000000008</v>
@@ -14771,7 +14789,7 @@
         <v>16.12</v>
       </c>
       <c r="K279" t="n">
-        <v>8.771929824561411</v>
+        <v>-4.4776119402984</v>
       </c>
       <c r="L279" t="n">
         <v>8.014000000000008</v>
@@ -14822,7 +14840,7 @@
         <v>16.3</v>
       </c>
       <c r="K280" t="n">
-        <v>-4.918032786885234</v>
+        <v>-23.80952380952378</v>
       </c>
       <c r="L280" t="n">
         <v>7.993000000000009</v>
@@ -14873,7 +14891,7 @@
         <v>16.34</v>
       </c>
       <c r="K281" t="n">
-        <v>-2.67379679144384</v>
+        <v>-19.54022988505744</v>
       </c>
       <c r="L281" t="n">
         <v>7.977000000000009</v>
@@ -14924,7 +14942,7 @@
         <v>16.37</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-2.777777777777832</v>
       </c>
       <c r="L282" t="n">
         <v>7.95700000000001</v>
@@ -14975,7 +14993,7 @@
         <v>16.37</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>-32.14285714285712</v>
       </c>
       <c r="L283" t="n">
         <v>7.955000000000008</v>
@@ -15026,7 +15044,7 @@
         <v>16.37</v>
       </c>
       <c r="K284" t="n">
-        <v>-6.432748538011711</v>
+        <v>-5.000000000000089</v>
       </c>
       <c r="L284" t="n">
         <v>7.937000000000007</v>
@@ -15077,7 +15095,7 @@
         <v>16.48</v>
       </c>
       <c r="K285" t="n">
-        <v>-5.81395348837207</v>
+        <v>17.64705882352933</v>
       </c>
       <c r="L285" t="n">
         <v>7.946000000000007</v>
@@ -15128,7 +15146,7 @@
         <v>16.48</v>
       </c>
       <c r="K286" t="n">
-        <v>3.184713375796167</v>
+        <v>-16.66666666666683</v>
       </c>
       <c r="L286" t="n">
         <v>7.955000000000005</v>
@@ -15179,7 +15197,7 @@
         <v>16.49</v>
       </c>
       <c r="K287" t="n">
-        <v>-6.206896551724131</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L287" t="n">
         <v>7.948000000000006</v>
@@ -15230,7 +15248,7 @@
         <v>16.49</v>
       </c>
       <c r="K288" t="n">
-        <v>8.800000000000026</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L288" t="n">
         <v>7.941000000000007</v>
@@ -15281,7 +15299,7 @@
         <v>16.49</v>
       </c>
       <c r="K289" t="n">
-        <v>-9.61538461538459</v>
+        <v>57.89473684210612</v>
       </c>
       <c r="L289" t="n">
         <v>7.934000000000007</v>
@@ -15332,7 +15350,7 @@
         <v>16.49</v>
       </c>
       <c r="K290" t="n">
-        <v>-9.61538461538459</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L290" t="n">
         <v>7.945000000000007</v>
@@ -15383,7 +15401,7 @@
         <v>16.49</v>
       </c>
       <c r="K291" t="n">
-        <v>-8.737864077669895</v>
+        <v>83.33333333333556</v>
       </c>
       <c r="L291" t="n">
         <v>7.952000000000008</v>
@@ -15434,7 +15452,7 @@
         <v>16.49</v>
       </c>
       <c r="K292" t="n">
-        <v>-9.80392156862742</v>
+        <v>83.33333333333556</v>
       </c>
       <c r="L292" t="n">
         <v>7.962000000000009</v>
@@ -15485,7 +15503,7 @@
         <v>16.49</v>
       </c>
       <c r="K293" t="n">
-        <v>9.523809523809534</v>
+        <v>83.33333333333556</v>
       </c>
       <c r="L293" t="n">
         <v>7.97200000000001</v>
@@ -15536,7 +15554,7 @@
         <v>16.49</v>
       </c>
       <c r="K294" t="n">
-        <v>-11.76470588235296</v>
+        <v>-100.0000000000178</v>
       </c>
       <c r="L294" t="n">
         <v>7.982000000000011</v>
@@ -15587,7 +15605,7 @@
         <v>16.49</v>
       </c>
       <c r="K295" t="n">
-        <v>15.38461538461541</v>
+        <v>-100.0000000000178</v>
       </c>
       <c r="L295" t="n">
         <v>7.981000000000011</v>
@@ -15637,9 +15655,7 @@
       <c r="J296" t="n">
         <v>16.49</v>
       </c>
-      <c r="K296" t="n">
-        <v>15.38461538461541</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>7.980000000000013</v>
       </c>
@@ -15688,9 +15704,7 @@
       <c r="J297" t="n">
         <v>16.49</v>
       </c>
-      <c r="K297" t="n">
-        <v>-18.91891891891913</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>7.980000000000013</v>
       </c>
@@ -15740,7 +15754,7 @@
         <v>16.62</v>
       </c>
       <c r="K298" t="n">
-        <v>-40.00000000000021</v>
+        <v>-99.99999999999864</v>
       </c>
       <c r="L298" t="n">
         <v>7.967000000000011</v>
@@ -15791,7 +15805,7 @@
         <v>16.67000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>-45.45454545454556</v>
+        <v>-99.99999999999852</v>
       </c>
       <c r="L299" t="n">
         <v>7.949000000000011</v>
@@ -15842,7 +15856,7 @@
         <v>16.70000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>-25</v>
+        <v>-99.99999999999831</v>
       </c>
       <c r="L300" t="n">
         <v>7.92800000000001</v>
@@ -15893,7 +15907,7 @@
         <v>16.71000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>-35.13513513513468</v>
+        <v>-90.90909090908852</v>
       </c>
       <c r="L301" t="n">
         <v>7.90800000000001</v>
@@ -15944,7 +15958,7 @@
         <v>16.72000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>-31.42857142857107</v>
+        <v>-91.30434782608434</v>
       </c>
       <c r="L302" t="n">
         <v>7.887000000000009</v>
@@ -15995,7 +16009,7 @@
         <v>16.73000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>-27.77777777777717</v>
+        <v>-83.33333333333024</v>
       </c>
       <c r="L303" t="n">
         <v>7.867000000000009</v>
@@ -16046,7 +16060,7 @@
         <v>16.77000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>-14.99999999999969</v>
+        <v>-57.1428571428555</v>
       </c>
       <c r="L304" t="n">
         <v>7.851000000000009</v>
@@ -16097,7 +16111,7 @@
         <v>16.86000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>-68.42105263157779</v>
+        <v>-67.56756756756609</v>
       </c>
       <c r="L305" t="n">
         <v>7.826000000000009</v>
@@ -16148,7 +16162,7 @@
         <v>16.96000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>-33.33333333333309</v>
+        <v>-31.91489361702094</v>
       </c>
       <c r="L306" t="n">
         <v>7.811000000000009</v>
@@ -16199,7 +16213,7 @@
         <v>16.97000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>-33.33333333333309</v>
+        <v>-8.571428571428354</v>
       </c>
       <c r="L307" t="n">
         <v>7.795000000000009</v>
@@ -16250,7 +16264,7 @@
         <v>16.98</v>
       </c>
       <c r="K308" t="n">
-        <v>-30.61224489795913</v>
+        <v>9.677419354838831</v>
       </c>
       <c r="L308" t="n">
         <v>7.793000000000009</v>
@@ -16301,7 +16315,7 @@
         <v>16.98</v>
       </c>
       <c r="K309" t="n">
-        <v>-30.61224489795913</v>
+        <v>21.42857142857179</v>
       </c>
       <c r="L309" t="n">
         <v>7.796000000000009</v>
@@ -16352,7 +16366,7 @@
         <v>16.98</v>
       </c>
       <c r="K310" t="n">
-        <v>-30.61224489795913</v>
+        <v>18.51851851851873</v>
       </c>
       <c r="L310" t="n">
         <v>7.802000000000009</v>
@@ -16403,7 +16417,7 @@
         <v>16.98</v>
       </c>
       <c r="K311" t="n">
-        <v>-30.61224489795913</v>
+        <v>23.07692307692376</v>
       </c>
       <c r="L311" t="n">
         <v>7.807000000000009</v>
@@ -16454,7 +16468,7 @@
         <v>17.12</v>
       </c>
       <c r="K312" t="n">
-        <v>-1.587301587301688</v>
+        <v>48.7179487179494</v>
       </c>
       <c r="L312" t="n">
         <v>7.82700000000001</v>
@@ -16505,7 +16519,7 @@
         <v>17.3</v>
       </c>
       <c r="K313" t="n">
-        <v>-23.45679012345677</v>
+        <v>-5.660377358490677</v>
       </c>
       <c r="L313" t="n">
         <v>7.82800000000001</v>
@@ -16556,7 +16570,7 @@
         <v>17.48</v>
       </c>
       <c r="K314" t="n">
-        <v>-1.010101010101076</v>
+        <v>38.70967741935511</v>
       </c>
       <c r="L314" t="n">
         <v>7.843000000000009</v>
@@ -16607,7 +16621,7 @@
         <v>17.48</v>
       </c>
       <c r="K315" t="n">
-        <v>-1.010101010101076</v>
+        <v>26.92307692307707</v>
       </c>
       <c r="L315" t="n">
         <v>7.867000000000009</v>
@@ -16658,7 +16672,7 @@
         <v>17.57</v>
       </c>
       <c r="K316" t="n">
-        <v>-9.259259259259293</v>
+        <v>9.99999999999997</v>
       </c>
       <c r="L316" t="n">
         <v>7.872000000000009</v>
@@ -16709,7 +16723,7 @@
         <v>17.64</v>
       </c>
       <c r="K317" t="n">
-        <v>-2.60869565217393</v>
+        <v>18.18181818181819</v>
       </c>
       <c r="L317" t="n">
         <v>7.885000000000008</v>
@@ -16760,7 +16774,7 @@
         <v>17.69</v>
       </c>
       <c r="K318" t="n">
-        <v>4.672897196261747</v>
+        <v>9.859154929577493</v>
       </c>
       <c r="L318" t="n">
         <v>7.892000000000008</v>
@@ -16811,7 +16825,7 @@
         <v>17.7</v>
       </c>
       <c r="K319" t="n">
-        <v>10.67961165048549</v>
+        <v>11.11111111111114</v>
       </c>
       <c r="L319" t="n">
         <v>7.900000000000008</v>
@@ -16862,7 +16876,7 @@
         <v>17.71</v>
       </c>
       <c r="K320" t="n">
-        <v>12.87128712871302</v>
+        <v>9.58904109589049</v>
       </c>
       <c r="L320" t="n">
         <v>7.907000000000009</v>
@@ -16913,7 +16927,7 @@
         <v>17.72</v>
       </c>
       <c r="K321" t="n">
-        <v>12.87128712871298</v>
+        <v>-10.00000000000003</v>
       </c>
       <c r="L321" t="n">
         <v>7.915000000000009</v>
@@ -16964,7 +16978,7 @@
         <v>17.79</v>
       </c>
       <c r="K322" t="n">
-        <v>6.542056074766444</v>
+        <v>10.20408163265313</v>
       </c>
       <c r="L322" t="n">
         <v>7.90200000000001</v>
@@ -17015,7 +17029,7 @@
         <v>17.79</v>
       </c>
       <c r="K323" t="n">
-        <v>5.660377358490593</v>
+        <v>-41.93548387096836</v>
       </c>
       <c r="L323" t="n">
         <v>7.907000000000009</v>
@@ -17066,7 +17080,7 @@
         <v>17.79</v>
       </c>
       <c r="K324" t="n">
-        <v>1.96078431372547</v>
+        <v>-41.93548387096836</v>
       </c>
       <c r="L324" t="n">
         <v>7.89400000000001</v>
@@ -17117,7 +17131,7 @@
         <v>17.79</v>
       </c>
       <c r="K325" t="n">
-        <v>11.82795698924739</v>
+        <v>-18.18181818181858</v>
       </c>
       <c r="L325" t="n">
         <v>7.88100000000001</v>
@@ -17168,7 +17182,7 @@
         <v>17.92</v>
       </c>
       <c r="K326" t="n">
-        <v>-12.50000000000014</v>
+        <v>-85.71428571428761</v>
       </c>
       <c r="L326" t="n">
         <v>7.86400000000001</v>
@@ -17219,7 +17233,7 @@
         <v>17.93</v>
       </c>
       <c r="K327" t="n">
-        <v>-10.41666666666679</v>
+        <v>-75.00000000000185</v>
       </c>
       <c r="L327" t="n">
         <v>7.84100000000001</v>
@@ -17270,7 +17284,7 @@
         <v>17.94</v>
       </c>
       <c r="K328" t="n">
-        <v>-12.50000000000009</v>
+        <v>-83.33333333333518</v>
       </c>
       <c r="L328" t="n">
         <v>7.822000000000008</v>
@@ -17321,7 +17335,7 @@
         <v>17.96</v>
       </c>
       <c r="K329" t="n">
-        <v>-14.28571428571435</v>
+        <v>-84.00000000000118</v>
       </c>
       <c r="L329" t="n">
         <v>7.800000000000009</v>
@@ -17372,7 +17386,7 @@
         <v>17.97</v>
       </c>
       <c r="K330" t="n">
-        <v>-13.13131313131319</v>
+        <v>-83.99999999999999</v>
       </c>
       <c r="L330" t="n">
         <v>7.780000000000008</v>
@@ -17423,7 +17437,7 @@
         <v>17.98</v>
       </c>
       <c r="K331" t="n">
-        <v>-14.00000000000007</v>
+        <v>-78.9473684210533</v>
       </c>
       <c r="L331" t="n">
         <v>7.758000000000008</v>

--- a/BackTest/2019-11-01 BackTest IOST.xlsx
+++ b/BackTest/2019-11-01 BackTest IOST.xlsx
@@ -6401,17 +6401,13 @@
         <v>7.730666666666663</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="K172" t="n">
-        <v>7.54</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
@@ -6440,22 +6436,14 @@
         <v>7.729666666666662</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K173" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6483,22 +6471,14 @@
         <v>7.728333333333329</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K174" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6614,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>7.63</v>
+        <v>7.62</v>
       </c>
       <c r="K177" t="n">
         <v>7.62</v>
@@ -6651,22 +6631,14 @@
         <v>7.726666666666663</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K178" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6694,22 +6666,14 @@
         <v>7.727166666666663</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="K179" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6743,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6778,22 +6736,14 @@
         <v>7.725166666666663</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="K181" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6827,14 +6777,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6868,14 +6812,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6909,14 +6847,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6950,14 +6882,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6991,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7032,14 +6952,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7073,14 +6987,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7114,14 +7022,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7155,14 +7057,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7196,14 +7092,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7237,14 +7127,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7278,14 +7162,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7319,14 +7197,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7360,14 +7232,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7401,14 +7267,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7442,14 +7302,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7483,14 +7337,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7524,14 +7372,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7565,14 +7407,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7606,14 +7442,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7647,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7688,14 +7512,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7729,14 +7547,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7770,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7811,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7852,14 +7652,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7893,14 +7687,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7934,14 +7722,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7975,14 +7757,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8016,14 +7792,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8057,14 +7827,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8098,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8139,14 +7897,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +7932,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8221,14 +7967,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8262,14 +8002,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8303,14 +8037,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8385,14 +8107,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8426,14 +8142,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8467,14 +8177,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8508,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8549,14 +8247,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8590,14 +8282,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8631,14 +8317,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8672,14 +8352,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8713,14 +8387,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8754,14 +8422,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8795,14 +8457,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8836,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8877,14 +8527,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8918,14 +8562,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8959,14 +8597,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9000,14 +8632,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9041,14 +8667,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9082,14 +8702,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9123,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9164,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9205,14 +8807,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9246,14 +8842,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9287,14 +8877,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9328,14 +8912,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9369,14 +8947,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9410,14 +8982,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9451,14 +9017,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9492,14 +9052,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9533,14 +9087,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9574,14 +9122,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9615,14 +9157,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9656,14 +9192,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9697,14 +9227,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9738,14 +9262,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9779,14 +9297,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9820,14 +9332,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9861,14 +9367,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9899,17 +9399,11 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9943,14 +9437,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9984,14 +9472,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10025,14 +9507,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10066,14 +9542,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10104,19 +9574,13 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
-        <v>1.029120734908137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -10145,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest IOST.xlsx
+++ b/BackTest/2019-11-01 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M310"/>
+  <dimension ref="A1:M311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="C2" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="D2" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="E2" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>7.991500000000006</v>
+        <v>7.984666666666673</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="C3" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="D3" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="E3" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="F3" t="n">
-        <v>1164.7594</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>7.998666666666673</v>
+        <v>7.991500000000006</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="C4" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="D4" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="E4" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="F4" t="n">
-        <v>43327.6603</v>
+        <v>1164.7594</v>
       </c>
       <c r="G4" t="n">
-        <v>8.004500000000005</v>
+        <v>7.998666666666673</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>8.09</v>
       </c>
       <c r="C5" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="D5" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="E5" t="n">
         <v>8.09</v>
       </c>
       <c r="F5" t="n">
-        <v>317.6826</v>
+        <v>43327.6603</v>
       </c>
       <c r="G5" t="n">
-        <v>8.009333333333339</v>
+        <v>8.004500000000005</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>8.09</v>
       </c>
       <c r="F6" t="n">
-        <v>143.8414</v>
+        <v>317.6826</v>
       </c>
       <c r="G6" t="n">
-        <v>8.014833333333339</v>
+        <v>8.009333333333339</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.109999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="C7" t="n">
-        <v>8.109999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="D7" t="n">
-        <v>8.109999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="E7" t="n">
-        <v>8.109999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="F7" t="n">
-        <v>302.6826</v>
+        <v>143.8414</v>
       </c>
       <c r="G7" t="n">
-        <v>8.020000000000005</v>
+        <v>8.014833333333339</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>8.109999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.08</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>8.119999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.08</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>166761.9838</v>
+        <v>302.6826</v>
       </c>
       <c r="G8" t="n">
-        <v>8.025333333333339</v>
+        <v>8.020000000000005</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.1</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>8.08</v>
       </c>
       <c r="D9" t="n">
-        <v>8.1</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>8.08</v>
       </c>
       <c r="F9" t="n">
-        <v>1960.6614</v>
+        <v>166761.9838</v>
       </c>
       <c r="G9" t="n">
-        <v>8.030833333333339</v>
+        <v>8.025333333333339</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8.1</v>
       </c>
       <c r="C10" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="D10" t="n">
         <v>8.1</v>
       </c>
       <c r="E10" t="n">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="F10" t="n">
-        <v>1819</v>
+        <v>1960.6614</v>
       </c>
       <c r="G10" t="n">
-        <v>8.036666666666672</v>
+        <v>8.030833333333339</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="C11" t="n">
-        <v>8.07</v>
+        <v>8.1</v>
       </c>
       <c r="D11" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="E11" t="n">
-        <v>8.07</v>
+        <v>8.1</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>1819</v>
       </c>
       <c r="G11" t="n">
-        <v>8.042000000000005</v>
+        <v>8.036666666666672</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="C12" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="D12" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="E12" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>8.048333333333339</v>
+        <v>8.042000000000005</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="C13" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="D13" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="E13" t="n">
-        <v>8.09</v>
+        <v>8.06</v>
       </c>
       <c r="F13" t="n">
-        <v>682.2859999999999</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>8.055166666666672</v>
+        <v>8.048333333333339</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>8.09</v>
       </c>
       <c r="C14" t="n">
-        <v>8.07</v>
+        <v>8.09</v>
       </c>
       <c r="D14" t="n">
         <v>8.09</v>
       </c>
       <c r="E14" t="n">
-        <v>8.07</v>
+        <v>8.09</v>
       </c>
       <c r="F14" t="n">
-        <v>857.6299</v>
+        <v>682.2859999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>8.059000000000005</v>
+        <v>8.055166666666672</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="C15" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="D15" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="E15" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>857.6299</v>
       </c>
       <c r="G15" t="n">
-        <v>8.064333333333339</v>
+        <v>8.059000000000005</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.050000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="C16" t="n">
-        <v>7.99</v>
+        <v>8.06</v>
       </c>
       <c r="D16" t="n">
-        <v>8.050000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="E16" t="n">
-        <v>7.99</v>
+        <v>8.06</v>
       </c>
       <c r="F16" t="n">
-        <v>3153.068</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>8.068833333333338</v>
+        <v>8.064333333333339</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="D17" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6165</v>
+        <v>3153.068</v>
       </c>
       <c r="G17" t="n">
-        <v>8.072000000000005</v>
+        <v>8.068833333333338</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.050000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="C18" t="n">
-        <v>8.050000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="D18" t="n">
-        <v>8.050000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="E18" t="n">
-        <v>8.050000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="F18" t="n">
-        <v>232.6708</v>
+        <v>873.6165</v>
       </c>
       <c r="G18" t="n">
-        <v>8.075833333333339</v>
+        <v>8.072000000000005</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>1075.4593</v>
+        <v>232.6708</v>
       </c>
       <c r="G19" t="n">
-        <v>8.078500000000005</v>
+        <v>8.075833333333339</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.01</v>
+        <v>7.98</v>
       </c>
       <c r="C20" t="n">
-        <v>8.029999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="D20" t="n">
-        <v>8.029999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="E20" t="n">
-        <v>8.01</v>
+        <v>7.98</v>
       </c>
       <c r="F20" t="n">
-        <v>74963.5505</v>
+        <v>1075.4593</v>
       </c>
       <c r="G20" t="n">
-        <v>8.081500000000004</v>
+        <v>8.078500000000005</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.98</v>
+        <v>8.01</v>
       </c>
       <c r="C21" t="n">
-        <v>7.98</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>7.98</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>7.98</v>
+        <v>8.01</v>
       </c>
       <c r="F21" t="n">
-        <v>943.4536000000001</v>
+        <v>74963.5505</v>
       </c>
       <c r="G21" t="n">
-        <v>8.083500000000004</v>
+        <v>8.081500000000004</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="C22" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="D22" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="E22" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="F22" t="n">
-        <v>85415.12149999999</v>
+        <v>943.4536000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>8.085333333333338</v>
+        <v>8.083500000000004</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.96</v>
+        <v>7.99</v>
       </c>
       <c r="C23" t="n">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="D23" t="n">
-        <v>7.96</v>
+        <v>7.99</v>
       </c>
       <c r="E23" t="n">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>85415.12149999999</v>
       </c>
       <c r="G23" t="n">
-        <v>8.086833333333338</v>
+        <v>8.085333333333338</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="C24" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="D24" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="E24" t="n">
-        <v>7.95</v>
+        <v>7.96</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>8.086166666666671</v>
+        <v>8.086833333333338</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="C25" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="D25" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="E25" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="F25" t="n">
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>8.08566666666667</v>
+        <v>8.086166666666671</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.93</v>
+        <v>7.94</v>
       </c>
       <c r="C26" t="n">
-        <v>7.72</v>
+        <v>7.94</v>
       </c>
       <c r="D26" t="n">
-        <v>7.93</v>
+        <v>7.94</v>
       </c>
       <c r="E26" t="n">
-        <v>7.72</v>
+        <v>7.94</v>
       </c>
       <c r="F26" t="n">
-        <v>15505.8183</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>8.081500000000004</v>
+        <v>8.08566666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.96</v>
+        <v>7.93</v>
       </c>
       <c r="C27" t="n">
-        <v>7.96</v>
+        <v>7.72</v>
       </c>
       <c r="D27" t="n">
-        <v>7.96</v>
+        <v>7.93</v>
       </c>
       <c r="E27" t="n">
-        <v>7.96</v>
+        <v>7.72</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>15505.8183</v>
       </c>
       <c r="G27" t="n">
-        <v>8.08116666666667</v>
+        <v>8.081500000000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>7.96</v>
       </c>
       <c r="C28" t="n">
-        <v>7.98</v>
+        <v>7.96</v>
       </c>
       <c r="D28" t="n">
-        <v>7.98</v>
+        <v>7.96</v>
       </c>
       <c r="E28" t="n">
         <v>7.96</v>
       </c>
       <c r="F28" t="n">
-        <v>14523.3873</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>8.080166666666669</v>
+        <v>8.08116666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>7.96</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>7.96</v>
       </c>
       <c r="F29" t="n">
-        <v>255.3681</v>
+        <v>14523.3873</v>
       </c>
       <c r="G29" t="n">
-        <v>8.077333333333335</v>
+        <v>8.080166666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>7910</v>
+        <v>255.3681</v>
       </c>
       <c r="G30" t="n">
-        <v>8.073166666666669</v>
+        <v>8.077333333333335</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>5071.4502</v>
+        <v>7910</v>
       </c>
       <c r="G31" t="n">
-        <v>8.070000000000002</v>
+        <v>8.073166666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.89</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>7.89</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>7.89</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>7.89</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>124524.6806</v>
+        <v>5071.4502</v>
       </c>
       <c r="G32" t="n">
-        <v>8.065333333333335</v>
+        <v>8.070000000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.82</v>
+        <v>7.89</v>
       </c>
       <c r="C33" t="n">
-        <v>7.81</v>
+        <v>7.89</v>
       </c>
       <c r="D33" t="n">
-        <v>7.82</v>
+        <v>7.89</v>
       </c>
       <c r="E33" t="n">
-        <v>7.81</v>
+        <v>7.89</v>
       </c>
       <c r="F33" t="n">
-        <v>316864.9355</v>
+        <v>124524.6806</v>
       </c>
       <c r="G33" t="n">
-        <v>8.059500000000002</v>
+        <v>8.065333333333335</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.050000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="C34" t="n">
-        <v>8.06</v>
+        <v>7.81</v>
       </c>
       <c r="D34" t="n">
-        <v>8.06</v>
+        <v>7.82</v>
       </c>
       <c r="E34" t="n">
-        <v>8.050000000000001</v>
+        <v>7.81</v>
       </c>
       <c r="F34" t="n">
-        <v>7090</v>
+        <v>316864.9355</v>
       </c>
       <c r="G34" t="n">
-        <v>8.058166666666668</v>
+        <v>8.059500000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>8.050000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>23140</v>
+        <v>7090</v>
       </c>
       <c r="G35" t="n">
-        <v>8.056166666666668</v>
+        <v>8.058166666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C36" t="n">
         <v>8.06</v>
-      </c>
-      <c r="C36" t="n">
-        <v>7.98</v>
       </c>
       <c r="D36" t="n">
         <v>8.06</v>
       </c>
       <c r="E36" t="n">
-        <v>7.98</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>42788.3202</v>
+        <v>23140</v>
       </c>
       <c r="G36" t="n">
-        <v>8.053000000000003</v>
+        <v>8.056166666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.99</v>
+        <v>8.06</v>
       </c>
       <c r="C37" t="n">
         <v>7.98</v>
       </c>
       <c r="D37" t="n">
-        <v>7.99</v>
+        <v>8.06</v>
       </c>
       <c r="E37" t="n">
         <v>7.98</v>
       </c>
       <c r="F37" t="n">
-        <v>19809.9083</v>
+        <v>42788.3202</v>
       </c>
       <c r="G37" t="n">
-        <v>8.049500000000002</v>
+        <v>8.053000000000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.81</v>
+        <v>7.99</v>
       </c>
       <c r="C38" t="n">
-        <v>7.8</v>
+        <v>7.98</v>
       </c>
       <c r="D38" t="n">
-        <v>7.81</v>
+        <v>7.99</v>
       </c>
       <c r="E38" t="n">
-        <v>7.8</v>
+        <v>7.98</v>
       </c>
       <c r="F38" t="n">
-        <v>115325.6981</v>
+        <v>19809.9083</v>
       </c>
       <c r="G38" t="n">
-        <v>8.046000000000003</v>
+        <v>8.049500000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.98</v>
+        <v>7.81</v>
       </c>
       <c r="C39" t="n">
-        <v>7.99</v>
+        <v>7.8</v>
       </c>
       <c r="D39" t="n">
-        <v>7.99</v>
+        <v>7.81</v>
       </c>
       <c r="E39" t="n">
-        <v>7.98</v>
+        <v>7.8</v>
       </c>
       <c r="F39" t="n">
-        <v>7170</v>
+        <v>115325.6981</v>
       </c>
       <c r="G39" t="n">
-        <v>8.043000000000003</v>
+        <v>8.046000000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="C40" t="n">
         <v>7.99</v>
@@ -1772,13 +1772,13 @@
         <v>7.99</v>
       </c>
       <c r="E40" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="F40" t="n">
-        <v>15.8551</v>
+        <v>7170</v>
       </c>
       <c r="G40" t="n">
-        <v>8.040000000000003</v>
+        <v>8.043000000000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="C41" t="n">
         <v>7.99</v>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="E41" t="n">
         <v>7.99</v>
       </c>
       <c r="F41" t="n">
-        <v>48870</v>
+        <v>15.8551</v>
       </c>
       <c r="G41" t="n">
-        <v>8.036666666666669</v>
+        <v>8.040000000000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.97</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>7.99</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>7.97</v>
+        <v>7.99</v>
       </c>
       <c r="F42" t="n">
-        <v>94980</v>
+        <v>48870</v>
       </c>
       <c r="G42" t="n">
-        <v>8.033666666666669</v>
+        <v>8.036666666666669</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="C43" t="n">
-        <v>7.96</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>7.96</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>7.96</v>
+        <v>7.97</v>
       </c>
       <c r="F43" t="n">
-        <v>49103.5006</v>
+        <v>94980</v>
       </c>
       <c r="G43" t="n">
-        <v>8.030166666666668</v>
+        <v>8.033666666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>7.96</v>
       </c>
       <c r="F44" t="n">
-        <v>26.4994</v>
+        <v>49103.5006</v>
       </c>
       <c r="G44" t="n">
-        <v>8.026333333333335</v>
+        <v>8.030166666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>7.96</v>
       </c>
       <c r="F45" t="n">
-        <v>275.385</v>
+        <v>26.4994</v>
       </c>
       <c r="G45" t="n">
-        <v>8.022833333333335</v>
+        <v>8.026333333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.87</v>
+        <v>7.96</v>
       </c>
       <c r="C46" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="D46" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="E46" t="n">
-        <v>7.87</v>
+        <v>7.96</v>
       </c>
       <c r="F46" t="n">
-        <v>73767.62450000001</v>
+        <v>275.385</v>
       </c>
       <c r="G46" t="n">
-        <v>8.018000000000001</v>
+        <v>8.022833333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="C47" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="D47" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="E47" t="n">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="F47" t="n">
-        <v>5291.7116</v>
+        <v>73767.62450000001</v>
       </c>
       <c r="G47" t="n">
-        <v>8.014000000000001</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="C48" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="D48" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="E48" t="n">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="F48" t="n">
-        <v>13971</v>
+        <v>5291.7116</v>
       </c>
       <c r="G48" t="n">
-        <v>8.0105</v>
+        <v>8.014000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>7.9</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3426</v>
+        <v>13971</v>
       </c>
       <c r="G49" t="n">
-        <v>8.007166666666667</v>
+        <v>8.0105</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.99</v>
+        <v>7.9</v>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="E50" t="n">
-        <v>7.99</v>
+        <v>7.9</v>
       </c>
       <c r="F50" t="n">
-        <v>41782.1331</v>
+        <v>0.3426</v>
       </c>
       <c r="G50" t="n">
-        <v>8.005666666666666</v>
+        <v>8.007166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.91</v>
+        <v>7.99</v>
       </c>
       <c r="C51" t="n">
-        <v>7.91</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>7.91</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>7.91</v>
+        <v>7.99</v>
       </c>
       <c r="F51" t="n">
-        <v>143.1</v>
+        <v>41782.1331</v>
       </c>
       <c r="G51" t="n">
-        <v>8.002833333333333</v>
+        <v>8.005666666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.89</v>
+        <v>7.91</v>
       </c>
       <c r="C52" t="n">
-        <v>7.74</v>
+        <v>7.91</v>
       </c>
       <c r="D52" t="n">
-        <v>7.89</v>
+        <v>7.91</v>
       </c>
       <c r="E52" t="n">
-        <v>7.74</v>
+        <v>7.91</v>
       </c>
       <c r="F52" t="n">
-        <v>113085.7544</v>
+        <v>143.1</v>
       </c>
       <c r="G52" t="n">
-        <v>7.997333333333334</v>
+        <v>8.002833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.82</v>
+        <v>7.89</v>
       </c>
       <c r="C53" t="n">
-        <v>7.65</v>
+        <v>7.74</v>
       </c>
       <c r="D53" t="n">
-        <v>7.82</v>
+        <v>7.89</v>
       </c>
       <c r="E53" t="n">
-        <v>7.65</v>
+        <v>7.74</v>
       </c>
       <c r="F53" t="n">
-        <v>212035.7896</v>
+        <v>113085.7544</v>
       </c>
       <c r="G53" t="n">
-        <v>7.9905</v>
+        <v>7.997333333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C54" t="n">
         <v>7.65</v>
       </c>
-      <c r="C54" t="n">
-        <v>7.64</v>
-      </c>
       <c r="D54" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="E54" t="n">
         <v>7.65</v>
       </c>
-      <c r="E54" t="n">
-        <v>7.64</v>
-      </c>
       <c r="F54" t="n">
-        <v>127221.4739</v>
+        <v>212035.7896</v>
       </c>
       <c r="G54" t="n">
-        <v>7.983833333333333</v>
+        <v>7.9905</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.91</v>
+        <v>7.65</v>
       </c>
       <c r="C55" t="n">
-        <v>7.91</v>
+        <v>7.64</v>
       </c>
       <c r="D55" t="n">
-        <v>7.91</v>
+        <v>7.65</v>
       </c>
       <c r="E55" t="n">
-        <v>7.91</v>
+        <v>7.64</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>127221.4739</v>
       </c>
       <c r="G55" t="n">
-        <v>7.981666666666666</v>
+        <v>7.983833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.96</v>
+        <v>7.91</v>
       </c>
       <c r="C56" t="n">
-        <v>7.98</v>
+        <v>7.91</v>
       </c>
       <c r="D56" t="n">
-        <v>7.98</v>
+        <v>7.91</v>
       </c>
       <c r="E56" t="n">
-        <v>7.96</v>
+        <v>7.91</v>
       </c>
       <c r="F56" t="n">
-        <v>75082.77</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>7.980166666666666</v>
+        <v>7.981666666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>7.96</v>
       </c>
       <c r="C57" t="n">
-        <v>7.95</v>
+        <v>7.98</v>
       </c>
       <c r="D57" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E57" t="n">
         <v>7.96</v>
       </c>
-      <c r="E57" t="n">
-        <v>7.95</v>
-      </c>
       <c r="F57" t="n">
-        <v>30212.0343</v>
+        <v>75082.77</v>
       </c>
       <c r="G57" t="n">
-        <v>7.979333333333333</v>
+        <v>7.980166666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>7.95</v>
       </c>
       <c r="F58" t="n">
-        <v>34091.7884</v>
+        <v>30212.0343</v>
       </c>
       <c r="G58" t="n">
-        <v>7.977333333333333</v>
+        <v>7.979333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.050000000000001</v>
+        <v>7.96</v>
       </c>
       <c r="C59" t="n">
-        <v>8.050000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="D59" t="n">
-        <v>8.050000000000001</v>
+        <v>7.96</v>
       </c>
       <c r="E59" t="n">
-        <v>8.050000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="F59" t="n">
-        <v>43620</v>
+        <v>34091.7884</v>
       </c>
       <c r="G59" t="n">
-        <v>7.977166666666666</v>
+        <v>7.977333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>8.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>8.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>8.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>32430</v>
+        <v>43620</v>
       </c>
       <c r="G60" t="n">
-        <v>7.975833333333333</v>
+        <v>7.977166666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>8.07</v>
       </c>
       <c r="F61" t="n">
-        <v>24729.9999</v>
+        <v>32430</v>
       </c>
       <c r="G61" t="n">
-        <v>7.976</v>
+        <v>7.975833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="C62" t="n">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="D62" t="n">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="E62" t="n">
-        <v>7.93</v>
+        <v>8.07</v>
       </c>
       <c r="F62" t="n">
-        <v>997.9514</v>
+        <v>24729.9999</v>
       </c>
       <c r="G62" t="n">
-        <v>7.973666666666667</v>
+        <v>7.976</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.15</v>
+        <v>7.93</v>
       </c>
       <c r="C63" t="n">
-        <v>8.15</v>
+        <v>7.93</v>
       </c>
       <c r="D63" t="n">
-        <v>8.15</v>
+        <v>7.93</v>
       </c>
       <c r="E63" t="n">
-        <v>8.15</v>
+        <v>7.93</v>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v>997.9514</v>
       </c>
       <c r="G63" t="n">
-        <v>7.974833333333334</v>
+        <v>7.973666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
       <c r="C64" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
       <c r="D64" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
       <c r="E64" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
       <c r="F64" t="n">
-        <v>713.4211</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>7.971833333333334</v>
+        <v>7.974833333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.93</v>
+        <v>7.92</v>
       </c>
       <c r="C65" t="n">
-        <v>7.95</v>
+        <v>7.92</v>
       </c>
       <c r="D65" t="n">
-        <v>7.95</v>
+        <v>7.92</v>
       </c>
       <c r="E65" t="n">
         <v>7.92</v>
       </c>
       <c r="F65" t="n">
-        <v>37603.7987</v>
+        <v>713.4211</v>
       </c>
       <c r="G65" t="n">
-        <v>7.9695</v>
+        <v>7.971833333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.92</v>
+        <v>7.93</v>
       </c>
       <c r="C66" t="n">
-        <v>7.92</v>
+        <v>7.95</v>
       </c>
       <c r="D66" t="n">
-        <v>7.92</v>
+        <v>7.95</v>
       </c>
       <c r="E66" t="n">
         <v>7.92</v>
       </c>
       <c r="F66" t="n">
-        <v>27981.7563</v>
+        <v>37603.7987</v>
       </c>
       <c r="G66" t="n">
-        <v>7.966666666666668</v>
+        <v>7.9695</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="C67" t="n">
-        <v>7.71</v>
+        <v>7.92</v>
       </c>
       <c r="D67" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="E67" t="n">
-        <v>7.71</v>
+        <v>7.92</v>
       </c>
       <c r="F67" t="n">
-        <v>50000</v>
+        <v>27981.7563</v>
       </c>
       <c r="G67" t="n">
-        <v>7.96</v>
+        <v>7.966666666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.95</v>
+        <v>7.91</v>
       </c>
       <c r="C68" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F68" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G68" t="n">
         <v>7.96</v>
-      </c>
-      <c r="D68" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="F68" t="n">
-        <v>37051.9613</v>
-      </c>
-      <c r="G68" t="n">
-        <v>7.958</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.02</v>
+        <v>7.95</v>
       </c>
       <c r="C69" t="n">
-        <v>8.02</v>
+        <v>7.96</v>
       </c>
       <c r="D69" t="n">
-        <v>8.02</v>
+        <v>7.97</v>
       </c>
       <c r="E69" t="n">
-        <v>8.02</v>
+        <v>7.95</v>
       </c>
       <c r="F69" t="n">
-        <v>1990.0311</v>
+        <v>37051.9613</v>
       </c>
       <c r="G69" t="n">
-        <v>7.957</v>
+        <v>7.958</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.97</v>
+        <v>8.02</v>
       </c>
       <c r="C70" t="n">
-        <v>7.98</v>
+        <v>8.02</v>
       </c>
       <c r="D70" t="n">
-        <v>7.98</v>
+        <v>8.02</v>
       </c>
       <c r="E70" t="n">
-        <v>7.97</v>
+        <v>8.02</v>
       </c>
       <c r="F70" t="n">
-        <v>7120</v>
+        <v>1990.0311</v>
       </c>
       <c r="G70" t="n">
-        <v>7.955</v>
+        <v>7.957</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="F71" t="n">
-        <v>44440</v>
+        <v>7120</v>
       </c>
       <c r="G71" t="n">
-        <v>7.953833333333334</v>
+        <v>7.955</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.78</v>
+        <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>7.78</v>
+        <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>7.78</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>7.78</v>
+        <v>8</v>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>44440</v>
       </c>
       <c r="G72" t="n">
-        <v>7.949166666666667</v>
+        <v>7.953833333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>7.78</v>
       </c>
       <c r="C73" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D73" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="E73" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F73" t="n">
-        <v>1037.4687</v>
+        <v>25</v>
       </c>
       <c r="G73" t="n">
-        <v>7.943833333333333</v>
+        <v>7.949166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>7.78</v>
       </c>
       <c r="C74" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D74" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="E74" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F74" t="n">
-        <v>10000</v>
+        <v>1037.4687</v>
       </c>
       <c r="G74" t="n">
-        <v>7.938999999999999</v>
+        <v>7.943833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>7.934333333333332</v>
+        <v>7.938999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>7.78</v>
       </c>
       <c r="F76" t="n">
-        <v>47960.4113</v>
+        <v>10000</v>
       </c>
       <c r="G76" t="n">
-        <v>7.930833333333331</v>
+        <v>7.934333333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>7.78</v>
       </c>
       <c r="F77" t="n">
-        <v>7710</v>
+        <v>47960.4113</v>
       </c>
       <c r="G77" t="n">
-        <v>7.927499999999998</v>
+        <v>7.930833333333331</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="C78" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="D78" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="E78" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="F78" t="n">
-        <v>9221.1248</v>
+        <v>7710</v>
       </c>
       <c r="G78" t="n">
-        <v>7.922166666666665</v>
+        <v>7.927499999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="C79" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="D79" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="E79" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="F79" t="n">
-        <v>7500</v>
+        <v>9221.1248</v>
       </c>
       <c r="G79" t="n">
-        <v>7.922333333333331</v>
+        <v>7.922166666666665</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="C80" t="n">
         <v>7.99</v>
@@ -3172,13 +3172,13 @@
         <v>7.99</v>
       </c>
       <c r="E80" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="F80" t="n">
-        <v>9860</v>
+        <v>7500</v>
       </c>
       <c r="G80" t="n">
-        <v>7.921666666666665</v>
+        <v>7.922333333333331</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.74</v>
+        <v>7.98</v>
       </c>
       <c r="C81" t="n">
-        <v>7.74</v>
+        <v>7.99</v>
       </c>
       <c r="D81" t="n">
-        <v>7.74</v>
+        <v>7.99</v>
       </c>
       <c r="E81" t="n">
-        <v>7.74</v>
+        <v>7.98</v>
       </c>
       <c r="F81" t="n">
-        <v>18148.4499</v>
+        <v>9860</v>
       </c>
       <c r="G81" t="n">
-        <v>7.917666666666665</v>
+        <v>7.921666666666665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3242,13 +3242,13 @@
         <v>7.74</v>
       </c>
       <c r="E82" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="F82" t="n">
-        <v>21851.5501</v>
+        <v>18148.4499</v>
       </c>
       <c r="G82" t="n">
-        <v>7.913833333333331</v>
+        <v>7.917666666666665</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.76</v>
+        <v>7.74</v>
       </c>
       <c r="C83" t="n">
-        <v>7.75</v>
+        <v>7.74</v>
       </c>
       <c r="D83" t="n">
-        <v>7.76</v>
+        <v>7.74</v>
       </c>
       <c r="E83" t="n">
-        <v>7.75</v>
+        <v>7.73</v>
       </c>
       <c r="F83" t="n">
-        <v>68878.5297</v>
+        <v>21851.5501</v>
       </c>
       <c r="G83" t="n">
-        <v>7.910333333333331</v>
+        <v>7.913833333333331</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="C84" t="n">
         <v>7.75</v>
       </c>
       <c r="D84" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E84" t="n">
         <v>7.75</v>
       </c>
-      <c r="E84" t="n">
-        <v>7.74</v>
-      </c>
       <c r="F84" t="n">
-        <v>613918.9005</v>
+        <v>68878.5297</v>
       </c>
       <c r="G84" t="n">
-        <v>7.906999999999998</v>
+        <v>7.910333333333331</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>7.74</v>
       </c>
       <c r="F85" t="n">
-        <v>606442.6534</v>
+        <v>613918.9005</v>
       </c>
       <c r="G85" t="n">
-        <v>7.903833333333332</v>
+        <v>7.906999999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>7.75</v>
       </c>
       <c r="C86" t="n">
-        <v>7.99</v>
+        <v>7.75</v>
       </c>
       <c r="D86" t="n">
-        <v>7.99</v>
+        <v>7.75</v>
       </c>
       <c r="E86" t="n">
-        <v>7.75</v>
+        <v>7.74</v>
       </c>
       <c r="F86" t="n">
-        <v>150155.4961</v>
+        <v>606442.6534</v>
       </c>
       <c r="G86" t="n">
-        <v>7.908333333333331</v>
+        <v>7.903833333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.8</v>
+        <v>7.75</v>
       </c>
       <c r="C87" t="n">
-        <v>7.78</v>
+        <v>7.99</v>
       </c>
       <c r="D87" t="n">
-        <v>7.8</v>
+        <v>7.99</v>
       </c>
       <c r="E87" t="n">
-        <v>7.78</v>
+        <v>7.75</v>
       </c>
       <c r="F87" t="n">
-        <v>34517.7876</v>
+        <v>150155.4961</v>
       </c>
       <c r="G87" t="n">
-        <v>7.905333333333331</v>
+        <v>7.908333333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.97</v>
+        <v>7.8</v>
       </c>
       <c r="C88" t="n">
-        <v>7.99</v>
+        <v>7.78</v>
       </c>
       <c r="D88" t="n">
-        <v>7.99</v>
+        <v>7.8</v>
       </c>
       <c r="E88" t="n">
-        <v>7.97</v>
+        <v>7.78</v>
       </c>
       <c r="F88" t="n">
-        <v>20470</v>
+        <v>34517.7876</v>
       </c>
       <c r="G88" t="n">
-        <v>7.905499999999998</v>
+        <v>7.905333333333331</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="C89" t="n">
         <v>7.99</v>
@@ -3487,13 +3487,13 @@
         <v>7.99</v>
       </c>
       <c r="E89" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="F89" t="n">
-        <v>75478.96120000001</v>
+        <v>20470</v>
       </c>
       <c r="G89" t="n">
-        <v>7.905333333333331</v>
+        <v>7.905499999999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="C90" t="n">
         <v>7.99</v>
@@ -3522,13 +3522,13 @@
         <v>7.99</v>
       </c>
       <c r="E90" t="n">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="F90" t="n">
-        <v>35659.4493</v>
+        <v>75478.96120000001</v>
       </c>
       <c r="G90" t="n">
-        <v>7.905166666666664</v>
+        <v>7.905333333333331</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>7.99</v>
       </c>
       <c r="F91" t="n">
-        <v>10000</v>
+        <v>35659.4493</v>
       </c>
       <c r="G91" t="n">
-        <v>7.904999999999998</v>
+        <v>7.905166666666664</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>7.99</v>
       </c>
       <c r="F92" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G92" t="n">
-        <v>7.906666666666665</v>
+        <v>7.904999999999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>7.99</v>
       </c>
       <c r="F93" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G93" t="n">
-        <v>7.909666666666666</v>
+        <v>7.906666666666665</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>7.99</v>
       </c>
       <c r="F94" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G94" t="n">
-        <v>7.908499999999999</v>
+        <v>7.909666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>40000</v>
       </c>
       <c r="G95" t="n">
-        <v>7.907333333333332</v>
+        <v>7.908499999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>7.99</v>
       </c>
       <c r="F96" t="n">
-        <v>4301.8773</v>
+        <v>40000</v>
       </c>
       <c r="G96" t="n">
-        <v>7.907499999999999</v>
+        <v>7.907333333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>7.99</v>
       </c>
       <c r="F97" t="n">
-        <v>7050</v>
+        <v>4301.8773</v>
       </c>
       <c r="G97" t="n">
-        <v>7.907666666666666</v>
+        <v>7.907499999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>7.99</v>
       </c>
       <c r="F98" t="n">
-        <v>14540</v>
+        <v>7050</v>
       </c>
       <c r="G98" t="n">
-        <v>7.910833333333332</v>
+        <v>7.907666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="C99" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="D99" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="E99" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="F99" t="n">
-        <v>516.6666</v>
+        <v>14540</v>
       </c>
       <c r="G99" t="n">
-        <v>7.910666666666666</v>
+        <v>7.910833333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="C100" t="n">
-        <v>7.78</v>
+        <v>7.98</v>
       </c>
       <c r="D100" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="E100" t="n">
-        <v>7.78</v>
+        <v>7.98</v>
       </c>
       <c r="F100" t="n">
-        <v>84400.75199999999</v>
+        <v>516.6666</v>
       </c>
       <c r="G100" t="n">
-        <v>7.907166666666665</v>
+        <v>7.910666666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.85</v>
+        <v>7.86</v>
       </c>
       <c r="C101" t="n">
-        <v>7.85</v>
+        <v>7.78</v>
       </c>
       <c r="D101" t="n">
-        <v>7.85</v>
+        <v>7.86</v>
       </c>
       <c r="E101" t="n">
-        <v>7.85</v>
+        <v>7.78</v>
       </c>
       <c r="F101" t="n">
-        <v>8210</v>
+        <v>84400.75199999999</v>
       </c>
       <c r="G101" t="n">
-        <v>7.904833333333332</v>
+        <v>7.907166666666665</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.86</v>
+        <v>7.85</v>
       </c>
       <c r="C102" t="n">
-        <v>7.86</v>
+        <v>7.85</v>
       </c>
       <c r="D102" t="n">
-        <v>7.86</v>
+        <v>7.85</v>
       </c>
       <c r="E102" t="n">
-        <v>7.86</v>
+        <v>7.85</v>
       </c>
       <c r="F102" t="n">
-        <v>5884.0769</v>
+        <v>8210</v>
       </c>
       <c r="G102" t="n">
-        <v>7.902499999999999</v>
+        <v>7.904833333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.97</v>
+        <v>7.86</v>
       </c>
       <c r="C103" t="n">
-        <v>7.98</v>
+        <v>7.86</v>
       </c>
       <c r="D103" t="n">
-        <v>7.98</v>
+        <v>7.86</v>
       </c>
       <c r="E103" t="n">
-        <v>7.97</v>
+        <v>7.86</v>
       </c>
       <c r="F103" t="n">
-        <v>14960</v>
+        <v>5884.0769</v>
       </c>
       <c r="G103" t="n">
-        <v>7.902833333333333</v>
+        <v>7.902499999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.67</v>
+        <v>7.97</v>
       </c>
       <c r="C104" t="n">
-        <v>7.67</v>
+        <v>7.98</v>
       </c>
       <c r="D104" t="n">
-        <v>7.67</v>
+        <v>7.98</v>
       </c>
       <c r="E104" t="n">
-        <v>7.67</v>
+        <v>7.97</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>14960</v>
       </c>
       <c r="G104" t="n">
-        <v>7.898</v>
+        <v>7.902833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>7.67</v>
       </c>
       <c r="C105" t="n">
-        <v>7.7</v>
+        <v>7.67</v>
       </c>
       <c r="D105" t="n">
-        <v>7.72</v>
+        <v>7.67</v>
       </c>
       <c r="E105" t="n">
         <v>7.67</v>
       </c>
       <c r="F105" t="n">
-        <v>292183.7948</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>7.893666666666666</v>
+        <v>7.898</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.69</v>
+        <v>7.67</v>
       </c>
       <c r="C106" t="n">
         <v>7.7</v>
       </c>
       <c r="D106" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="E106" t="n">
-        <v>7.69</v>
+        <v>7.67</v>
       </c>
       <c r="F106" t="n">
-        <v>9330</v>
+        <v>292183.7948</v>
       </c>
       <c r="G106" t="n">
-        <v>7.890666666666666</v>
+        <v>7.893666666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="C107" t="n">
         <v>7.7</v>
@@ -4117,13 +4117,13 @@
         <v>7.7</v>
       </c>
       <c r="E107" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="F107" t="n">
-        <v>15010</v>
+        <v>9330</v>
       </c>
       <c r="G107" t="n">
-        <v>7.8875</v>
+        <v>7.890666666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>7.7</v>
       </c>
       <c r="F108" t="n">
-        <v>7830</v>
+        <v>15010</v>
       </c>
       <c r="G108" t="n">
-        <v>7.884166666666667</v>
+        <v>7.8875</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>7.7</v>
       </c>
       <c r="F109" t="n">
-        <v>271.1688</v>
+        <v>7830</v>
       </c>
       <c r="G109" t="n">
-        <v>7.880833333333333</v>
+        <v>7.884166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4216,19 @@
         <v>7.7</v>
       </c>
       <c r="C110" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="D110" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="E110" t="n">
         <v>7.7</v>
       </c>
       <c r="F110" t="n">
-        <v>27170</v>
+        <v>271.1688</v>
       </c>
       <c r="G110" t="n">
-        <v>7.879166666666666</v>
+        <v>7.880833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7.68</v>
+        <v>7.7</v>
       </c>
       <c r="C111" t="n">
-        <v>7.61</v>
+        <v>7.9</v>
       </c>
       <c r="D111" t="n">
-        <v>7.68</v>
+        <v>7.9</v>
       </c>
       <c r="E111" t="n">
-        <v>7.61</v>
+        <v>7.7</v>
       </c>
       <c r="F111" t="n">
-        <v>47913.2671</v>
+        <v>27170</v>
       </c>
       <c r="G111" t="n">
-        <v>7.874166666666667</v>
+        <v>7.879166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="C112" t="n">
         <v>7.61</v>
       </c>
-      <c r="C112" t="n">
-        <v>7.57</v>
-      </c>
       <c r="D112" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="E112" t="n">
         <v>7.61</v>
       </c>
-      <c r="E112" t="n">
-        <v>7.57</v>
-      </c>
       <c r="F112" t="n">
-        <v>137870.7329</v>
+        <v>47913.2671</v>
       </c>
       <c r="G112" t="n">
-        <v>7.871333333333333</v>
+        <v>7.874166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         <v>7.61</v>
       </c>
       <c r="C113" t="n">
-        <v>7.61</v>
+        <v>7.57</v>
       </c>
       <c r="D113" t="n">
         <v>7.61</v>
       </c>
       <c r="E113" t="n">
-        <v>7.61</v>
+        <v>7.57</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>137870.7329</v>
       </c>
       <c r="G113" t="n">
-        <v>7.870666666666667</v>
+        <v>7.871333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="C114" t="n">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="D114" t="n">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="E114" t="n">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="F114" t="n">
-        <v>326.6654</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>7.871666666666667</v>
+        <v>7.870666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.76</v>
+        <v>7.7</v>
       </c>
       <c r="C115" t="n">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="D115" t="n">
-        <v>7.76</v>
+        <v>7.7</v>
       </c>
       <c r="E115" t="n">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="F115" t="n">
-        <v>12060</v>
+        <v>326.6654</v>
       </c>
       <c r="G115" t="n">
-        <v>7.869</v>
+        <v>7.871666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="C116" t="n">
-        <v>7.65</v>
+        <v>7.75</v>
       </c>
       <c r="D116" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="E116" t="n">
-        <v>7.65</v>
+        <v>7.75</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>12060</v>
       </c>
       <c r="G116" t="n">
-        <v>7.863499999999999</v>
+        <v>7.869</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7.8</v>
+        <v>7.74</v>
       </c>
       <c r="C117" t="n">
-        <v>7.59</v>
+        <v>7.65</v>
       </c>
       <c r="D117" t="n">
-        <v>7.8</v>
+        <v>7.74</v>
       </c>
       <c r="E117" t="n">
-        <v>7.59</v>
+        <v>7.65</v>
       </c>
       <c r="F117" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>7.857499999999999</v>
+        <v>7.863499999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.89</v>
+        <v>7.8</v>
       </c>
       <c r="C118" t="n">
-        <v>7.89</v>
+        <v>7.59</v>
       </c>
       <c r="D118" t="n">
-        <v>7.89</v>
+        <v>7.8</v>
       </c>
       <c r="E118" t="n">
-        <v>7.89</v>
+        <v>7.59</v>
       </c>
       <c r="F118" t="n">
-        <v>15930</v>
+        <v>300</v>
       </c>
       <c r="G118" t="n">
-        <v>7.856499999999999</v>
+        <v>7.857499999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7.61</v>
+        <v>7.89</v>
       </c>
       <c r="C119" t="n">
-        <v>7.61</v>
+        <v>7.89</v>
       </c>
       <c r="D119" t="n">
-        <v>7.61</v>
+        <v>7.89</v>
       </c>
       <c r="E119" t="n">
-        <v>7.61</v>
+        <v>7.89</v>
       </c>
       <c r="F119" t="n">
-        <v>3985.6239</v>
+        <v>15930</v>
       </c>
       <c r="G119" t="n">
-        <v>7.849166666666665</v>
+        <v>7.856499999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.86</v>
+        <v>7.61</v>
       </c>
       <c r="C120" t="n">
-        <v>7.87</v>
+        <v>7.61</v>
       </c>
       <c r="D120" t="n">
-        <v>7.87</v>
+        <v>7.61</v>
       </c>
       <c r="E120" t="n">
-        <v>7.86</v>
+        <v>7.61</v>
       </c>
       <c r="F120" t="n">
-        <v>8140</v>
+        <v>3985.6239</v>
       </c>
       <c r="G120" t="n">
-        <v>7.845833333333332</v>
+        <v>7.849166666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7.8</v>
+        <v>7.86</v>
       </c>
       <c r="C121" t="n">
-        <v>7.78</v>
+        <v>7.87</v>
       </c>
       <c r="D121" t="n">
-        <v>7.8</v>
+        <v>7.87</v>
       </c>
       <c r="E121" t="n">
-        <v>7.78</v>
+        <v>7.86</v>
       </c>
       <c r="F121" t="n">
-        <v>7440</v>
+        <v>8140</v>
       </c>
       <c r="G121" t="n">
-        <v>7.840999999999998</v>
+        <v>7.845833333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="C122" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="D122" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="E122" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="F122" t="n">
-        <v>411</v>
+        <v>7440</v>
       </c>
       <c r="G122" t="n">
-        <v>7.837666666666665</v>
+        <v>7.840999999999998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C123" t="n">
         <v>7.73</v>
       </c>
-      <c r="C123" t="n">
-        <v>7.7</v>
-      </c>
       <c r="D123" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E123" t="n">
         <v>7.73</v>
       </c>
-      <c r="E123" t="n">
-        <v>7.7</v>
-      </c>
       <c r="F123" t="n">
-        <v>1111</v>
+        <v>411</v>
       </c>
       <c r="G123" t="n">
-        <v>7.830166666666666</v>
+        <v>7.837666666666665</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7.75</v>
+        <v>7.73</v>
       </c>
       <c r="C124" t="n">
-        <v>7.76</v>
+        <v>7.7</v>
       </c>
       <c r="D124" t="n">
-        <v>7.76</v>
+        <v>7.73</v>
       </c>
       <c r="E124" t="n">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="F124" t="n">
-        <v>711</v>
+        <v>1111</v>
       </c>
       <c r="G124" t="n">
-        <v>7.827499999999999</v>
+        <v>7.830166666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7.76</v>
+        <v>7.75</v>
       </c>
       <c r="C125" t="n">
         <v>7.76</v>
@@ -4747,13 +4747,13 @@
         <v>7.76</v>
       </c>
       <c r="E125" t="n">
-        <v>7.76</v>
+        <v>7.75</v>
       </c>
       <c r="F125" t="n">
-        <v>100</v>
+        <v>711</v>
       </c>
       <c r="G125" t="n">
-        <v>7.824333333333332</v>
+        <v>7.827499999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>7.821666666666665</v>
+        <v>7.824333333333332</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>7.76</v>
       </c>
       <c r="C127" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="D127" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="E127" t="n">
         <v>7.76</v>
       </c>
       <c r="F127" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>7.822666666666665</v>
+        <v>7.821666666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="C128" t="n">
         <v>7.77</v>
-      </c>
-      <c r="C128" t="n">
-        <v>7.73</v>
       </c>
       <c r="D128" t="n">
         <v>7.77</v>
       </c>
       <c r="E128" t="n">
-        <v>7.73</v>
+        <v>7.76</v>
       </c>
       <c r="F128" t="n">
-        <v>10400</v>
+        <v>20000</v>
       </c>
       <c r="G128" t="n">
-        <v>7.818833333333332</v>
+        <v>7.822666666666665</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7.73</v>
+        <v>7.77</v>
       </c>
       <c r="C129" t="n">
         <v>7.73</v>
       </c>
       <c r="D129" t="n">
-        <v>7.73</v>
+        <v>7.77</v>
       </c>
       <c r="E129" t="n">
         <v>7.73</v>
       </c>
       <c r="F129" t="n">
-        <v>22610</v>
+        <v>10400</v>
       </c>
       <c r="G129" t="n">
-        <v>7.813999999999999</v>
+        <v>7.818833333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +4916,19 @@
         <v>7.73</v>
       </c>
       <c r="C130" t="n">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="D130" t="n">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="E130" t="n">
         <v>7.73</v>
       </c>
       <c r="F130" t="n">
-        <v>23116.0025</v>
+        <v>22610</v>
       </c>
       <c r="G130" t="n">
-        <v>7.812333333333332</v>
+        <v>7.813999999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7.8</v>
+        <v>7.73</v>
       </c>
       <c r="C131" t="n">
-        <v>7.7</v>
+        <v>7.88</v>
       </c>
       <c r="D131" t="n">
-        <v>7.8</v>
+        <v>7.88</v>
       </c>
       <c r="E131" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="F131" t="n">
-        <v>11750</v>
+        <v>23116.0025</v>
       </c>
       <c r="G131" t="n">
-        <v>7.807333333333332</v>
+        <v>7.812333333333332</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="C132" t="n">
-        <v>7.65</v>
+        <v>7.7</v>
       </c>
       <c r="D132" t="n">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="E132" t="n">
-        <v>7.65</v>
+        <v>7.7</v>
       </c>
       <c r="F132" t="n">
-        <v>1400</v>
+        <v>11750</v>
       </c>
       <c r="G132" t="n">
-        <v>7.805166666666666</v>
+        <v>7.807333333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C133" t="n">
         <v>7.65</v>
       </c>
-      <c r="C133" t="n">
-        <v>7.87</v>
-      </c>
       <c r="D133" t="n">
-        <v>7.87</v>
+        <v>7.78</v>
       </c>
       <c r="E133" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="F133" t="n">
-        <v>303744.0489</v>
+        <v>1400</v>
       </c>
       <c r="G133" t="n">
-        <v>7.806833333333333</v>
+        <v>7.805166666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7.86</v>
+        <v>7.65</v>
       </c>
       <c r="C134" t="n">
         <v>7.87</v>
       </c>
       <c r="D134" t="n">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="E134" t="n">
-        <v>7.86</v>
+        <v>7.63</v>
       </c>
       <c r="F134" t="n">
-        <v>30870</v>
+        <v>303744.0489</v>
       </c>
       <c r="G134" t="n">
-        <v>7.808333333333334</v>
+        <v>7.806833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7.8</v>
+        <v>7.86</v>
       </c>
       <c r="C135" t="n">
-        <v>7.85</v>
+        <v>7.87</v>
       </c>
       <c r="D135" t="n">
-        <v>7.85</v>
+        <v>7.89</v>
       </c>
       <c r="E135" t="n">
-        <v>7.8</v>
+        <v>7.86</v>
       </c>
       <c r="F135" t="n">
-        <v>23170</v>
+        <v>30870</v>
       </c>
       <c r="G135" t="n">
-        <v>7.809500000000001</v>
+        <v>7.808333333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5126,19 +5126,19 @@
         <v>7.8</v>
       </c>
       <c r="C136" t="n">
-        <v>7.8</v>
+        <v>7.85</v>
       </c>
       <c r="D136" t="n">
-        <v>7.8</v>
+        <v>7.85</v>
       </c>
       <c r="E136" t="n">
         <v>7.8</v>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>23170</v>
       </c>
       <c r="G136" t="n">
-        <v>7.809833333333335</v>
+        <v>7.809500000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="C137" t="n">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="D137" t="n">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="E137" t="n">
-        <v>7.84</v>
+        <v>7.8</v>
       </c>
       <c r="F137" t="n">
         <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>7.810833333333335</v>
+        <v>7.809833333333335</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="C138" t="n">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
       <c r="D138" t="n">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="E138" t="n">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
       <c r="F138" t="n">
-        <v>27986.6346</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>7.812000000000001</v>
+        <v>7.810833333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7.79</v>
+        <v>7.83</v>
       </c>
       <c r="C139" t="n">
-        <v>7.66</v>
+        <v>7.8</v>
       </c>
       <c r="D139" t="n">
-        <v>7.79</v>
+        <v>7.83</v>
       </c>
       <c r="E139" t="n">
-        <v>7.66</v>
+        <v>7.8</v>
       </c>
       <c r="F139" t="n">
-        <v>1400</v>
+        <v>27986.6346</v>
       </c>
       <c r="G139" t="n">
-        <v>7.806500000000002</v>
+        <v>7.812000000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7.81</v>
+        <v>7.79</v>
       </c>
       <c r="C140" t="n">
-        <v>7.81</v>
+        <v>7.66</v>
       </c>
       <c r="D140" t="n">
-        <v>7.81</v>
+        <v>7.79</v>
       </c>
       <c r="E140" t="n">
-        <v>7.81</v>
+        <v>7.66</v>
       </c>
       <c r="F140" t="n">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="G140" t="n">
-        <v>7.803500000000001</v>
+        <v>7.806500000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="C141" t="n">
-        <v>7.79</v>
+        <v>7.81</v>
       </c>
       <c r="D141" t="n">
-        <v>7.8</v>
+        <v>7.81</v>
       </c>
       <c r="E141" t="n">
-        <v>7.79</v>
+        <v>7.81</v>
       </c>
       <c r="F141" t="n">
-        <v>7880</v>
+        <v>100</v>
       </c>
       <c r="G141" t="n">
-        <v>7.804333333333335</v>
+        <v>7.803500000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C142" t="n">
         <v>7.79</v>
       </c>
-      <c r="C142" t="n">
-        <v>7.78</v>
-      </c>
       <c r="D142" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E142" t="n">
         <v>7.79</v>
       </c>
-      <c r="E142" t="n">
-        <v>7.78</v>
-      </c>
       <c r="F142" t="n">
-        <v>15200</v>
+        <v>7880</v>
       </c>
       <c r="G142" t="n">
-        <v>7.805000000000001</v>
+        <v>7.804333333333335</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7.77</v>
+        <v>7.79</v>
       </c>
       <c r="C143" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D143" t="n">
-        <v>7.77</v>
+        <v>7.79</v>
       </c>
       <c r="E143" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F143" t="n">
-        <v>100</v>
+        <v>15200</v>
       </c>
       <c r="G143" t="n">
-        <v>7.805333333333334</v>
+        <v>7.805000000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7.79</v>
+        <v>7.77</v>
       </c>
       <c r="C144" t="n">
-        <v>7.79</v>
+        <v>7.77</v>
       </c>
       <c r="D144" t="n">
-        <v>7.79</v>
+        <v>7.77</v>
       </c>
       <c r="E144" t="n">
-        <v>7.79</v>
+        <v>7.77</v>
       </c>
       <c r="F144" t="n">
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>7.806000000000001</v>
+        <v>7.805333333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="C145" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="D145" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="E145" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="F145" t="n">
         <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>7.806500000000001</v>
+        <v>7.806000000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5476,19 +5476,19 @@
         <v>7.78</v>
       </c>
       <c r="C146" t="n">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="D146" t="n">
         <v>7.78</v>
       </c>
       <c r="E146" t="n">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G146" t="n">
-        <v>7.801666666666667</v>
+        <v>7.806500000000001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="C147" t="n">
         <v>7.7</v>
       </c>
       <c r="D147" t="n">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="E147" t="n">
         <v>7.7</v>
       </c>
       <c r="F147" t="n">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="n">
-        <v>7.800333333333334</v>
+        <v>7.801666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5546,19 @@
         <v>7.7</v>
       </c>
       <c r="C148" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="D148" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="E148" t="n">
         <v>7.7</v>
       </c>
       <c r="F148" t="n">
-        <v>130207.922</v>
+        <v>966</v>
       </c>
       <c r="G148" t="n">
-        <v>7.797166666666667</v>
+        <v>7.800333333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>7.79</v>
+        <v>7.7</v>
       </c>
       <c r="C149" t="n">
         <v>7.8</v>
@@ -5587,13 +5587,13 @@
         <v>7.8</v>
       </c>
       <c r="E149" t="n">
-        <v>7.79</v>
+        <v>7.7</v>
       </c>
       <c r="F149" t="n">
-        <v>9000</v>
+        <v>130207.922</v>
       </c>
       <c r="G149" t="n">
-        <v>7.794</v>
+        <v>7.797166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="C150" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="D150" t="n">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="E150" t="n">
-        <v>7.77</v>
+        <v>7.79</v>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G150" t="n">
-        <v>7.790333333333334</v>
+        <v>7.794</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C151" t="n">
         <v>7.77</v>
       </c>
       <c r="D151" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E151" t="n">
         <v>7.77</v>
       </c>
       <c r="F151" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G151" t="n">
-        <v>7.786666666666666</v>
+        <v>7.790333333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="C152" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D152" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E152" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F152" t="n">
-        <v>8550</v>
+        <v>100</v>
       </c>
       <c r="G152" t="n">
-        <v>7.783166666666665</v>
+        <v>7.786666666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +5721,19 @@
         <v>7.78</v>
       </c>
       <c r="C153" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="D153" t="n">
         <v>7.78</v>
       </c>
       <c r="E153" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="F153" t="n">
-        <v>271497.6473</v>
+        <v>8550</v>
       </c>
       <c r="G153" t="n">
-        <v>7.777333333333332</v>
+        <v>7.783166666666665</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="C154" t="n">
         <v>7.64</v>
       </c>
       <c r="D154" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="E154" t="n">
         <v>7.64</v>
       </c>
       <c r="F154" t="n">
-        <v>305.1047</v>
+        <v>271497.6473</v>
       </c>
       <c r="G154" t="n">
-        <v>7.771499999999999</v>
+        <v>7.777333333333332</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>7.64</v>
       </c>
       <c r="F155" t="n">
-        <v>47836.9318</v>
+        <v>305.1047</v>
       </c>
       <c r="G155" t="n">
-        <v>7.765666666666664</v>
+        <v>7.771499999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>7.77</v>
+        <v>7.64</v>
       </c>
       <c r="C156" t="n">
-        <v>7.77</v>
+        <v>7.64</v>
       </c>
       <c r="D156" t="n">
-        <v>7.77</v>
+        <v>7.64</v>
       </c>
       <c r="E156" t="n">
-        <v>7.77</v>
+        <v>7.64</v>
       </c>
       <c r="F156" t="n">
-        <v>1319.8198</v>
+        <v>47836.9318</v>
       </c>
       <c r="G156" t="n">
-        <v>7.761999999999998</v>
+        <v>7.765666666666664</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="C157" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D157" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E157" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F157" t="n">
-        <v>100</v>
+        <v>1319.8198</v>
       </c>
       <c r="G157" t="n">
-        <v>7.758499999999997</v>
+        <v>7.761999999999998</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5896,19 +5896,19 @@
         <v>7.78</v>
       </c>
       <c r="C158" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="D158" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="E158" t="n">
         <v>7.78</v>
       </c>
       <c r="F158" t="n">
-        <v>16100</v>
+        <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>7.755166666666664</v>
+        <v>7.758499999999997</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5931,19 @@
         <v>7.78</v>
       </c>
       <c r="C159" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="D159" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="E159" t="n">
         <v>7.78</v>
       </c>
       <c r="F159" t="n">
-        <v>22740</v>
+        <v>16100</v>
       </c>
       <c r="G159" t="n">
-        <v>7.751833333333329</v>
+        <v>7.755166666666664</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C160" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D160" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E160" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F160" t="n">
-        <v>100</v>
+        <v>22740</v>
       </c>
       <c r="G160" t="n">
-        <v>7.751666666666663</v>
+        <v>7.751833333333329</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="C161" t="n">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
       <c r="D161" t="n">
-        <v>7.8</v>
+        <v>7.77</v>
       </c>
       <c r="E161" t="n">
-        <v>7.7</v>
+        <v>7.77</v>
       </c>
       <c r="F161" t="n">
-        <v>167025.1923</v>
+        <v>100</v>
       </c>
       <c r="G161" t="n">
-        <v>7.749166666666663</v>
+        <v>7.751666666666663</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>7.79</v>
+        <v>7.76</v>
       </c>
       <c r="C162" t="n">
         <v>7.7</v>
@@ -6045,10 +6045,10 @@
         <v>7.7</v>
       </c>
       <c r="F162" t="n">
-        <v>201570.0648</v>
+        <v>167025.1923</v>
       </c>
       <c r="G162" t="n">
-        <v>7.746499999999996</v>
+        <v>7.749166666666663</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C163" t="n">
         <v>7.7</v>
       </c>
-      <c r="C163" t="n">
-        <v>7.69</v>
-      </c>
       <c r="D163" t="n">
-        <v>7.71</v>
+        <v>7.8</v>
       </c>
       <c r="E163" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="F163" t="n">
-        <v>400</v>
+        <v>201570.0648</v>
       </c>
       <c r="G163" t="n">
-        <v>7.741666666666662</v>
+        <v>7.746499999999996</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6106,19 +6106,19 @@
         <v>7.7</v>
       </c>
       <c r="C164" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="D164" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="E164" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="F164" t="n">
         <v>400</v>
       </c>
       <c r="G164" t="n">
-        <v>7.742166666666662</v>
+        <v>7.741666666666662</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="C165" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="D165" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="E165" t="n">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G165" t="n">
-        <v>7.741999999999995</v>
+        <v>7.742166666666662</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7.68</v>
+        <v>7.69</v>
       </c>
       <c r="C166" t="n">
-        <v>7.65</v>
+        <v>7.69</v>
       </c>
       <c r="D166" t="n">
-        <v>7.68</v>
+        <v>7.69</v>
       </c>
       <c r="E166" t="n">
-        <v>7.65</v>
+        <v>7.69</v>
       </c>
       <c r="F166" t="n">
-        <v>60918.6908</v>
+        <v>100</v>
       </c>
       <c r="G166" t="n">
-        <v>7.741166666666661</v>
+        <v>7.741999999999995</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7.67</v>
+        <v>7.68</v>
       </c>
       <c r="C167" t="n">
-        <v>7.77</v>
+        <v>7.65</v>
       </c>
       <c r="D167" t="n">
-        <v>7.77</v>
+        <v>7.68</v>
       </c>
       <c r="E167" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="F167" t="n">
-        <v>243805.3875</v>
+        <v>60918.6908</v>
       </c>
       <c r="G167" t="n">
-        <v>7.742333333333328</v>
+        <v>7.741166666666661</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>7.71</v>
+        <v>7.67</v>
       </c>
       <c r="C168" t="n">
-        <v>7.63</v>
+        <v>7.77</v>
       </c>
       <c r="D168" t="n">
-        <v>7.71</v>
+        <v>7.77</v>
       </c>
       <c r="E168" t="n">
         <v>7.63</v>
       </c>
       <c r="F168" t="n">
-        <v>152268.4811</v>
+        <v>243805.3875</v>
       </c>
       <c r="G168" t="n">
-        <v>7.741166666666661</v>
+        <v>7.742333333333328</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>7.62</v>
+        <v>7.71</v>
       </c>
       <c r="C169" t="n">
-        <v>7.53</v>
+        <v>7.63</v>
       </c>
       <c r="D169" t="n">
-        <v>7.62</v>
+        <v>7.71</v>
       </c>
       <c r="E169" t="n">
-        <v>7.53</v>
+        <v>7.63</v>
       </c>
       <c r="F169" t="n">
-        <v>570617.0820000001</v>
+        <v>152268.4811</v>
       </c>
       <c r="G169" t="n">
-        <v>7.738333333333328</v>
+        <v>7.741166666666661</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>7.54</v>
+        <v>7.62</v>
       </c>
       <c r="C170" t="n">
-        <v>7.54</v>
+        <v>7.53</v>
       </c>
       <c r="D170" t="n">
-        <v>7.54</v>
+        <v>7.62</v>
       </c>
       <c r="E170" t="n">
-        <v>7.54</v>
+        <v>7.53</v>
       </c>
       <c r="F170" t="n">
-        <v>460.8294</v>
+        <v>570617.0820000001</v>
       </c>
       <c r="G170" t="n">
-        <v>7.732333333333329</v>
+        <v>7.738333333333328</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>7.54</v>
       </c>
       <c r="F171" t="n">
-        <v>4634.076</v>
+        <v>460.8294</v>
       </c>
       <c r="G171" t="n">
-        <v>7.731166666666662</v>
+        <v>7.732333333333329</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>7.54</v>
       </c>
       <c r="F172" t="n">
-        <v>463.4076</v>
+        <v>4634.076</v>
       </c>
       <c r="G172" t="n">
-        <v>7.730666666666663</v>
+        <v>7.731166666666662</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>7.55</v>
+        <v>7.54</v>
       </c>
       <c r="C173" t="n">
-        <v>7.55</v>
+        <v>7.54</v>
       </c>
       <c r="D173" t="n">
-        <v>7.55</v>
+        <v>7.54</v>
       </c>
       <c r="E173" t="n">
-        <v>7.55</v>
+        <v>7.54</v>
       </c>
       <c r="F173" t="n">
-        <v>130588.4175</v>
+        <v>463.4076</v>
       </c>
       <c r="G173" t="n">
-        <v>7.729666666666662</v>
+        <v>7.730666666666663</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="C174" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="D174" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="E174" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="F174" t="n">
-        <v>20</v>
+        <v>130588.4175</v>
       </c>
       <c r="G174" t="n">
-        <v>7.728333333333329</v>
+        <v>7.729666666666662</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6500,10 +6500,10 @@
         <v>7.62</v>
       </c>
       <c r="F175" t="n">
-        <v>114.0419</v>
+        <v>20</v>
       </c>
       <c r="G175" t="n">
-        <v>7.726166666666662</v>
+        <v>7.728333333333329</v>
       </c>
       <c r="H175" t="n">
         <v>1</v>
@@ -6512,10 +6512,10 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="K175" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
@@ -6539,10 +6539,10 @@
         <v>7.62</v>
       </c>
       <c r="F176" t="n">
-        <v>329.3657</v>
+        <v>114.0419</v>
       </c>
       <c r="G176" t="n">
-        <v>7.725666666666664</v>
+        <v>7.726166666666662</v>
       </c>
       <c r="H176" t="n">
         <v>1</v>
@@ -6554,7 +6554,7 @@
         <v>7.62</v>
       </c>
       <c r="K176" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6570,34 +6570,32 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>7.63</v>
+        <v>7.62</v>
       </c>
       <c r="C177" t="n">
-        <v>7.77</v>
+        <v>7.62</v>
       </c>
       <c r="D177" t="n">
-        <v>7.77</v>
+        <v>7.62</v>
       </c>
       <c r="E177" t="n">
-        <v>7.63</v>
+        <v>7.62</v>
       </c>
       <c r="F177" t="n">
-        <v>41159.298</v>
+        <v>329.3657</v>
       </c>
       <c r="G177" t="n">
-        <v>7.728666666666664</v>
+        <v>7.725666666666664</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>7.62</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6613,7 +6611,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>7.76</v>
+        <v>7.63</v>
       </c>
       <c r="C178" t="n">
         <v>7.77</v>
@@ -6622,13 +6620,13 @@
         <v>7.77</v>
       </c>
       <c r="E178" t="n">
-        <v>7.76</v>
+        <v>7.63</v>
       </c>
       <c r="F178" t="n">
-        <v>7960</v>
+        <v>41159.298</v>
       </c>
       <c r="G178" t="n">
-        <v>7.726666666666663</v>
+        <v>7.728666666666664</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6648,22 +6646,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>7.64</v>
+        <v>7.76</v>
       </c>
       <c r="C179" t="n">
-        <v>7.64</v>
+        <v>7.77</v>
       </c>
       <c r="D179" t="n">
-        <v>7.64</v>
+        <v>7.77</v>
       </c>
       <c r="E179" t="n">
-        <v>7.64</v>
+        <v>7.76</v>
       </c>
       <c r="F179" t="n">
-        <v>24105.9973</v>
+        <v>7960</v>
       </c>
       <c r="G179" t="n">
-        <v>7.727166666666663</v>
+        <v>7.726666666666663</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6683,22 +6681,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>7.76</v>
+        <v>7.64</v>
       </c>
       <c r="C180" t="n">
-        <v>7.76</v>
+        <v>7.64</v>
       </c>
       <c r="D180" t="n">
-        <v>7.76</v>
+        <v>7.64</v>
       </c>
       <c r="E180" t="n">
-        <v>7.76</v>
+        <v>7.64</v>
       </c>
       <c r="F180" t="n">
-        <v>97533.4875</v>
+        <v>24105.9973</v>
       </c>
       <c r="G180" t="n">
-        <v>7.725333333333329</v>
+        <v>7.727166666666663</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6718,22 +6716,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="C181" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="D181" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="E181" t="n">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="F181" t="n">
-        <v>8564</v>
+        <v>97533.4875</v>
       </c>
       <c r="G181" t="n">
-        <v>7.725166666666663</v>
+        <v>7.725333333333329</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6765,10 +6763,10 @@
         <v>7.77</v>
       </c>
       <c r="F182" t="n">
-        <v>45780.2728</v>
+        <v>8564</v>
       </c>
       <c r="G182" t="n">
-        <v>7.725833333333329</v>
+        <v>7.725166666666663</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6788,22 +6786,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="C183" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="D183" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="E183" t="n">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="F183" t="n">
-        <v>69412</v>
+        <v>45780.2728</v>
       </c>
       <c r="G183" t="n">
-        <v>7.726833333333329</v>
+        <v>7.725833333333329</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6823,22 +6821,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="C184" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="D184" t="n">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="E184" t="n">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>69412</v>
       </c>
       <c r="G184" t="n">
-        <v>7.726499999999996</v>
+        <v>7.726833333333329</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6858,22 +6856,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>7.74</v>
+        <v>7.75</v>
       </c>
       <c r="C185" t="n">
         <v>7.74</v>
       </c>
       <c r="D185" t="n">
-        <v>7.74</v>
+        <v>7.75</v>
       </c>
       <c r="E185" t="n">
         <v>7.74</v>
       </c>
       <c r="F185" t="n">
-        <v>11437.4677</v>
+        <v>200</v>
       </c>
       <c r="G185" t="n">
-        <v>7.726166666666662</v>
+        <v>7.726499999999996</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6893,22 +6891,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="C186" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="D186" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="E186" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="F186" t="n">
-        <v>11</v>
+        <v>11437.4677</v>
       </c>
       <c r="G186" t="n">
-        <v>7.725666666666664</v>
+        <v>7.726166666666662</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6940,10 +6938,10 @@
         <v>7.73</v>
       </c>
       <c r="F187" t="n">
-        <v>2989</v>
+        <v>11</v>
       </c>
       <c r="G187" t="n">
-        <v>7.724999999999997</v>
+        <v>7.725666666666664</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6963,22 +6961,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="C188" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="D188" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="E188" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="F188" t="n">
-        <v>43.7984</v>
+        <v>2989</v>
       </c>
       <c r="G188" t="n">
-        <v>7.725166666666664</v>
+        <v>7.724999999999997</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6998,19 +6996,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="C189" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="D189" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="E189" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="F189" t="n">
-        <v>100</v>
+        <v>43.7984</v>
       </c>
       <c r="G189" t="n">
         <v>7.725166666666664</v>
@@ -7033,22 +7031,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="C190" t="n">
-        <v>7.79</v>
+        <v>7.73</v>
       </c>
       <c r="D190" t="n">
-        <v>7.79</v>
+        <v>7.73</v>
       </c>
       <c r="E190" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="F190" t="n">
-        <v>44640</v>
+        <v>100</v>
       </c>
       <c r="G190" t="n">
-        <v>7.723666666666664</v>
+        <v>7.725166666666664</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7068,7 +7066,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>7.78</v>
+        <v>7.74</v>
       </c>
       <c r="C191" t="n">
         <v>7.79</v>
@@ -7077,13 +7075,13 @@
         <v>7.79</v>
       </c>
       <c r="E191" t="n">
-        <v>7.78</v>
+        <v>7.74</v>
       </c>
       <c r="F191" t="n">
-        <v>8105.1604</v>
+        <v>44640</v>
       </c>
       <c r="G191" t="n">
-        <v>7.725166666666665</v>
+        <v>7.723666666666664</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7106,19 +7104,19 @@
         <v>7.78</v>
       </c>
       <c r="C192" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="D192" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="E192" t="n">
         <v>7.78</v>
       </c>
       <c r="F192" t="n">
-        <v>7340</v>
+        <v>8105.1604</v>
       </c>
       <c r="G192" t="n">
-        <v>7.727333333333331</v>
+        <v>7.725166666666665</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7138,22 +7136,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C193" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="D193" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E193" t="n">
-        <v>7.64</v>
+        <v>7.78</v>
       </c>
       <c r="F193" t="n">
-        <v>10527.6019</v>
+        <v>7340</v>
       </c>
       <c r="G193" t="n">
-        <v>7.723499999999998</v>
+        <v>7.727333333333331</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7173,22 +7171,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>7.74</v>
+        <v>7.77</v>
       </c>
       <c r="C194" t="n">
-        <v>7.75</v>
+        <v>7.64</v>
       </c>
       <c r="D194" t="n">
-        <v>7.75</v>
+        <v>7.77</v>
       </c>
       <c r="E194" t="n">
-        <v>7.74</v>
+        <v>7.64</v>
       </c>
       <c r="F194" t="n">
-        <v>10490</v>
+        <v>10527.6019</v>
       </c>
       <c r="G194" t="n">
-        <v>7.721499999999997</v>
+        <v>7.723499999999998</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7208,22 +7206,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>7.76</v>
+        <v>7.74</v>
       </c>
       <c r="C195" t="n">
-        <v>7.78</v>
+        <v>7.75</v>
       </c>
       <c r="D195" t="n">
-        <v>7.78</v>
+        <v>7.75</v>
       </c>
       <c r="E195" t="n">
-        <v>7.76</v>
+        <v>7.74</v>
       </c>
       <c r="F195" t="n">
-        <v>33</v>
+        <v>10490</v>
       </c>
       <c r="G195" t="n">
-        <v>7.72033333333333</v>
+        <v>7.721499999999997</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7243,7 +7241,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="C196" t="n">
         <v>7.78</v>
@@ -7252,13 +7250,13 @@
         <v>7.78</v>
       </c>
       <c r="E196" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="F196" t="n">
-        <v>15970</v>
+        <v>33</v>
       </c>
       <c r="G196" t="n">
-        <v>7.719999999999996</v>
+        <v>7.72033333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7278,22 +7276,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C197" t="n">
-        <v>7.63</v>
+        <v>7.78</v>
       </c>
       <c r="D197" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E197" t="n">
-        <v>7.63</v>
+        <v>7.78</v>
       </c>
       <c r="F197" t="n">
-        <v>100012.2186</v>
+        <v>15970</v>
       </c>
       <c r="G197" t="n">
-        <v>7.716499999999996</v>
+        <v>7.719999999999996</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7313,22 +7311,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>7.66</v>
+        <v>7.77</v>
       </c>
       <c r="C198" t="n">
-        <v>7.66</v>
+        <v>7.63</v>
       </c>
       <c r="D198" t="n">
-        <v>7.66</v>
+        <v>7.77</v>
       </c>
       <c r="E198" t="n">
-        <v>7.66</v>
+        <v>7.63</v>
       </c>
       <c r="F198" t="n">
-        <v>135.5177</v>
+        <v>100012.2186</v>
       </c>
       <c r="G198" t="n">
-        <v>7.714166666666663</v>
+        <v>7.716499999999996</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7348,22 +7346,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>7.75</v>
+        <v>7.66</v>
       </c>
       <c r="C199" t="n">
-        <v>7.67</v>
+        <v>7.66</v>
       </c>
       <c r="D199" t="n">
-        <v>7.75</v>
+        <v>7.66</v>
       </c>
       <c r="E199" t="n">
-        <v>7.67</v>
+        <v>7.66</v>
       </c>
       <c r="F199" t="n">
-        <v>8084.8975</v>
+        <v>135.5177</v>
       </c>
       <c r="G199" t="n">
-        <v>7.71433333333333</v>
+        <v>7.714166666666663</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7386,19 +7384,19 @@
         <v>7.75</v>
       </c>
       <c r="C200" t="n">
-        <v>7.75</v>
+        <v>7.67</v>
       </c>
       <c r="D200" t="n">
         <v>7.75</v>
       </c>
       <c r="E200" t="n">
-        <v>7.75</v>
+        <v>7.67</v>
       </c>
       <c r="F200" t="n">
-        <v>600</v>
+        <v>8084.8975</v>
       </c>
       <c r="G200" t="n">
-        <v>7.713333333333329</v>
+        <v>7.71433333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7430,10 +7428,10 @@
         <v>7.75</v>
       </c>
       <c r="F201" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G201" t="n">
-        <v>7.712666666666663</v>
+        <v>7.713333333333329</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7465,10 +7463,10 @@
         <v>7.75</v>
       </c>
       <c r="F202" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G202" t="n">
-        <v>7.712166666666663</v>
+        <v>7.712666666666663</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7503,7 +7501,7 @@
         <v>800</v>
       </c>
       <c r="G203" t="n">
-        <v>7.71183333333333</v>
+        <v>7.712166666666663</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7526,19 +7524,19 @@
         <v>7.75</v>
       </c>
       <c r="C204" t="n">
-        <v>7.63</v>
+        <v>7.75</v>
       </c>
       <c r="D204" t="n">
         <v>7.75</v>
       </c>
       <c r="E204" t="n">
-        <v>7.63</v>
+        <v>7.75</v>
       </c>
       <c r="F204" t="n">
-        <v>242703.33</v>
+        <v>800</v>
       </c>
       <c r="G204" t="n">
-        <v>7.709166666666663</v>
+        <v>7.71183333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7558,22 +7556,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="C205" t="n">
         <v>7.63</v>
       </c>
-      <c r="C205" t="n">
-        <v>7.74</v>
-      </c>
       <c r="D205" t="n">
-        <v>7.74</v>
+        <v>7.75</v>
       </c>
       <c r="E205" t="n">
-        <v>7.57</v>
+        <v>7.63</v>
       </c>
       <c r="F205" t="n">
-        <v>562054.925</v>
+        <v>242703.33</v>
       </c>
       <c r="G205" t="n">
-        <v>7.708499999999997</v>
+        <v>7.709166666666663</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7593,22 +7591,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7.73</v>
+        <v>7.63</v>
       </c>
       <c r="C206" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="D206" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="E206" t="n">
-        <v>7.73</v>
+        <v>7.57</v>
       </c>
       <c r="F206" t="n">
-        <v>1580.3376</v>
+        <v>562054.925</v>
       </c>
       <c r="G206" t="n">
-        <v>7.708999999999998</v>
+        <v>7.708499999999997</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7640,10 +7638,10 @@
         <v>7.73</v>
       </c>
       <c r="F207" t="n">
-        <v>2754.0195</v>
+        <v>1580.3376</v>
       </c>
       <c r="G207" t="n">
-        <v>7.709499999999998</v>
+        <v>7.708999999999998</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7663,22 +7661,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="C208" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="D208" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="E208" t="n">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="F208" t="n">
-        <v>889.8156</v>
+        <v>2754.0195</v>
       </c>
       <c r="G208" t="n">
-        <v>7.706999999999997</v>
+        <v>7.709499999999998</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7698,22 +7696,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="C209" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="D209" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="E209" t="n">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="F209" t="n">
-        <v>602.9392</v>
+        <v>889.8156</v>
       </c>
       <c r="G209" t="n">
-        <v>7.704166666666664</v>
+        <v>7.706999999999997</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7733,22 +7731,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>7.65</v>
+        <v>7.63</v>
       </c>
       <c r="C210" t="n">
-        <v>7.65</v>
+        <v>7.63</v>
       </c>
       <c r="D210" t="n">
-        <v>7.65</v>
+        <v>7.63</v>
       </c>
       <c r="E210" t="n">
-        <v>7.65</v>
+        <v>7.63</v>
       </c>
       <c r="F210" t="n">
-        <v>10</v>
+        <v>602.9392</v>
       </c>
       <c r="G210" t="n">
-        <v>7.702166666666664</v>
+        <v>7.704166666666664</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7771,19 +7769,19 @@
         <v>7.65</v>
       </c>
       <c r="C211" t="n">
-        <v>7.66</v>
+        <v>7.65</v>
       </c>
       <c r="D211" t="n">
-        <v>7.66</v>
+        <v>7.65</v>
       </c>
       <c r="E211" t="n">
         <v>7.65</v>
       </c>
       <c r="F211" t="n">
-        <v>5555.3124</v>
+        <v>10</v>
       </c>
       <c r="G211" t="n">
-        <v>7.700333333333331</v>
+        <v>7.702166666666664</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7803,22 +7801,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>7.69</v>
+        <v>7.65</v>
       </c>
       <c r="C212" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="D212" t="n">
-        <v>7.69</v>
+        <v>7.66</v>
       </c>
       <c r="E212" t="n">
-        <v>7.69</v>
+        <v>7.65</v>
       </c>
       <c r="F212" t="n">
-        <v>10</v>
+        <v>5555.3124</v>
       </c>
       <c r="G212" t="n">
-        <v>7.698833333333331</v>
+        <v>7.700333333333331</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7838,22 +7836,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="C213" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="D213" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="E213" t="n">
-        <v>7.7</v>
+        <v>7.69</v>
       </c>
       <c r="F213" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G213" t="n">
-        <v>7.699833333333332</v>
+        <v>7.698833333333331</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7876,16 +7874,16 @@
         <v>7.7</v>
       </c>
       <c r="C214" t="n">
-        <v>7.64</v>
+        <v>7.7</v>
       </c>
       <c r="D214" t="n">
         <v>7.7</v>
       </c>
       <c r="E214" t="n">
-        <v>7.64</v>
+        <v>7.7</v>
       </c>
       <c r="F214" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G214" t="n">
         <v>7.699833333333332</v>
@@ -7911,19 +7909,19 @@
         <v>7.7</v>
       </c>
       <c r="C215" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="D215" t="n">
         <v>7.7</v>
       </c>
-      <c r="D215" t="n">
-        <v>7.71</v>
-      </c>
       <c r="E215" t="n">
-        <v>7.7</v>
+        <v>7.64</v>
       </c>
       <c r="F215" t="n">
-        <v>200020</v>
+        <v>100</v>
       </c>
       <c r="G215" t="n">
-        <v>7.700833333333332</v>
+        <v>7.699833333333332</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7943,22 +7941,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="C216" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="D216" t="n">
         <v>7.71</v>
       </c>
       <c r="E216" t="n">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="F216" t="n">
-        <v>52565</v>
+        <v>200020</v>
       </c>
       <c r="G216" t="n">
-        <v>7.699833333333332</v>
+        <v>7.700833333333332</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7990,10 +7988,10 @@
         <v>7.71</v>
       </c>
       <c r="F217" t="n">
-        <v>160235</v>
+        <v>52565</v>
       </c>
       <c r="G217" t="n">
-        <v>7.698666666666665</v>
+        <v>7.699833333333332</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8013,22 +8011,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="C218" t="n">
-        <v>7.78</v>
+        <v>7.71</v>
       </c>
       <c r="D218" t="n">
-        <v>7.78</v>
+        <v>7.71</v>
       </c>
       <c r="E218" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="F218" t="n">
-        <v>124163.3818</v>
+        <v>160235</v>
       </c>
       <c r="G218" t="n">
-        <v>7.698499999999997</v>
+        <v>7.698666666666665</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8048,22 +8046,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="C219" t="n">
         <v>7.78</v>
       </c>
-      <c r="C219" t="n">
-        <v>7.79</v>
-      </c>
       <c r="D219" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="E219" t="n">
-        <v>7.78</v>
+        <v>7.72</v>
       </c>
       <c r="F219" t="n">
-        <v>76301.3789</v>
+        <v>124163.3818</v>
       </c>
       <c r="G219" t="n">
-        <v>7.698666666666665</v>
+        <v>7.698499999999997</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8083,22 +8081,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C220" t="n">
         <v>7.79</v>
       </c>
-      <c r="C220" t="n">
-        <v>7.84</v>
-      </c>
       <c r="D220" t="n">
-        <v>7.84</v>
+        <v>7.79</v>
       </c>
       <c r="E220" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="F220" t="n">
-        <v>1069</v>
+        <v>76301.3789</v>
       </c>
       <c r="G220" t="n">
-        <v>7.699833333333332</v>
+        <v>7.698666666666665</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8118,22 +8116,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="C221" t="n">
-        <v>7.82</v>
+        <v>7.84</v>
       </c>
       <c r="D221" t="n">
-        <v>7.82</v>
+        <v>7.84</v>
       </c>
       <c r="E221" t="n">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="F221" t="n">
-        <v>161224</v>
+        <v>1069</v>
       </c>
       <c r="G221" t="n">
-        <v>7.701833333333331</v>
+        <v>7.699833333333332</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8159,16 +8157,16 @@
         <v>7.82</v>
       </c>
       <c r="D222" t="n">
-        <v>7.84</v>
+        <v>7.82</v>
       </c>
       <c r="E222" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="F222" t="n">
-        <v>305344.3124</v>
+        <v>161224</v>
       </c>
       <c r="G222" t="n">
-        <v>7.703833333333332</v>
+        <v>7.701833333333331</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8188,22 +8186,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>7.73</v>
+        <v>7.78</v>
       </c>
       <c r="C223" t="n">
-        <v>7.79</v>
+        <v>7.82</v>
       </c>
       <c r="D223" t="n">
-        <v>7.79</v>
+        <v>7.84</v>
       </c>
       <c r="E223" t="n">
         <v>7.73</v>
       </c>
       <c r="F223" t="n">
-        <v>300000</v>
+        <v>305344.3124</v>
       </c>
       <c r="G223" t="n">
-        <v>7.705499999999999</v>
+        <v>7.703833333333332</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8238,7 +8236,7 @@
         <v>300000</v>
       </c>
       <c r="G224" t="n">
-        <v>7.706999999999999</v>
+        <v>7.705499999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8258,22 +8256,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="C225" t="n">
-        <v>7.88</v>
+        <v>7.79</v>
       </c>
       <c r="D225" t="n">
-        <v>7.88</v>
+        <v>7.79</v>
       </c>
       <c r="E225" t="n">
-        <v>7.82</v>
+        <v>7.73</v>
       </c>
       <c r="F225" t="n">
-        <v>361380.56</v>
+        <v>300000</v>
       </c>
       <c r="G225" t="n">
-        <v>7.710166666666666</v>
+        <v>7.706999999999999</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8302,13 +8300,13 @@
         <v>7.88</v>
       </c>
       <c r="E226" t="n">
-        <v>7.71</v>
+        <v>7.82</v>
       </c>
       <c r="F226" t="n">
-        <v>798197.2904000001</v>
+        <v>361380.56</v>
       </c>
       <c r="G226" t="n">
-        <v>7.714</v>
+        <v>7.710166666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8328,22 +8326,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>7.89</v>
+        <v>7.82</v>
       </c>
       <c r="C227" t="n">
-        <v>7.93</v>
+        <v>7.88</v>
       </c>
       <c r="D227" t="n">
-        <v>7.95</v>
+        <v>7.88</v>
       </c>
       <c r="E227" t="n">
-        <v>7.79</v>
+        <v>7.71</v>
       </c>
       <c r="F227" t="n">
-        <v>333817</v>
+        <v>798197.2904000001</v>
       </c>
       <c r="G227" t="n">
-        <v>7.716666666666667</v>
+        <v>7.714</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8363,22 +8361,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>7.92</v>
+        <v>7.89</v>
       </c>
       <c r="C228" t="n">
-        <v>7.92</v>
+        <v>7.93</v>
       </c>
       <c r="D228" t="n">
-        <v>7.92</v>
+        <v>7.95</v>
       </c>
       <c r="E228" t="n">
-        <v>7.92</v>
+        <v>7.79</v>
       </c>
       <c r="F228" t="n">
-        <v>10</v>
+        <v>333817</v>
       </c>
       <c r="G228" t="n">
-        <v>7.721500000000001</v>
+        <v>7.716666666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8401,19 +8399,19 @@
         <v>7.92</v>
       </c>
       <c r="C229" t="n">
-        <v>7.76</v>
+        <v>7.92</v>
       </c>
       <c r="D229" t="n">
         <v>7.92</v>
       </c>
       <c r="E229" t="n">
-        <v>7.76</v>
+        <v>7.92</v>
       </c>
       <c r="F229" t="n">
-        <v>160000</v>
+        <v>10</v>
       </c>
       <c r="G229" t="n">
-        <v>7.725333333333334</v>
+        <v>7.721500000000001</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8433,28 +8431,28 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>7.88</v>
+        <v>7.92</v>
       </c>
       <c r="C230" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="D230" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="E230" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="F230" t="n">
-        <v>299736.56</v>
+        <v>160000</v>
       </c>
       <c r="G230" t="n">
-        <v>7.729333333333333</v>
+        <v>7.725333333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
@@ -8471,7 +8469,7 @@
         <v>7.88</v>
       </c>
       <c r="C231" t="n">
-        <v>7.91</v>
+        <v>7.78</v>
       </c>
       <c r="D231" t="n">
         <v>7.91</v>
@@ -8480,10 +8478,10 @@
         <v>7.78</v>
       </c>
       <c r="F231" t="n">
-        <v>435194</v>
+        <v>299736.56</v>
       </c>
       <c r="G231" t="n">
-        <v>7.7355</v>
+        <v>7.729333333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8503,7 +8501,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>7.79</v>
+        <v>7.88</v>
       </c>
       <c r="C232" t="n">
         <v>7.91</v>
@@ -8515,10 +8513,10 @@
         <v>7.78</v>
       </c>
       <c r="F232" t="n">
-        <v>277437</v>
+        <v>435194</v>
       </c>
       <c r="G232" t="n">
-        <v>7.741666666666666</v>
+        <v>7.7355</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8538,7 +8536,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>7.91</v>
+        <v>7.79</v>
       </c>
       <c r="C233" t="n">
         <v>7.91</v>
@@ -8550,10 +8548,10 @@
         <v>7.78</v>
       </c>
       <c r="F233" t="n">
-        <v>239993</v>
+        <v>277437</v>
       </c>
       <c r="G233" t="n">
-        <v>7.747666666666666</v>
+        <v>7.741666666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8573,22 +8571,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>7.85</v>
+        <v>7.91</v>
       </c>
       <c r="C234" t="n">
-        <v>7.89</v>
+        <v>7.91</v>
       </c>
       <c r="D234" t="n">
         <v>7.91</v>
       </c>
       <c r="E234" t="n">
-        <v>7.79</v>
+        <v>7.78</v>
       </c>
       <c r="F234" t="n">
-        <v>211703</v>
+        <v>239993</v>
       </c>
       <c r="G234" t="n">
-        <v>7.752166666666667</v>
+        <v>7.747666666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8611,19 +8609,19 @@
         <v>7.85</v>
       </c>
       <c r="C235" t="n">
-        <v>7.8</v>
+        <v>7.89</v>
       </c>
       <c r="D235" t="n">
-        <v>7.92</v>
+        <v>7.91</v>
       </c>
       <c r="E235" t="n">
-        <v>7.8</v>
+        <v>7.79</v>
       </c>
       <c r="F235" t="n">
-        <v>222402</v>
+        <v>211703</v>
       </c>
       <c r="G235" t="n">
-        <v>7.755166666666667</v>
+        <v>7.752166666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8643,22 +8641,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="C236" t="n">
-        <v>7.92</v>
+        <v>7.8</v>
       </c>
       <c r="D236" t="n">
         <v>7.92</v>
       </c>
       <c r="E236" t="n">
-        <v>7.81</v>
+        <v>7.8</v>
       </c>
       <c r="F236" t="n">
-        <v>107074.0653</v>
+        <v>222402</v>
       </c>
       <c r="G236" t="n">
-        <v>7.760166666666667</v>
+        <v>7.755166666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8681,19 +8679,19 @@
         <v>7.91</v>
       </c>
       <c r="C237" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="D237" t="n">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="E237" t="n">
-        <v>7.91</v>
+        <v>7.81</v>
       </c>
       <c r="F237" t="n">
-        <v>134</v>
+        <v>107074.0653</v>
       </c>
       <c r="G237" t="n">
-        <v>7.762500000000001</v>
+        <v>7.760166666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8713,22 +8711,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="C238" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="D238" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="E238" t="n">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="F238" t="n">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G238" t="n">
-        <v>7.764666666666668</v>
+        <v>7.762500000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8748,22 +8746,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>7.89</v>
+        <v>7.9</v>
       </c>
       <c r="C239" t="n">
-        <v>7.87</v>
+        <v>7.9</v>
       </c>
       <c r="D239" t="n">
-        <v>7.89</v>
+        <v>7.9</v>
       </c>
       <c r="E239" t="n">
-        <v>7.87</v>
+        <v>7.9</v>
       </c>
       <c r="F239" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G239" t="n">
-        <v>7.768500000000001</v>
+        <v>7.764666666666668</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8783,22 +8781,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>7.87</v>
+        <v>7.89</v>
       </c>
       <c r="C240" t="n">
         <v>7.87</v>
       </c>
       <c r="D240" t="n">
-        <v>7.87</v>
+        <v>7.89</v>
       </c>
       <c r="E240" t="n">
         <v>7.87</v>
       </c>
       <c r="F240" t="n">
-        <v>17777.2645</v>
+        <v>30</v>
       </c>
       <c r="G240" t="n">
-        <v>7.770333333333335</v>
+        <v>7.768500000000001</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8818,22 +8816,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7.86</v>
+        <v>7.87</v>
       </c>
       <c r="C241" t="n">
-        <v>7.86</v>
+        <v>7.87</v>
       </c>
       <c r="D241" t="n">
         <v>7.87</v>
       </c>
       <c r="E241" t="n">
-        <v>7.86</v>
+        <v>7.87</v>
       </c>
       <c r="F241" t="n">
-        <v>60998.6259</v>
+        <v>17777.2645</v>
       </c>
       <c r="G241" t="n">
-        <v>7.771833333333335</v>
+        <v>7.770333333333335</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8853,22 +8851,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7.85</v>
+        <v>7.86</v>
       </c>
       <c r="C242" t="n">
-        <v>7.68</v>
+        <v>7.86</v>
       </c>
       <c r="D242" t="n">
-        <v>7.85</v>
+        <v>7.87</v>
       </c>
       <c r="E242" t="n">
-        <v>7.68</v>
+        <v>7.86</v>
       </c>
       <c r="F242" t="n">
-        <v>100012.2186</v>
+        <v>60998.6259</v>
       </c>
       <c r="G242" t="n">
-        <v>7.770333333333336</v>
+        <v>7.771833333333335</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8888,22 +8886,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7.8</v>
+        <v>7.85</v>
       </c>
       <c r="C243" t="n">
-        <v>7.78</v>
+        <v>7.68</v>
       </c>
       <c r="D243" t="n">
-        <v>7.88</v>
+        <v>7.85</v>
       </c>
       <c r="E243" t="n">
-        <v>7.78</v>
+        <v>7.68</v>
       </c>
       <c r="F243" t="n">
-        <v>18998</v>
+        <v>100012.2186</v>
       </c>
       <c r="G243" t="n">
-        <v>7.770666666666669</v>
+        <v>7.770333333333336</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8923,22 +8921,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7.78</v>
+        <v>7.8</v>
       </c>
       <c r="C244" t="n">
         <v>7.78</v>
       </c>
       <c r="D244" t="n">
-        <v>7.78</v>
+        <v>7.88</v>
       </c>
       <c r="E244" t="n">
         <v>7.78</v>
       </c>
       <c r="F244" t="n">
-        <v>7807</v>
+        <v>18998</v>
       </c>
       <c r="G244" t="n">
-        <v>7.771333333333335</v>
+        <v>7.770666666666669</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8961,19 +8959,19 @@
         <v>7.78</v>
       </c>
       <c r="C245" t="n">
-        <v>7.88</v>
+        <v>7.78</v>
       </c>
       <c r="D245" t="n">
-        <v>7.88</v>
+        <v>7.78</v>
       </c>
       <c r="E245" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F245" t="n">
-        <v>14165.0525</v>
+        <v>7807</v>
       </c>
       <c r="G245" t="n">
-        <v>7.773666666666668</v>
+        <v>7.771333333333335</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8993,22 +8991,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="C246" t="n">
-        <v>7.83</v>
+        <v>7.88</v>
       </c>
       <c r="D246" t="n">
-        <v>7.83</v>
+        <v>7.88</v>
       </c>
       <c r="E246" t="n">
-        <v>7.82</v>
+        <v>7.77</v>
       </c>
       <c r="F246" t="n">
-        <v>41568.9655</v>
+        <v>14165.0525</v>
       </c>
       <c r="G246" t="n">
-        <v>7.775333333333334</v>
+        <v>7.773666666666668</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9028,22 +9026,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7.8</v>
+        <v>7.82</v>
       </c>
       <c r="C247" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="D247" t="n">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="E247" t="n">
-        <v>7.8</v>
+        <v>7.82</v>
       </c>
       <c r="F247" t="n">
-        <v>70309.4184</v>
+        <v>41568.9655</v>
       </c>
       <c r="G247" t="n">
-        <v>7.7765</v>
+        <v>7.775333333333334</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9075,10 +9073,10 @@
         <v>7.8</v>
       </c>
       <c r="F248" t="n">
-        <v>7060.641</v>
+        <v>70309.4184</v>
       </c>
       <c r="G248" t="n">
-        <v>7.777500000000001</v>
+        <v>7.7765</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9101,19 +9099,19 @@
         <v>7.8</v>
       </c>
       <c r="C249" t="n">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="D249" t="n">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="E249" t="n">
         <v>7.8</v>
       </c>
       <c r="F249" t="n">
-        <v>14319.1532</v>
+        <v>7060.641</v>
       </c>
       <c r="G249" t="n">
-        <v>7.779500000000001</v>
+        <v>7.777500000000001</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9133,7 +9131,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="C250" t="n">
         <v>7.85</v>
@@ -9142,13 +9140,13 @@
         <v>7.85</v>
       </c>
       <c r="E250" t="n">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="F250" t="n">
-        <v>89403.11199999999</v>
+        <v>14319.1532</v>
       </c>
       <c r="G250" t="n">
-        <v>7.780500000000001</v>
+        <v>7.779500000000001</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9168,22 +9166,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7.87</v>
+        <v>7.85</v>
       </c>
       <c r="C251" t="n">
-        <v>7.97</v>
+        <v>7.85</v>
       </c>
       <c r="D251" t="n">
-        <v>7.97</v>
+        <v>7.85</v>
       </c>
       <c r="E251" t="n">
-        <v>7.87</v>
+        <v>7.85</v>
       </c>
       <c r="F251" t="n">
-        <v>263066.872</v>
+        <v>89403.11199999999</v>
       </c>
       <c r="G251" t="n">
-        <v>7.783500000000001</v>
+        <v>7.780500000000001</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9203,22 +9201,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="C252" t="n">
         <v>7.97</v>
       </c>
-      <c r="C252" t="n">
-        <v>8</v>
-      </c>
       <c r="D252" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="E252" t="n">
-        <v>7.97</v>
+        <v>7.87</v>
       </c>
       <c r="F252" t="n">
-        <v>116330.0349</v>
+        <v>263066.872</v>
       </c>
       <c r="G252" t="n">
-        <v>7.787166666666668</v>
+        <v>7.783500000000001</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9238,7 +9236,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="C253" t="n">
         <v>8</v>
@@ -9247,13 +9245,13 @@
         <v>8</v>
       </c>
       <c r="E253" t="n">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="F253" t="n">
-        <v>31267.125</v>
+        <v>116330.0349</v>
       </c>
       <c r="G253" t="n">
-        <v>7.793166666666668</v>
+        <v>7.787166666666668</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9276,19 +9274,19 @@
         <v>8</v>
       </c>
       <c r="C254" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="D254" t="n">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="E254" t="n">
         <v>8</v>
       </c>
       <c r="F254" t="n">
-        <v>86739.0552</v>
+        <v>31267.125</v>
       </c>
       <c r="G254" t="n">
-        <v>7.798500000000002</v>
+        <v>7.793166666666668</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9308,22 +9306,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="C255" t="n">
-        <v>8.09</v>
+        <v>8.07</v>
       </c>
       <c r="D255" t="n">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
       <c r="E255" t="n">
-        <v>8.09</v>
+        <v>8</v>
       </c>
       <c r="F255" t="n">
-        <v>38013.4691</v>
+        <v>86739.0552</v>
       </c>
       <c r="G255" t="n">
-        <v>7.803666666666668</v>
+        <v>7.798500000000002</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9343,22 +9341,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>8.039999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="C256" t="n">
-        <v>8</v>
+        <v>8.09</v>
       </c>
       <c r="D256" t="n">
-        <v>8.039999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="E256" t="n">
-        <v>8</v>
+        <v>8.09</v>
       </c>
       <c r="F256" t="n">
-        <v>17461.2958</v>
+        <v>38013.4691</v>
       </c>
       <c r="G256" t="n">
-        <v>7.807333333333335</v>
+        <v>7.803666666666668</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9378,28 +9376,28 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C257" t="n">
         <v>8</v>
       </c>
-      <c r="C257" t="n">
-        <v>8.09</v>
-      </c>
       <c r="D257" t="n">
-        <v>8.09</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E257" t="n">
         <v>8</v>
       </c>
       <c r="F257" t="n">
-        <v>70065.1421</v>
+        <v>17461.2958</v>
       </c>
       <c r="G257" t="n">
-        <v>7.815000000000001</v>
+        <v>7.807333333333335</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -9413,22 +9411,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>8.039999999999999</v>
+        <v>8</v>
       </c>
       <c r="C258" t="n">
-        <v>8.039999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="D258" t="n">
-        <v>8.039999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="E258" t="n">
-        <v>8.039999999999999</v>
+        <v>8</v>
       </c>
       <c r="F258" t="n">
-        <v>20293.2835</v>
+        <v>70065.1421</v>
       </c>
       <c r="G258" t="n">
-        <v>7.821333333333334</v>
+        <v>7.815000000000001</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9448,22 +9446,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>7.9</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C259" t="n">
-        <v>7.9</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D259" t="n">
-        <v>7.9</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E259" t="n">
-        <v>7.9</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F259" t="n">
-        <v>68696.8826</v>
+        <v>20293.2835</v>
       </c>
       <c r="G259" t="n">
-        <v>7.825166666666667</v>
+        <v>7.821333333333334</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9483,28 +9481,28 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>7.96</v>
+        <v>7.9</v>
       </c>
       <c r="C260" t="n">
-        <v>7.96</v>
+        <v>7.9</v>
       </c>
       <c r="D260" t="n">
-        <v>7.98</v>
+        <v>7.9</v>
       </c>
       <c r="E260" t="n">
-        <v>7.96</v>
+        <v>7.9</v>
       </c>
       <c r="F260" t="n">
-        <v>65988.2985</v>
+        <v>68696.8826</v>
       </c>
       <c r="G260" t="n">
-        <v>7.828666666666667</v>
+        <v>7.825166666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
@@ -9524,16 +9522,16 @@
         <v>7.96</v>
       </c>
       <c r="D261" t="n">
-        <v>7.96</v>
+        <v>7.98</v>
       </c>
       <c r="E261" t="n">
         <v>7.96</v>
       </c>
       <c r="F261" t="n">
-        <v>22561.0884</v>
+        <v>65988.2985</v>
       </c>
       <c r="G261" t="n">
-        <v>7.832166666666667</v>
+        <v>7.828666666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9553,22 +9551,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="C262" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="D262" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="E262" t="n">
-        <v>7.88</v>
+        <v>7.96</v>
       </c>
       <c r="F262" t="n">
-        <v>5974.8096</v>
+        <v>22561.0884</v>
       </c>
       <c r="G262" t="n">
-        <v>7.834333333333333</v>
+        <v>7.832166666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9594,16 +9592,16 @@
         <v>7.88</v>
       </c>
       <c r="D263" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="E263" t="n">
         <v>7.88</v>
       </c>
       <c r="F263" t="n">
-        <v>750441.8758</v>
+        <v>5974.8096</v>
       </c>
       <c r="G263" t="n">
-        <v>7.8365</v>
+        <v>7.834333333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9623,22 +9621,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>7.9</v>
+        <v>7.88</v>
       </c>
       <c r="C264" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="D264" t="n">
-        <v>8.029999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="E264" t="n">
-        <v>7.89</v>
+        <v>7.88</v>
       </c>
       <c r="F264" t="n">
-        <v>79878.77860000001</v>
+        <v>750441.8758</v>
       </c>
       <c r="G264" t="n">
-        <v>7.8425</v>
+        <v>7.8365</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9658,22 +9656,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C265" t="n">
         <v>7.99</v>
       </c>
-      <c r="C265" t="n">
-        <v>8.09</v>
-      </c>
       <c r="D265" t="n">
-        <v>8.1</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E265" t="n">
-        <v>7.99</v>
+        <v>7.89</v>
       </c>
       <c r="F265" t="n">
-        <v>275630.969</v>
+        <v>79878.77860000001</v>
       </c>
       <c r="G265" t="n">
-        <v>7.848333333333333</v>
+        <v>7.8425</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9693,22 +9691,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C266" t="n">
         <v>8.09</v>
       </c>
-      <c r="C266" t="n">
-        <v>7.94</v>
-      </c>
       <c r="D266" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="E266" t="n">
-        <v>7.94</v>
+        <v>7.99</v>
       </c>
       <c r="F266" t="n">
-        <v>54939.443</v>
+        <v>275630.969</v>
       </c>
       <c r="G266" t="n">
-        <v>7.851833333333333</v>
+        <v>7.848333333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9728,22 +9726,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
       <c r="C267" t="n">
-        <v>8.07</v>
+        <v>7.94</v>
       </c>
       <c r="D267" t="n">
-        <v>8.07</v>
+        <v>8.09</v>
       </c>
       <c r="E267" t="n">
-        <v>8.050000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="F267" t="n">
-        <v>155785.0068</v>
+        <v>54939.443</v>
       </c>
       <c r="G267" t="n">
-        <v>7.857499999999999</v>
+        <v>7.851833333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9763,22 +9761,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>8.050000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="C268" t="n">
-        <v>7.87</v>
+        <v>8.07</v>
       </c>
       <c r="D268" t="n">
         <v>8.07</v>
       </c>
       <c r="E268" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F268" t="n">
-        <v>62.0001</v>
+        <v>155785.0068</v>
       </c>
       <c r="G268" t="n">
-        <v>7.861166666666666</v>
+        <v>7.857499999999999</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9798,22 +9796,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>7.89</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C269" t="n">
-        <v>8.08</v>
+        <v>7.87</v>
       </c>
       <c r="D269" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="E269" t="n">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="F269" t="n">
-        <v>28294.1396</v>
+        <v>62.0001</v>
       </c>
       <c r="G269" t="n">
-        <v>7.868666666666666</v>
+        <v>7.861166666666666</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9833,7 +9831,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>8.08</v>
+        <v>7.89</v>
       </c>
       <c r="C270" t="n">
         <v>8.08</v>
@@ -9842,13 +9840,13 @@
         <v>8.08</v>
       </c>
       <c r="E270" t="n">
-        <v>8.08</v>
+        <v>7.89</v>
       </c>
       <c r="F270" t="n">
-        <v>21207.4566</v>
+        <v>28294.1396</v>
       </c>
       <c r="G270" t="n">
-        <v>7.875833333333333</v>
+        <v>7.868666666666666</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9868,22 +9866,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>8.07</v>
+        <v>8.08</v>
       </c>
       <c r="C271" t="n">
-        <v>8.07</v>
+        <v>8.08</v>
       </c>
       <c r="D271" t="n">
-        <v>8.07</v>
+        <v>8.08</v>
       </c>
       <c r="E271" t="n">
-        <v>8.07</v>
+        <v>8.08</v>
       </c>
       <c r="F271" t="n">
-        <v>15925.3097</v>
+        <v>21207.4566</v>
       </c>
       <c r="G271" t="n">
-        <v>7.882666666666665</v>
+        <v>7.875833333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9906,19 +9904,19 @@
         <v>8.07</v>
       </c>
       <c r="C272" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="D272" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="E272" t="n">
         <v>8.07</v>
       </c>
       <c r="F272" t="n">
-        <v>261637.8712</v>
+        <v>15925.3097</v>
       </c>
       <c r="G272" t="n">
-        <v>7.889166666666665</v>
+        <v>7.882666666666665</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9938,22 +9936,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="C273" t="n">
-        <v>7.9</v>
+        <v>8.08</v>
       </c>
       <c r="D273" t="n">
-        <v>8.06</v>
+        <v>8.08</v>
       </c>
       <c r="E273" t="n">
-        <v>7.9</v>
+        <v>8.07</v>
       </c>
       <c r="F273" t="n">
-        <v>20</v>
+        <v>261637.8712</v>
       </c>
       <c r="G273" t="n">
-        <v>7.892499999999998</v>
+        <v>7.889166666666665</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9976,19 +9974,19 @@
         <v>8.06</v>
       </c>
       <c r="C274" t="n">
-        <v>8.06</v>
+        <v>7.9</v>
       </c>
       <c r="D274" t="n">
         <v>8.06</v>
       </c>
       <c r="E274" t="n">
-        <v>8.06</v>
+        <v>7.9</v>
       </c>
       <c r="F274" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G274" t="n">
-        <v>7.899499999999999</v>
+        <v>7.892499999999998</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10011,19 +10009,19 @@
         <v>8.06</v>
       </c>
       <c r="C275" t="n">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="D275" t="n">
         <v>8.06</v>
       </c>
       <c r="E275" t="n">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="F275" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G275" t="n">
-        <v>7.902833333333332</v>
+        <v>7.899499999999999</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10043,22 +10041,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="C276" t="n">
         <v>7.9</v>
       </c>
       <c r="D276" t="n">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="E276" t="n">
         <v>7.9</v>
       </c>
       <c r="F276" t="n">
-        <v>12629.3439</v>
+        <v>20</v>
       </c>
       <c r="G276" t="n">
-        <v>7.905999999999998</v>
+        <v>7.902833333333332</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10078,22 +10076,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C277" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="D277" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="E277" t="n">
-        <v>8.050000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="F277" t="n">
-        <v>10420.9316</v>
+        <v>12629.3439</v>
       </c>
       <c r="G277" t="n">
-        <v>7.911666666666665</v>
+        <v>7.905999999999998</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10113,7 +10111,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C278" t="n">
         <v>8.050000000000001</v>
@@ -10122,13 +10120,13 @@
         <v>8.050000000000001</v>
       </c>
       <c r="E278" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F278" t="n">
-        <v>10745.9499</v>
+        <v>10420.9316</v>
       </c>
       <c r="G278" t="n">
-        <v>7.916166666666666</v>
+        <v>7.911666666666665</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10148,7 +10146,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>8.050000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="C279" t="n">
         <v>8.050000000000001</v>
@@ -10157,13 +10155,13 @@
         <v>8.050000000000001</v>
       </c>
       <c r="E279" t="n">
-        <v>8.050000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="F279" t="n">
-        <v>4454.944</v>
+        <v>10745.9499</v>
       </c>
       <c r="G279" t="n">
-        <v>7.9205</v>
+        <v>7.916166666666666</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10183,22 +10181,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>7.88</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C280" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D280" t="n">
-        <v>7.88</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E280" t="n">
-        <v>7.87</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F280" t="n">
-        <v>42816.0901</v>
+        <v>4454.944</v>
       </c>
       <c r="G280" t="n">
-        <v>7.921</v>
+        <v>7.9205</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10218,22 +10216,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7.91</v>
+        <v>7.88</v>
       </c>
       <c r="C281" t="n">
-        <v>7.91</v>
+        <v>7.87</v>
       </c>
       <c r="D281" t="n">
-        <v>7.91</v>
+        <v>7.88</v>
       </c>
       <c r="E281" t="n">
-        <v>7.91</v>
+        <v>7.87</v>
       </c>
       <c r="F281" t="n">
-        <v>59803.6869</v>
+        <v>42816.0901</v>
       </c>
       <c r="G281" t="n">
-        <v>7.9225</v>
+        <v>7.921</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10256,19 +10254,19 @@
         <v>7.91</v>
       </c>
       <c r="C282" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
       </c>
       <c r="D282" t="n">
         <v>7.91</v>
       </c>
       <c r="E282" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
       </c>
       <c r="F282" t="n">
-        <v>20242.5503</v>
+        <v>59803.6869</v>
       </c>
       <c r="G282" t="n">
-        <v>7.923500000000001</v>
+        <v>7.9225</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10288,22 +10286,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
       </c>
       <c r="C283" t="n">
         <v>7.88</v>
       </c>
       <c r="D283" t="n">
-        <v>7.88</v>
+        <v>7.91</v>
       </c>
       <c r="E283" t="n">
         <v>7.88</v>
       </c>
       <c r="F283" t="n">
-        <v>10197.8371</v>
+        <v>20242.5503</v>
       </c>
       <c r="G283" t="n">
-        <v>7.925</v>
+        <v>7.923500000000001</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10335,10 +10333,10 @@
         <v>7.88</v>
       </c>
       <c r="F284" t="n">
-        <v>1468.9672</v>
+        <v>10197.8371</v>
       </c>
       <c r="G284" t="n">
-        <v>7.9265</v>
+        <v>7.925</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10358,22 +10356,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="C285" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="D285" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="E285" t="n">
-        <v>7.99</v>
+        <v>7.88</v>
       </c>
       <c r="F285" t="n">
-        <v>9393.3477</v>
+        <v>1468.9672</v>
       </c>
       <c r="G285" t="n">
-        <v>7.928333333333333</v>
+        <v>7.9265</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10405,10 +10403,10 @@
         <v>7.99</v>
       </c>
       <c r="F286" t="n">
-        <v>974.1426</v>
+        <v>9393.3477</v>
       </c>
       <c r="G286" t="n">
-        <v>7.930166666666667</v>
+        <v>7.928333333333333</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10428,22 +10426,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="C287" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="D287" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="E287" t="n">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="F287" t="n">
-        <v>2852.9259</v>
+        <v>974.1426</v>
       </c>
       <c r="G287" t="n">
-        <v>7.931</v>
+        <v>7.930166666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10475,10 +10473,10 @@
         <v>7.98</v>
       </c>
       <c r="F288" t="n">
-        <v>786.817</v>
+        <v>2852.9259</v>
       </c>
       <c r="G288" t="n">
-        <v>7.932</v>
+        <v>7.931</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10510,10 +10508,10 @@
         <v>7.98</v>
       </c>
       <c r="F289" t="n">
-        <v>40861.2907</v>
+        <v>786.817</v>
       </c>
       <c r="G289" t="n">
-        <v>7.935666666666667</v>
+        <v>7.932</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10533,7 +10531,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="C290" t="n">
         <v>7.98</v>
@@ -10542,13 +10540,13 @@
         <v>7.98</v>
       </c>
       <c r="E290" t="n">
-        <v>7.97</v>
+        <v>7.98</v>
       </c>
       <c r="F290" t="n">
-        <v>2605.9088</v>
+        <v>40861.2907</v>
       </c>
       <c r="G290" t="n">
-        <v>7.939000000000002</v>
+        <v>7.935666666666667</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10568,7 +10566,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="C291" t="n">
         <v>7.98</v>
@@ -10577,13 +10575,13 @@
         <v>7.98</v>
       </c>
       <c r="E291" t="n">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="F291" t="n">
-        <v>2543.8596</v>
+        <v>2605.9088</v>
       </c>
       <c r="G291" t="n">
-        <v>7.940166666666668</v>
+        <v>7.939000000000002</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10615,10 +10613,10 @@
         <v>7.98</v>
       </c>
       <c r="F292" t="n">
-        <v>3391.2906</v>
+        <v>2543.8596</v>
       </c>
       <c r="G292" t="n">
-        <v>7.941333333333334</v>
+        <v>7.940166666666668</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10650,10 +10648,10 @@
         <v>7.98</v>
       </c>
       <c r="F293" t="n">
-        <v>279.1353</v>
+        <v>3391.2906</v>
       </c>
       <c r="G293" t="n">
-        <v>7.942500000000001</v>
+        <v>7.941333333333334</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10685,10 +10683,10 @@
         <v>7.98</v>
       </c>
       <c r="F294" t="n">
-        <v>1481.3283</v>
+        <v>279.1353</v>
       </c>
       <c r="G294" t="n">
-        <v>7.944000000000002</v>
+        <v>7.942500000000001</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10720,10 +10718,10 @@
         <v>7.98</v>
       </c>
       <c r="F295" t="n">
-        <v>1713.1641</v>
+        <v>1481.3283</v>
       </c>
       <c r="G295" t="n">
-        <v>7.947000000000002</v>
+        <v>7.944000000000002</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10755,10 +10753,10 @@
         <v>7.98</v>
       </c>
       <c r="F296" t="n">
-        <v>790.6891000000001</v>
+        <v>1713.1641</v>
       </c>
       <c r="G296" t="n">
-        <v>7.948000000000002</v>
+        <v>7.947000000000002</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10790,10 +10788,10 @@
         <v>7.98</v>
       </c>
       <c r="F297" t="n">
-        <v>749.9373000000001</v>
+        <v>790.6891000000001</v>
       </c>
       <c r="G297" t="n">
-        <v>7.949166666666668</v>
+        <v>7.948000000000002</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10813,22 +10811,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="C298" t="n">
-        <v>7.85</v>
+        <v>7.98</v>
       </c>
       <c r="D298" t="n">
-        <v>7.86</v>
+        <v>7.98</v>
       </c>
       <c r="E298" t="n">
-        <v>7.85</v>
+        <v>7.98</v>
       </c>
       <c r="F298" t="n">
-        <v>9102.0537</v>
+        <v>749.9373000000001</v>
       </c>
       <c r="G298" t="n">
-        <v>7.948333333333336</v>
+        <v>7.949166666666668</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10848,22 +10846,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C299" t="n">
         <v>7.85</v>
       </c>
-      <c r="C299" t="n">
-        <v>7.8</v>
-      </c>
       <c r="D299" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E299" t="n">
         <v>7.85</v>
       </c>
-      <c r="E299" t="n">
-        <v>7.8</v>
-      </c>
       <c r="F299" t="n">
-        <v>2551.2541</v>
+        <v>9102.0537</v>
       </c>
       <c r="G299" t="n">
-        <v>7.94716666666667</v>
+        <v>7.948333333333336</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10883,22 +10881,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>7.76</v>
+        <v>7.85</v>
       </c>
       <c r="C300" t="n">
-        <v>7.77</v>
+        <v>7.8</v>
       </c>
       <c r="D300" t="n">
-        <v>7.77</v>
+        <v>7.85</v>
       </c>
       <c r="E300" t="n">
-        <v>7.76</v>
+        <v>7.8</v>
       </c>
       <c r="F300" t="n">
-        <v>136357.8041</v>
+        <v>2551.2541</v>
       </c>
       <c r="G300" t="n">
-        <v>7.945500000000002</v>
+        <v>7.94716666666667</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10918,22 +10916,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="C301" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D301" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E301" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="F301" t="n">
-        <v>3289.1416</v>
+        <v>136357.8041</v>
       </c>
       <c r="G301" t="n">
-        <v>7.944166666666669</v>
+        <v>7.945500000000002</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10953,22 +10951,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="C302" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="D302" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E302" t="n">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="F302" t="n">
-        <v>5307.7436</v>
+        <v>3289.1416</v>
       </c>
       <c r="G302" t="n">
-        <v>7.945666666666668</v>
+        <v>7.944166666666669</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10988,19 +10986,19 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="C303" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="D303" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="E303" t="n">
-        <v>7.78</v>
+        <v>7.77</v>
       </c>
       <c r="F303" t="n">
-        <v>2488.9328</v>
+        <v>5307.7436</v>
       </c>
       <c r="G303" t="n">
         <v>7.945666666666668</v>
@@ -11023,22 +11021,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="C304" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="D304" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="E304" t="n">
-        <v>7.82</v>
+        <v>7.78</v>
       </c>
       <c r="F304" t="n">
-        <v>1012.2762</v>
+        <v>2488.9328</v>
       </c>
       <c r="G304" t="n">
-        <v>7.946333333333334</v>
+        <v>7.945666666666668</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11058,22 +11056,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="C305" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="D305" t="n">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="E305" t="n">
-        <v>7.73</v>
+        <v>7.82</v>
       </c>
       <c r="F305" t="n">
-        <v>95300.7549</v>
+        <v>1012.2762</v>
       </c>
       <c r="G305" t="n">
-        <v>7.943833333333335</v>
+        <v>7.946333333333334</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11093,19 +11091,19 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>7.83</v>
+        <v>7.75</v>
       </c>
       <c r="C306" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="D306" t="n">
-        <v>7.83</v>
+        <v>7.75</v>
       </c>
       <c r="E306" t="n">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="F306" t="n">
-        <v>88798.89539999999</v>
+        <v>95300.7549</v>
       </c>
       <c r="G306" t="n">
         <v>7.943833333333335</v>
@@ -11128,22 +11126,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="C307" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="D307" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="E307" t="n">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="F307" t="n">
-        <v>4052.6122</v>
+        <v>88798.89539999999</v>
       </c>
       <c r="G307" t="n">
-        <v>7.944166666666669</v>
+        <v>7.943833333333335</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11163,22 +11161,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="C308" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="D308" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="E308" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="F308" t="n">
-        <v>14020577.6476</v>
+        <v>4052.6122</v>
       </c>
       <c r="G308" t="n">
-        <v>7.944666666666667</v>
+        <v>7.944166666666669</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11210,10 +11208,10 @@
         <v>7.83</v>
       </c>
       <c r="F309" t="n">
-        <v>24512798.0064</v>
+        <v>14020577.6476</v>
       </c>
       <c r="G309" t="n">
-        <v>7.944333333333334</v>
+        <v>7.944666666666667</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11245,10 +11243,10 @@
         <v>7.83</v>
       </c>
       <c r="F310" t="n">
-        <v>24141391.976</v>
+        <v>24512798.0064</v>
       </c>
       <c r="G310" t="n">
-        <v>7.944</v>
+        <v>7.944333333333334</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11263,6 +11261,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C311" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="D311" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="E311" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="F311" t="n">
+        <v>24141391.976</v>
+      </c>
+      <c r="G311" t="n">
+        <v>7.944</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest IOST.xlsx
+++ b/BackTest/2019-11-01 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:N321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>200</v>
       </c>
       <c r="G2" t="n">
+        <v>8.075333333333329</v>
+      </c>
+      <c r="H2" t="n">
         <v>7.984666666666673</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>8.071333333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>7.991500000000006</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1164.7594</v>
       </c>
       <c r="G4" t="n">
+        <v>8.069333333333331</v>
+      </c>
+      <c r="H4" t="n">
         <v>7.998666666666673</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>43327.6603</v>
       </c>
       <c r="G5" t="n">
+        <v>8.069333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>8.004500000000005</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>317.6826</v>
       </c>
       <c r="G6" t="n">
+        <v>8.069333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>8.009333333333339</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>143.8414</v>
       </c>
       <c r="G7" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="H7" t="n">
         <v>8.014833333333339</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>302.6826</v>
       </c>
       <c r="G8" t="n">
+        <v>8.072666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>8.020000000000005</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>166761.9838</v>
       </c>
       <c r="G9" t="n">
+        <v>8.074000000000002</v>
+      </c>
+      <c r="H9" t="n">
         <v>8.025333333333339</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1960.6614</v>
       </c>
       <c r="G10" t="n">
+        <v>8.07666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>8.030833333333339</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1819</v>
       </c>
       <c r="G11" t="n">
+        <v>8.080666666666669</v>
+      </c>
+      <c r="H11" t="n">
         <v>8.036666666666672</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>30</v>
       </c>
       <c r="G12" t="n">
+        <v>8.080666666666669</v>
+      </c>
+      <c r="H12" t="n">
         <v>8.042000000000005</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
+        <v>8.084666666666669</v>
+      </c>
+      <c r="H13" t="n">
         <v>8.048333333333339</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>682.2859999999999</v>
       </c>
       <c r="G14" t="n">
+        <v>8.086000000000004</v>
+      </c>
+      <c r="H14" t="n">
         <v>8.055166666666672</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>857.6299</v>
       </c>
       <c r="G15" t="n">
+        <v>8.08666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>8.059000000000005</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
+        <v>8.080666666666669</v>
+      </c>
+      <c r="H16" t="n">
         <v>8.064333333333339</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>3153.068</v>
       </c>
       <c r="G17" t="n">
+        <v>8.076000000000002</v>
+      </c>
+      <c r="H17" t="n">
         <v>8.068833333333338</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>873.6165</v>
       </c>
       <c r="G18" t="n">
+        <v>8.070000000000002</v>
+      </c>
+      <c r="H18" t="n">
         <v>8.072000000000005</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>232.6708</v>
       </c>
       <c r="G19" t="n">
+        <v>8.068000000000003</v>
+      </c>
+      <c r="H19" t="n">
         <v>8.075833333333339</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1075.4593</v>
       </c>
       <c r="G20" t="n">
+        <v>8.060000000000004</v>
+      </c>
+      <c r="H20" t="n">
         <v>8.078500000000005</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>74963.5505</v>
       </c>
       <c r="G21" t="n">
+        <v>8.056000000000004</v>
+      </c>
+      <c r="H21" t="n">
         <v>8.081500000000004</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>943.4536000000001</v>
       </c>
       <c r="G22" t="n">
+        <v>8.048666666666669</v>
+      </c>
+      <c r="H22" t="n">
         <v>8.083500000000004</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>85415.12149999999</v>
       </c>
       <c r="G23" t="n">
+        <v>8.039333333333337</v>
+      </c>
+      <c r="H23" t="n">
         <v>8.085333333333338</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
+        <v>8.031333333333336</v>
+      </c>
+      <c r="H24" t="n">
         <v>8.086833333333338</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
+        <v>8.022666666666669</v>
+      </c>
+      <c r="H25" t="n">
         <v>8.086166666666671</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
+        <v>8.012000000000004</v>
+      </c>
+      <c r="H26" t="n">
         <v>8.08566666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>15505.8183</v>
       </c>
       <c r="G27" t="n">
+        <v>7.988666666666671</v>
+      </c>
+      <c r="H27" t="n">
         <v>8.081500000000004</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>11</v>
       </c>
       <c r="G28" t="n">
+        <v>7.982000000000004</v>
+      </c>
+      <c r="H28" t="n">
         <v>8.08116666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>14523.3873</v>
       </c>
       <c r="G29" t="n">
+        <v>7.97466666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>8.080166666666669</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>255.3681</v>
       </c>
       <c r="G30" t="n">
+        <v>7.970000000000004</v>
+      </c>
+      <c r="H30" t="n">
         <v>8.077333333333335</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>7910</v>
       </c>
       <c r="G31" t="n">
+        <v>7.966000000000005</v>
+      </c>
+      <c r="H31" t="n">
         <v>8.073166666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>5071.4502</v>
       </c>
       <c r="G32" t="n">
+        <v>7.966666666666671</v>
+      </c>
+      <c r="H32" t="n">
         <v>8.070000000000002</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>124524.6806</v>
       </c>
       <c r="G33" t="n">
+        <v>7.960666666666671</v>
+      </c>
+      <c r="H33" t="n">
         <v>8.065333333333335</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>316864.9355</v>
       </c>
       <c r="G34" t="n">
+        <v>7.944666666666672</v>
+      </c>
+      <c r="H34" t="n">
         <v>8.059500000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>7090</v>
       </c>
       <c r="G35" t="n">
+        <v>7.950000000000005</v>
+      </c>
+      <c r="H35" t="n">
         <v>8.058166666666668</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>23140</v>
       </c>
       <c r="G36" t="n">
+        <v>7.952000000000004</v>
+      </c>
+      <c r="H36" t="n">
         <v>8.056166666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>42788.3202</v>
       </c>
       <c r="G37" t="n">
+        <v>7.952000000000004</v>
+      </c>
+      <c r="H37" t="n">
         <v>8.053000000000003</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>19809.9083</v>
       </c>
       <c r="G38" t="n">
+        <v>7.952666666666672</v>
+      </c>
+      <c r="H38" t="n">
         <v>8.049500000000002</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>115325.6981</v>
       </c>
       <c r="G39" t="n">
+        <v>7.942000000000005</v>
+      </c>
+      <c r="H39" t="n">
         <v>8.046000000000003</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>7170</v>
       </c>
       <c r="G40" t="n">
+        <v>7.944666666666672</v>
+      </c>
+      <c r="H40" t="n">
         <v>8.043000000000003</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>15.8551</v>
       </c>
       <c r="G41" t="n">
+        <v>7.948000000000005</v>
+      </c>
+      <c r="H41" t="n">
         <v>8.040000000000003</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>48870</v>
       </c>
       <c r="G42" t="n">
+        <v>7.966000000000005</v>
+      </c>
+      <c r="H42" t="n">
         <v>8.036666666666669</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>94980</v>
       </c>
       <c r="G43" t="n">
+        <v>7.968666666666672</v>
+      </c>
+      <c r="H43" t="n">
         <v>8.033666666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>49103.5006</v>
       </c>
       <c r="G44" t="n">
+        <v>7.967333333333338</v>
+      </c>
+      <c r="H44" t="n">
         <v>8.030166666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>26.4994</v>
       </c>
       <c r="G45" t="n">
+        <v>7.964666666666671</v>
+      </c>
+      <c r="H45" t="n">
         <v>8.026333333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>275.385</v>
       </c>
       <c r="G46" t="n">
+        <v>7.962000000000003</v>
+      </c>
+      <c r="H46" t="n">
         <v>8.022833333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>73767.62450000001</v>
       </c>
       <c r="G47" t="n">
+        <v>7.954000000000003</v>
+      </c>
+      <c r="H47" t="n">
         <v>8.018000000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>5291.7116</v>
       </c>
       <c r="G48" t="n">
+        <v>7.954000000000003</v>
+      </c>
+      <c r="H48" t="n">
         <v>8.014000000000001</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>13971</v>
       </c>
       <c r="G49" t="n">
+        <v>7.960000000000004</v>
+      </c>
+      <c r="H49" t="n">
         <v>8.0105</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>0.3426</v>
       </c>
       <c r="G50" t="n">
+        <v>7.949333333333337</v>
+      </c>
+      <c r="H50" t="n">
         <v>8.007166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>41782.1331</v>
       </c>
       <c r="G51" t="n">
+        <v>7.945333333333337</v>
+      </c>
+      <c r="H51" t="n">
         <v>8.005666666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>143.1</v>
       </c>
       <c r="G52" t="n">
+        <v>7.94066666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>8.002833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>113085.7544</v>
       </c>
       <c r="G53" t="n">
+        <v>7.924666666666669</v>
+      </c>
+      <c r="H53" t="n">
         <v>7.997333333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>212035.7896</v>
       </c>
       <c r="G54" t="n">
+        <v>7.91466666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>7.9905</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>127221.4739</v>
       </c>
       <c r="G55" t="n">
+        <v>7.891333333333336</v>
+      </c>
+      <c r="H55" t="n">
         <v>7.983833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
+        <v>7.886000000000004</v>
+      </c>
+      <c r="H56" t="n">
         <v>7.981666666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>75082.77</v>
       </c>
       <c r="G57" t="n">
+        <v>7.885333333333337</v>
+      </c>
+      <c r="H57" t="n">
         <v>7.980166666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>30212.0343</v>
       </c>
       <c r="G58" t="n">
+        <v>7.882000000000004</v>
+      </c>
+      <c r="H58" t="n">
         <v>7.979333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>34091.7884</v>
       </c>
       <c r="G59" t="n">
+        <v>7.881333333333338</v>
+      </c>
+      <c r="H59" t="n">
         <v>7.977333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>43620</v>
       </c>
       <c r="G60" t="n">
+        <v>7.887333333333339</v>
+      </c>
+      <c r="H60" t="n">
         <v>7.977166666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>32430</v>
       </c>
       <c r="G61" t="n">
+        <v>7.894666666666672</v>
+      </c>
+      <c r="H61" t="n">
         <v>7.975833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>24729.9999</v>
       </c>
       <c r="G62" t="n">
+        <v>7.90733333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>7.976</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>997.9514</v>
       </c>
       <c r="G63" t="n">
+        <v>7.910000000000007</v>
+      </c>
+      <c r="H63" t="n">
         <v>7.973666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>11</v>
       </c>
       <c r="G64" t="n">
+        <v>7.926666666666674</v>
+      </c>
+      <c r="H64" t="n">
         <v>7.974833333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>713.4211</v>
       </c>
       <c r="G65" t="n">
+        <v>7.928000000000007</v>
+      </c>
+      <c r="H65" t="n">
         <v>7.971833333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>37603.7987</v>
       </c>
       <c r="G66" t="n">
+        <v>7.924666666666673</v>
+      </c>
+      <c r="H66" t="n">
         <v>7.9695</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>27981.7563</v>
       </c>
       <c r="G67" t="n">
+        <v>7.925333333333341</v>
+      </c>
+      <c r="H67" t="n">
         <v>7.966666666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>50000</v>
       </c>
       <c r="G68" t="n">
+        <v>7.923333333333341</v>
+      </c>
+      <c r="H68" t="n">
         <v>7.96</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>37051.9613</v>
       </c>
       <c r="G69" t="n">
+        <v>7.944000000000006</v>
+      </c>
+      <c r="H69" t="n">
         <v>7.958</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>1990.0311</v>
       </c>
       <c r="G70" t="n">
+        <v>7.969333333333339</v>
+      </c>
+      <c r="H70" t="n">
         <v>7.957</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>7120</v>
       </c>
       <c r="G71" t="n">
+        <v>7.974000000000006</v>
+      </c>
+      <c r="H71" t="n">
         <v>7.955</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>44440</v>
       </c>
       <c r="G72" t="n">
+        <v>7.97533333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>7.953833333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>25</v>
       </c>
       <c r="G73" t="n">
+        <v>7.964000000000007</v>
+      </c>
+      <c r="H73" t="n">
         <v>7.949166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1037.4687</v>
       </c>
       <c r="G74" t="n">
+        <v>7.952000000000006</v>
+      </c>
+      <c r="H74" t="n">
         <v>7.943833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>10000</v>
       </c>
       <c r="G75" t="n">
+        <v>7.934000000000006</v>
+      </c>
+      <c r="H75" t="n">
         <v>7.938999999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>10000</v>
       </c>
       <c r="G76" t="n">
+        <v>7.914666666666673</v>
+      </c>
+      <c r="H76" t="n">
         <v>7.934333333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>47960.4113</v>
       </c>
       <c r="G77" t="n">
+        <v>7.89533333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>7.930833333333331</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>7710</v>
       </c>
       <c r="G78" t="n">
+        <v>7.885333333333339</v>
+      </c>
+      <c r="H78" t="n">
         <v>7.927499999999998</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>9221.1248</v>
       </c>
       <c r="G79" t="n">
+        <v>7.857333333333339</v>
+      </c>
+      <c r="H79" t="n">
         <v>7.922166666666665</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>7500</v>
       </c>
       <c r="G80" t="n">
+        <v>7.862000000000005</v>
+      </c>
+      <c r="H80" t="n">
         <v>7.922333333333331</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>9860</v>
       </c>
       <c r="G81" t="n">
+        <v>7.864666666666671</v>
+      </c>
+      <c r="H81" t="n">
         <v>7.921666666666665</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>18148.4499</v>
       </c>
       <c r="G82" t="n">
+        <v>7.85266666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>7.917666666666665</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>21851.5501</v>
       </c>
       <c r="G83" t="n">
+        <v>7.854666666666671</v>
+      </c>
+      <c r="H83" t="n">
         <v>7.913833333333331</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>68878.5297</v>
       </c>
       <c r="G84" t="n">
+        <v>7.840666666666672</v>
+      </c>
+      <c r="H84" t="n">
         <v>7.910333333333331</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>613918.9005</v>
       </c>
       <c r="G85" t="n">
+        <v>7.822666666666672</v>
+      </c>
+      <c r="H85" t="n">
         <v>7.906999999999998</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>606442.6534</v>
       </c>
       <c r="G86" t="n">
+        <v>7.807333333333338</v>
+      </c>
+      <c r="H86" t="n">
         <v>7.903833333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>150155.4961</v>
       </c>
       <c r="G87" t="n">
+        <v>7.806666666666671</v>
+      </c>
+      <c r="H87" t="n">
         <v>7.908333333333331</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>34517.7876</v>
       </c>
       <c r="G88" t="n">
+        <v>7.806666666666671</v>
+      </c>
+      <c r="H88" t="n">
         <v>7.905333333333331</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>20470</v>
       </c>
       <c r="G89" t="n">
+        <v>7.821333333333338</v>
+      </c>
+      <c r="H89" t="n">
         <v>7.905499999999998</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>75478.96120000001</v>
       </c>
       <c r="G90" t="n">
+        <v>7.835333333333337</v>
+      </c>
+      <c r="H90" t="n">
         <v>7.905333333333331</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>35659.4493</v>
       </c>
       <c r="G91" t="n">
+        <v>7.849333333333337</v>
+      </c>
+      <c r="H91" t="n">
         <v>7.905166666666664</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>10000</v>
       </c>
       <c r="G92" t="n">
+        <v>7.863333333333336</v>
+      </c>
+      <c r="H92" t="n">
         <v>7.904999999999998</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>20000</v>
       </c>
       <c r="G93" t="n">
+        <v>7.877333333333336</v>
+      </c>
+      <c r="H93" t="n">
         <v>7.906666666666665</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>25000</v>
       </c>
       <c r="G94" t="n">
+        <v>7.894666666666668</v>
+      </c>
+      <c r="H94" t="n">
         <v>7.909666666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>40000</v>
       </c>
       <c r="G95" t="n">
+        <v>7.894666666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>7.908499999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>40000</v>
       </c>
       <c r="G96" t="n">
+        <v>7.894666666666668</v>
+      </c>
+      <c r="H96" t="n">
         <v>7.907333333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>4301.8773</v>
       </c>
       <c r="G97" t="n">
+        <v>7.911333333333335</v>
+      </c>
+      <c r="H97" t="n">
         <v>7.907499999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>7050</v>
       </c>
       <c r="G98" t="n">
+        <v>7.928000000000002</v>
+      </c>
+      <c r="H98" t="n">
         <v>7.907666666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>14540</v>
       </c>
       <c r="G99" t="n">
+        <v>7.944000000000002</v>
+      </c>
+      <c r="H99" t="n">
         <v>7.910833333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>516.6666</v>
       </c>
       <c r="G100" t="n">
+        <v>7.959333333333335</v>
+      </c>
+      <c r="H100" t="n">
         <v>7.910666666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>84400.75199999999</v>
       </c>
       <c r="G101" t="n">
+        <v>7.961333333333335</v>
+      </c>
+      <c r="H101" t="n">
         <v>7.907166666666665</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>8210</v>
       </c>
       <c r="G102" t="n">
+        <v>7.952000000000002</v>
+      </c>
+      <c r="H102" t="n">
         <v>7.904833333333332</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>5884.0769</v>
       </c>
       <c r="G103" t="n">
+        <v>7.957333333333335</v>
+      </c>
+      <c r="H103" t="n">
         <v>7.902499999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>14960</v>
       </c>
       <c r="G104" t="n">
+        <v>7.956666666666669</v>
+      </c>
+      <c r="H104" t="n">
         <v>7.902833333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
+        <v>7.935333333333336</v>
+      </c>
+      <c r="H105" t="n">
         <v>7.898</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>292183.7948</v>
       </c>
       <c r="G106" t="n">
+        <v>7.916000000000003</v>
+      </c>
+      <c r="H106" t="n">
         <v>7.893666666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>9330</v>
       </c>
       <c r="G107" t="n">
+        <v>7.896666666666671</v>
+      </c>
+      <c r="H107" t="n">
         <v>7.890666666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>15010</v>
       </c>
       <c r="G108" t="n">
+        <v>7.877333333333338</v>
+      </c>
+      <c r="H108" t="n">
         <v>7.8875</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>7830</v>
       </c>
       <c r="G109" t="n">
+        <v>7.858000000000005</v>
+      </c>
+      <c r="H109" t="n">
         <v>7.884166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>271.1688</v>
       </c>
       <c r="G110" t="n">
+        <v>7.838666666666672</v>
+      </c>
+      <c r="H110" t="n">
         <v>7.880833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>27170</v>
       </c>
       <c r="G111" t="n">
+        <v>7.832666666666673</v>
+      </c>
+      <c r="H111" t="n">
         <v>7.879166666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>47913.2671</v>
       </c>
       <c r="G112" t="n">
+        <v>7.80733333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>7.874166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>137870.7329</v>
       </c>
       <c r="G113" t="n">
+        <v>7.77933333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>7.871333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>10</v>
       </c>
       <c r="G114" t="n">
+        <v>7.754000000000007</v>
+      </c>
+      <c r="H114" t="n">
         <v>7.870666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>326.6654</v>
       </c>
       <c r="G115" t="n">
+        <v>7.73533333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>7.871666666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>12060</v>
       </c>
       <c r="G116" t="n">
+        <v>7.73333333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>7.869</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>100</v>
       </c>
       <c r="G117" t="n">
+        <v>7.720000000000008</v>
+      </c>
+      <c r="H117" t="n">
         <v>7.863499999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>300</v>
       </c>
       <c r="G118" t="n">
+        <v>7.702000000000008</v>
+      </c>
+      <c r="H118" t="n">
         <v>7.857499999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>15930</v>
       </c>
       <c r="G119" t="n">
+        <v>7.696000000000008</v>
+      </c>
+      <c r="H119" t="n">
         <v>7.856499999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>3985.6239</v>
       </c>
       <c r="G120" t="n">
+        <v>7.692000000000007</v>
+      </c>
+      <c r="H120" t="n">
         <v>7.849166666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>8140</v>
       </c>
       <c r="G121" t="n">
+        <v>7.703333333333341</v>
+      </c>
+      <c r="H121" t="n">
         <v>7.845833333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>7440</v>
       </c>
       <c r="G122" t="n">
+        <v>7.708666666666674</v>
+      </c>
+      <c r="H122" t="n">
         <v>7.840999999999998</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>411</v>
       </c>
       <c r="G123" t="n">
+        <v>7.710666666666674</v>
+      </c>
+      <c r="H123" t="n">
         <v>7.837666666666665</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>1111</v>
       </c>
       <c r="G124" t="n">
+        <v>7.710666666666674</v>
+      </c>
+      <c r="H124" t="n">
         <v>7.830166666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>711</v>
       </c>
       <c r="G125" t="n">
+        <v>7.714666666666674</v>
+      </c>
+      <c r="H125" t="n">
         <v>7.827499999999999</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>100</v>
       </c>
       <c r="G126" t="n">
+        <v>7.705333333333341</v>
+      </c>
+      <c r="H126" t="n">
         <v>7.824333333333332</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>100</v>
       </c>
       <c r="G127" t="n">
+        <v>7.715333333333342</v>
+      </c>
+      <c r="H127" t="n">
         <v>7.821666666666665</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>20000</v>
       </c>
       <c r="G128" t="n">
+        <v>7.728666666666674</v>
+      </c>
+      <c r="H128" t="n">
         <v>7.822666666666665</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>10400</v>
       </c>
       <c r="G129" t="n">
+        <v>7.736666666666675</v>
+      </c>
+      <c r="H129" t="n">
         <v>7.818833333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>22610</v>
       </c>
       <c r="G130" t="n">
+        <v>7.738666666666675</v>
+      </c>
+      <c r="H130" t="n">
         <v>7.813999999999999</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>23116.0025</v>
       </c>
       <c r="G131" t="n">
+        <v>7.747333333333342</v>
+      </c>
+      <c r="H131" t="n">
         <v>7.812333333333332</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>11750</v>
       </c>
       <c r="G132" t="n">
+        <v>7.750666666666675</v>
+      </c>
+      <c r="H132" t="n">
         <v>7.807333333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>1400</v>
       </c>
       <c r="G133" t="n">
+        <v>7.754666666666675</v>
+      </c>
+      <c r="H133" t="n">
         <v>7.805166666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>303744.0489</v>
       </c>
       <c r="G134" t="n">
+        <v>7.753333333333342</v>
+      </c>
+      <c r="H134" t="n">
         <v>7.806833333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>30870</v>
       </c>
       <c r="G135" t="n">
+        <v>7.770666666666675</v>
+      </c>
+      <c r="H135" t="n">
         <v>7.808333333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>23170</v>
       </c>
       <c r="G136" t="n">
+        <v>7.769333333333341</v>
+      </c>
+      <c r="H136" t="n">
         <v>7.809500000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>100</v>
       </c>
       <c r="G137" t="n">
+        <v>7.770666666666674</v>
+      </c>
+      <c r="H137" t="n">
         <v>7.809833333333335</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>100</v>
       </c>
       <c r="G138" t="n">
+        <v>7.778000000000008</v>
+      </c>
+      <c r="H138" t="n">
         <v>7.810833333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>27986.6346</v>
       </c>
       <c r="G139" t="n">
+        <v>7.784666666666674</v>
+      </c>
+      <c r="H139" t="n">
         <v>7.812000000000001</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>1400</v>
       </c>
       <c r="G140" t="n">
+        <v>7.778000000000007</v>
+      </c>
+      <c r="H140" t="n">
         <v>7.806500000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>100</v>
       </c>
       <c r="G141" t="n">
+        <v>7.78133333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>7.803500000000001</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>7880</v>
       </c>
       <c r="G142" t="n">
+        <v>7.78333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>7.804333333333335</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>15200</v>
       </c>
       <c r="G143" t="n">
+        <v>7.784000000000007</v>
+      </c>
+      <c r="H143" t="n">
         <v>7.805000000000001</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
+        <v>7.786666666666673</v>
+      </c>
+      <c r="H144" t="n">
         <v>7.805333333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>100</v>
       </c>
       <c r="G145" t="n">
+        <v>7.790666666666673</v>
+      </c>
+      <c r="H145" t="n">
         <v>7.806000000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>100</v>
       </c>
       <c r="G146" t="n">
+        <v>7.784000000000007</v>
+      </c>
+      <c r="H146" t="n">
         <v>7.806500000000001</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>1000</v>
       </c>
       <c r="G147" t="n">
+        <v>7.784000000000007</v>
+      </c>
+      <c r="H147" t="n">
         <v>7.801666666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>966</v>
       </c>
       <c r="G148" t="n">
+        <v>7.78733333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>7.800333333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>130207.922</v>
       </c>
       <c r="G149" t="n">
+        <v>7.782666666666673</v>
+      </c>
+      <c r="H149" t="n">
         <v>7.797166666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>9000</v>
       </c>
       <c r="G150" t="n">
+        <v>7.778000000000006</v>
+      </c>
+      <c r="H150" t="n">
         <v>7.794</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>200</v>
       </c>
       <c r="G151" t="n">
+        <v>7.772666666666672</v>
+      </c>
+      <c r="H151" t="n">
         <v>7.790333333333334</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>100</v>
       </c>
       <c r="G152" t="n">
+        <v>7.770666666666672</v>
+      </c>
+      <c r="H152" t="n">
         <v>7.786666666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>8550</v>
       </c>
       <c r="G153" t="n">
+        <v>7.766666666666672</v>
+      </c>
+      <c r="H153" t="n">
         <v>7.783166666666665</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>271497.6473</v>
       </c>
       <c r="G154" t="n">
+        <v>7.756000000000006</v>
+      </c>
+      <c r="H154" t="n">
         <v>7.777333333333332</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>305.1047</v>
       </c>
       <c r="G155" t="n">
+        <v>7.754666666666673</v>
+      </c>
+      <c r="H155" t="n">
         <v>7.771499999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>47836.9318</v>
       </c>
       <c r="G156" t="n">
+        <v>7.743333333333339</v>
+      </c>
+      <c r="H156" t="n">
         <v>7.765666666666664</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>1319.8198</v>
       </c>
       <c r="G157" t="n">
+        <v>7.742000000000005</v>
+      </c>
+      <c r="H157" t="n">
         <v>7.761999999999998</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>100</v>
       </c>
       <c r="G158" t="n">
+        <v>7.742000000000005</v>
+      </c>
+      <c r="H158" t="n">
         <v>7.758499999999997</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>16100</v>
       </c>
       <c r="G159" t="n">
+        <v>7.743333333333339</v>
+      </c>
+      <c r="H159" t="n">
         <v>7.755166666666664</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>22740</v>
       </c>
       <c r="G160" t="n">
+        <v>7.742666666666673</v>
+      </c>
+      <c r="H160" t="n">
         <v>7.751833333333329</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>100</v>
       </c>
       <c r="G161" t="n">
+        <v>7.742000000000005</v>
+      </c>
+      <c r="H161" t="n">
         <v>7.751666666666663</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>167025.1923</v>
       </c>
       <c r="G162" t="n">
+        <v>7.742000000000005</v>
+      </c>
+      <c r="H162" t="n">
         <v>7.749166666666663</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>201570.0648</v>
       </c>
       <c r="G163" t="n">
+        <v>7.742000000000005</v>
+      </c>
+      <c r="H163" t="n">
         <v>7.746499999999996</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>400</v>
       </c>
       <c r="G164" t="n">
+        <v>7.734666666666672</v>
+      </c>
+      <c r="H164" t="n">
         <v>7.741666666666662</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>400</v>
       </c>
       <c r="G165" t="n">
+        <v>7.728000000000006</v>
+      </c>
+      <c r="H165" t="n">
         <v>7.742166666666662</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>100</v>
       </c>
       <c r="G166" t="n">
+        <v>7.722666666666672</v>
+      </c>
+      <c r="H166" t="n">
         <v>7.741999999999995</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>60918.6908</v>
       </c>
       <c r="G167" t="n">
+        <v>7.714666666666673</v>
+      </c>
+      <c r="H167" t="n">
         <v>7.741166666666661</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>243805.3875</v>
       </c>
       <c r="G168" t="n">
+        <v>7.714000000000007</v>
+      </c>
+      <c r="H168" t="n">
         <v>7.742333333333328</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>152268.4811</v>
       </c>
       <c r="G169" t="n">
+        <v>7.713333333333339</v>
+      </c>
+      <c r="H169" t="n">
         <v>7.741166666666661</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>570617.0820000001</v>
       </c>
       <c r="G170" t="n">
+        <v>7.706000000000006</v>
+      </c>
+      <c r="H170" t="n">
         <v>7.738333333333328</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>460.8294</v>
       </c>
       <c r="G171" t="n">
+        <v>7.69933333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>7.732333333333329</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>4634.076</v>
       </c>
       <c r="G172" t="n">
+        <v>7.684000000000007</v>
+      </c>
+      <c r="H172" t="n">
         <v>7.731166666666662</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>463.4076</v>
       </c>
       <c r="G173" t="n">
+        <v>7.668000000000007</v>
+      </c>
+      <c r="H173" t="n">
         <v>7.730666666666663</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,25 @@
         <v>130588.4175</v>
       </c>
       <c r="G174" t="n">
+        <v>7.652000000000006</v>
+      </c>
+      <c r="H174" t="n">
         <v>7.729666666666662</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="L174" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,22 +7031,29 @@
         <v>20</v>
       </c>
       <c r="G175" t="n">
+        <v>7.64133333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>7.728333333333329</v>
       </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="K175" t="n">
         <v>7.55</v>
       </c>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6542,26 +7077,29 @@
         <v>114.0419</v>
       </c>
       <c r="G176" t="n">
+        <v>7.631333333333341</v>
+      </c>
+      <c r="H176" t="n">
         <v>7.726166666666662</v>
       </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
         <v>7.62</v>
       </c>
-      <c r="K176" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6585,59 +7123,71 @@
         <v>329.3657</v>
       </c>
       <c r="G177" t="n">
+        <v>7.626000000000007</v>
+      </c>
+      <c r="H177" t="n">
         <v>7.725666666666664</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>7.62</v>
+      </c>
+      <c r="L177" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C178" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D178" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E178" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="F178" t="n">
+        <v>41159.298</v>
+      </c>
+      <c r="G178" t="n">
+        <v>7.630666666666674</v>
+      </c>
+      <c r="H178" t="n">
+        <v>7.728666666666664</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="L178" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C178" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="D178" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="E178" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F178" t="n">
-        <v>41159.298</v>
-      </c>
-      <c r="G178" t="n">
-        <v>7.728666666666664</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7211,27 @@
         <v>7960</v>
       </c>
       <c r="G179" t="n">
+        <v>7.636000000000007</v>
+      </c>
+      <c r="H179" t="n">
         <v>7.726666666666663</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7255,21 @@
         <v>24105.9973</v>
       </c>
       <c r="G180" t="n">
+        <v>7.632000000000007</v>
+      </c>
+      <c r="H180" t="n">
         <v>7.727166666666663</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7293,21 @@
         <v>97533.4875</v>
       </c>
       <c r="G181" t="n">
+        <v>7.636666666666674</v>
+      </c>
+      <c r="H181" t="n">
         <v>7.725333333333329</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7331,21 @@
         <v>8564</v>
       </c>
       <c r="G182" t="n">
+        <v>7.644666666666674</v>
+      </c>
+      <c r="H182" t="n">
         <v>7.725166666666663</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7369,21 @@
         <v>45780.2728</v>
       </c>
       <c r="G183" t="n">
+        <v>7.644666666666674</v>
+      </c>
+      <c r="H183" t="n">
         <v>7.725833333333329</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7407,21 @@
         <v>69412</v>
       </c>
       <c r="G184" t="n">
+        <v>7.65333333333334</v>
+      </c>
+      <c r="H184" t="n">
         <v>7.726833333333329</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7445,21 @@
         <v>200</v>
       </c>
       <c r="G185" t="n">
+        <v>7.667333333333341</v>
+      </c>
+      <c r="H185" t="n">
         <v>7.726499999999996</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7483,21 @@
         <v>11437.4677</v>
       </c>
       <c r="G186" t="n">
+        <v>7.680666666666673</v>
+      </c>
+      <c r="H186" t="n">
         <v>7.726166666666662</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +7521,21 @@
         <v>11</v>
       </c>
       <c r="G187" t="n">
+        <v>7.69333333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>7.725666666666664</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +7559,21 @@
         <v>2989</v>
       </c>
       <c r="G188" t="n">
+        <v>7.706000000000006</v>
+      </c>
+      <c r="H188" t="n">
         <v>7.724999999999997</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +7597,21 @@
         <v>43.7984</v>
       </c>
       <c r="G189" t="n">
+        <v>7.718666666666673</v>
+      </c>
+      <c r="H189" t="n">
         <v>7.725166666666664</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +7635,21 @@
         <v>100</v>
       </c>
       <c r="G190" t="n">
+        <v>7.726000000000005</v>
+      </c>
+      <c r="H190" t="n">
         <v>7.725166666666664</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,18 +7673,21 @@
         <v>44640</v>
       </c>
       <c r="G191" t="n">
+        <v>7.737333333333339</v>
+      </c>
+      <c r="H191" t="n">
         <v>7.723666666666664</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,18 +7711,21 @@
         <v>8105.1604</v>
       </c>
       <c r="G192" t="n">
+        <v>7.748666666666673</v>
+      </c>
+      <c r="H192" t="n">
         <v>7.725166666666665</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,18 +7749,21 @@
         <v>7340</v>
       </c>
       <c r="G193" t="n">
+        <v>7.74933333333334</v>
+      </c>
+      <c r="H193" t="n">
         <v>7.727333333333331</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7186,18 +7787,21 @@
         <v>10527.6019</v>
       </c>
       <c r="G194" t="n">
+        <v>7.740666666666673</v>
+      </c>
+      <c r="H194" t="n">
         <v>7.723499999999998</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,18 +7825,21 @@
         <v>10490</v>
       </c>
       <c r="G195" t="n">
+        <v>7.748000000000006</v>
+      </c>
+      <c r="H195" t="n">
         <v>7.721499999999997</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,18 +7863,21 @@
         <v>33</v>
       </c>
       <c r="G196" t="n">
+        <v>7.74933333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>7.72033333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,18 +7901,21 @@
         <v>15970</v>
       </c>
       <c r="G197" t="n">
+        <v>7.750000000000006</v>
+      </c>
+      <c r="H197" t="n">
         <v>7.719999999999996</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,18 +7939,21 @@
         <v>100012.2186</v>
       </c>
       <c r="G198" t="n">
+        <v>7.740666666666673</v>
+      </c>
+      <c r="H198" t="n">
         <v>7.716499999999996</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,18 +7977,21 @@
         <v>135.5177</v>
       </c>
       <c r="G199" t="n">
+        <v>7.734000000000006</v>
+      </c>
+      <c r="H199" t="n">
         <v>7.714166666666663</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,18 +8015,21 @@
         <v>8084.8975</v>
       </c>
       <c r="G200" t="n">
+        <v>7.72933333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>7.71433333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,18 +8053,25 @@
         <v>600</v>
       </c>
       <c r="G201" t="n">
+        <v>7.730000000000007</v>
+      </c>
+      <c r="H201" t="n">
         <v>7.713333333333329</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="L201" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,18 +8095,27 @@
         <v>500</v>
       </c>
       <c r="G202" t="n">
+        <v>7.73133333333334</v>
+      </c>
+      <c r="H202" t="n">
         <v>7.712666666666663</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,18 +8139,27 @@
         <v>800</v>
       </c>
       <c r="G203" t="n">
+        <v>7.732666666666673</v>
+      </c>
+      <c r="H203" t="n">
         <v>7.712166666666663</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,18 +8183,21 @@
         <v>800</v>
       </c>
       <c r="G204" t="n">
+        <v>7.73333333333334</v>
+      </c>
+      <c r="H204" t="n">
         <v>7.71183333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7571,18 +8221,21 @@
         <v>242703.33</v>
       </c>
       <c r="G205" t="n">
+        <v>7.726666666666673</v>
+      </c>
+      <c r="H205" t="n">
         <v>7.709166666666663</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7606,18 +8259,21 @@
         <v>562054.925</v>
       </c>
       <c r="G206" t="n">
+        <v>7.723333333333339</v>
+      </c>
+      <c r="H206" t="n">
         <v>7.708499999999997</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7641,18 +8297,21 @@
         <v>1580.3376</v>
       </c>
       <c r="G207" t="n">
+        <v>7.719333333333338</v>
+      </c>
+      <c r="H207" t="n">
         <v>7.708999999999998</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7676,18 +8335,21 @@
         <v>2754.0195</v>
       </c>
       <c r="G208" t="n">
+        <v>7.716000000000006</v>
+      </c>
+      <c r="H208" t="n">
         <v>7.709499999999998</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,18 +8373,21 @@
         <v>889.8156</v>
       </c>
       <c r="G209" t="n">
+        <v>7.716666666666672</v>
+      </c>
+      <c r="H209" t="n">
         <v>7.706999999999997</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7746,18 +8411,21 @@
         <v>602.9392</v>
       </c>
       <c r="G210" t="n">
+        <v>7.708666666666672</v>
+      </c>
+      <c r="H210" t="n">
         <v>7.704166666666664</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7781,18 +8449,21 @@
         <v>10</v>
       </c>
       <c r="G211" t="n">
+        <v>7.700000000000006</v>
+      </c>
+      <c r="H211" t="n">
         <v>7.702166666666664</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7816,18 +8487,21 @@
         <v>5555.3124</v>
       </c>
       <c r="G212" t="n">
+        <v>7.692000000000005</v>
+      </c>
+      <c r="H212" t="n">
         <v>7.700333333333331</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7851,18 +8525,21 @@
         <v>10</v>
       </c>
       <c r="G213" t="n">
+        <v>7.696000000000006</v>
+      </c>
+      <c r="H213" t="n">
         <v>7.698833333333331</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7886,18 +8563,21 @@
         <v>20</v>
       </c>
       <c r="G214" t="n">
+        <v>7.698666666666672</v>
+      </c>
+      <c r="H214" t="n">
         <v>7.699833333333332</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7921,18 +8601,21 @@
         <v>100</v>
       </c>
       <c r="G215" t="n">
+        <v>7.696666666666673</v>
+      </c>
+      <c r="H215" t="n">
         <v>7.699833333333332</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7956,18 +8639,21 @@
         <v>200020</v>
       </c>
       <c r="G216" t="n">
+        <v>7.69333333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>7.700833333333332</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7991,18 +8677,25 @@
         <v>52565</v>
       </c>
       <c r="G217" t="n">
+        <v>7.690666666666672</v>
+      </c>
+      <c r="H217" t="n">
         <v>7.699833333333332</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L217" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8026,18 +8719,27 @@
         <v>160235</v>
       </c>
       <c r="G218" t="n">
+        <v>7.688000000000005</v>
+      </c>
+      <c r="H218" t="n">
         <v>7.698666666666665</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8061,18 +8763,27 @@
         <v>124163.3818</v>
       </c>
       <c r="G219" t="n">
+        <v>7.690000000000006</v>
+      </c>
+      <c r="H219" t="n">
         <v>7.698499999999997</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8096,18 +8807,21 @@
         <v>76301.3789</v>
       </c>
       <c r="G220" t="n">
+        <v>7.700666666666673</v>
+      </c>
+      <c r="H220" t="n">
         <v>7.698666666666665</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8131,18 +8845,21 @@
         <v>1069</v>
       </c>
       <c r="G221" t="n">
+        <v>7.70733333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>7.699833333333332</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8166,18 +8883,21 @@
         <v>161224</v>
       </c>
       <c r="G222" t="n">
+        <v>7.713333333333339</v>
+      </c>
+      <c r="H222" t="n">
         <v>7.701833333333331</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8201,18 +8921,21 @@
         <v>305344.3124</v>
       </c>
       <c r="G223" t="n">
+        <v>7.719333333333339</v>
+      </c>
+      <c r="H223" t="n">
         <v>7.703833333333332</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8236,18 +8959,21 @@
         <v>300000</v>
       </c>
       <c r="G224" t="n">
+        <v>7.728666666666673</v>
+      </c>
+      <c r="H224" t="n">
         <v>7.705499999999999</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8271,18 +8997,21 @@
         <v>300000</v>
       </c>
       <c r="G225" t="n">
+        <v>7.73933333333334</v>
+      </c>
+      <c r="H225" t="n">
         <v>7.706999999999999</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8306,18 +9035,21 @@
         <v>361380.56</v>
       </c>
       <c r="G226" t="n">
+        <v>7.754666666666673</v>
+      </c>
+      <c r="H226" t="n">
         <v>7.710166666666666</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8341,18 +9073,21 @@
         <v>798197.2904000001</v>
       </c>
       <c r="G227" t="n">
+        <v>7.769333333333339</v>
+      </c>
+      <c r="H227" t="n">
         <v>7.714</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8376,18 +9111,21 @@
         <v>333817</v>
       </c>
       <c r="G228" t="n">
+        <v>7.785333333333339</v>
+      </c>
+      <c r="H228" t="n">
         <v>7.716666666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8411,18 +9149,21 @@
         <v>10</v>
       </c>
       <c r="G229" t="n">
+        <v>7.800000000000006</v>
+      </c>
+      <c r="H229" t="n">
         <v>7.721500000000001</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8446,18 +9187,21 @@
         <v>160000</v>
       </c>
       <c r="G230" t="n">
+        <v>7.808000000000006</v>
+      </c>
+      <c r="H230" t="n">
         <v>7.725333333333334</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8481,18 +9225,21 @@
         <v>299736.56</v>
       </c>
       <c r="G231" t="n">
+        <v>7.813333333333339</v>
+      </c>
+      <c r="H231" t="n">
         <v>7.729333333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8516,18 +9263,21 @@
         <v>435194</v>
       </c>
       <c r="G232" t="n">
+        <v>7.826666666666672</v>
+      </c>
+      <c r="H232" t="n">
         <v>7.7355</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8551,18 +9301,21 @@
         <v>277437</v>
       </c>
       <c r="G233" t="n">
+        <v>7.840000000000006</v>
+      </c>
+      <c r="H233" t="n">
         <v>7.741666666666666</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8586,18 +9339,21 @@
         <v>239993</v>
       </c>
       <c r="G234" t="n">
+        <v>7.848666666666673</v>
+      </c>
+      <c r="H234" t="n">
         <v>7.747666666666666</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8621,18 +9377,21 @@
         <v>211703</v>
       </c>
       <c r="G235" t="n">
+        <v>7.855333333333339</v>
+      </c>
+      <c r="H235" t="n">
         <v>7.752166666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8656,18 +9415,21 @@
         <v>222402</v>
       </c>
       <c r="G236" t="n">
+        <v>7.852666666666672</v>
+      </c>
+      <c r="H236" t="n">
         <v>7.755166666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8691,18 +9453,21 @@
         <v>107074.0653</v>
       </c>
       <c r="G237" t="n">
+        <v>7.859333333333338</v>
+      </c>
+      <c r="H237" t="n">
         <v>7.760166666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8726,18 +9491,21 @@
         <v>134</v>
       </c>
       <c r="G238" t="n">
+        <v>7.865333333333338</v>
+      </c>
+      <c r="H238" t="n">
         <v>7.762500000000001</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,18 +9529,21 @@
         <v>10</v>
       </c>
       <c r="G239" t="n">
+        <v>7.872666666666672</v>
+      </c>
+      <c r="H239" t="n">
         <v>7.764666666666668</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8796,18 +9567,21 @@
         <v>30</v>
       </c>
       <c r="G240" t="n">
+        <v>7.878000000000005</v>
+      </c>
+      <c r="H240" t="n">
         <v>7.768500000000001</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8831,18 +9605,21 @@
         <v>17777.2645</v>
       </c>
       <c r="G241" t="n">
+        <v>7.877333333333339</v>
+      </c>
+      <c r="H241" t="n">
         <v>7.770333333333335</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8866,18 +9643,21 @@
         <v>60998.6259</v>
       </c>
       <c r="G242" t="n">
+        <v>7.876000000000006</v>
+      </c>
+      <c r="H242" t="n">
         <v>7.771833333333335</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8901,18 +9681,21 @@
         <v>100012.2186</v>
       </c>
       <c r="G243" t="n">
+        <v>7.859333333333338</v>
+      </c>
+      <c r="H243" t="n">
         <v>7.770333333333336</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8936,18 +9719,21 @@
         <v>18998</v>
       </c>
       <c r="G244" t="n">
+        <v>7.850000000000005</v>
+      </c>
+      <c r="H244" t="n">
         <v>7.770666666666669</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8971,18 +9757,21 @@
         <v>7807</v>
       </c>
       <c r="G245" t="n">
+        <v>7.851333333333338</v>
+      </c>
+      <c r="H245" t="n">
         <v>7.771333333333335</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9006,18 +9795,21 @@
         <v>14165.0525</v>
       </c>
       <c r="G246" t="n">
+        <v>7.858000000000004</v>
+      </c>
+      <c r="H246" t="n">
         <v>7.773666666666668</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9041,18 +9833,21 @@
         <v>41568.9655</v>
       </c>
       <c r="G247" t="n">
+        <v>7.85266666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>7.775333333333334</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9076,18 +9871,21 @@
         <v>70309.4184</v>
       </c>
       <c r="G248" t="n">
+        <v>7.845333333333338</v>
+      </c>
+      <c r="H248" t="n">
         <v>7.7765</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9111,18 +9909,21 @@
         <v>7060.641</v>
       </c>
       <c r="G249" t="n">
+        <v>7.838000000000005</v>
+      </c>
+      <c r="H249" t="n">
         <v>7.777500000000001</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9146,18 +9947,21 @@
         <v>14319.1532</v>
       </c>
       <c r="G250" t="n">
+        <v>7.835333333333337</v>
+      </c>
+      <c r="H250" t="n">
         <v>7.779500000000001</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9181,18 +9985,21 @@
         <v>89403.11199999999</v>
       </c>
       <c r="G251" t="n">
+        <v>7.83866666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>7.780500000000001</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9216,18 +10023,21 @@
         <v>263066.872</v>
       </c>
       <c r="G252" t="n">
+        <v>7.842000000000003</v>
+      </c>
+      <c r="H252" t="n">
         <v>7.783500000000001</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9251,18 +10061,21 @@
         <v>116330.0349</v>
       </c>
       <c r="G253" t="n">
+        <v>7.848000000000003</v>
+      </c>
+      <c r="H253" t="n">
         <v>7.787166666666668</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9286,18 +10099,21 @@
         <v>31267.125</v>
       </c>
       <c r="G254" t="n">
+        <v>7.85466666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>7.793166666666668</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9321,18 +10137,21 @@
         <v>86739.0552</v>
       </c>
       <c r="G255" t="n">
+        <v>7.868000000000003</v>
+      </c>
+      <c r="H255" t="n">
         <v>7.798500000000002</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9356,18 +10175,21 @@
         <v>38013.4691</v>
       </c>
       <c r="G256" t="n">
+        <v>7.882666666666669</v>
+      </c>
+      <c r="H256" t="n">
         <v>7.803666666666668</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9391,18 +10213,21 @@
         <v>17461.2958</v>
       </c>
       <c r="G257" t="n">
+        <v>7.892000000000002</v>
+      </c>
+      <c r="H257" t="n">
         <v>7.807333333333335</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9426,18 +10251,21 @@
         <v>70065.1421</v>
       </c>
       <c r="G258" t="n">
+        <v>7.919333333333337</v>
+      </c>
+      <c r="H258" t="n">
         <v>7.815000000000001</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9461,18 +10289,21 @@
         <v>20293.2835</v>
       </c>
       <c r="G259" t="n">
+        <v>7.936666666666669</v>
+      </c>
+      <c r="H259" t="n">
         <v>7.821333333333334</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9496,18 +10327,21 @@
         <v>68696.8826</v>
       </c>
       <c r="G260" t="n">
+        <v>7.944666666666669</v>
+      </c>
+      <c r="H260" t="n">
         <v>7.825166666666667</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9531,18 +10365,21 @@
         <v>65988.2985</v>
       </c>
       <c r="G261" t="n">
+        <v>7.950000000000003</v>
+      </c>
+      <c r="H261" t="n">
         <v>7.828666666666667</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9566,18 +10403,21 @@
         <v>22561.0884</v>
       </c>
       <c r="G262" t="n">
+        <v>7.958666666666669</v>
+      </c>
+      <c r="H262" t="n">
         <v>7.832166666666667</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9601,18 +10441,21 @@
         <v>5974.8096</v>
       </c>
       <c r="G263" t="n">
+        <v>7.964000000000002</v>
+      </c>
+      <c r="H263" t="n">
         <v>7.834333333333333</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9636,18 +10479,21 @@
         <v>750441.8758</v>
       </c>
       <c r="G264" t="n">
+        <v>7.969333333333336</v>
+      </c>
+      <c r="H264" t="n">
         <v>7.8365</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9671,18 +10517,21 @@
         <v>79878.77860000001</v>
       </c>
       <c r="G265" t="n">
+        <v>7.978666666666669</v>
+      </c>
+      <c r="H265" t="n">
         <v>7.8425</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9706,18 +10555,21 @@
         <v>275630.969</v>
       </c>
       <c r="G266" t="n">
+        <v>7.99466666666667</v>
+      </c>
+      <c r="H266" t="n">
         <v>7.848333333333333</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9741,18 +10593,21 @@
         <v>54939.443</v>
       </c>
       <c r="G267" t="n">
+        <v>7.992666666666669</v>
+      </c>
+      <c r="H267" t="n">
         <v>7.851833333333333</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9776,18 +10631,21 @@
         <v>155785.0068</v>
       </c>
       <c r="G268" t="n">
+        <v>7.997333333333335</v>
+      </c>
+      <c r="H268" t="n">
         <v>7.857499999999999</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9811,18 +10669,21 @@
         <v>62.0001</v>
       </c>
       <c r="G269" t="n">
+        <v>7.98866666666667</v>
+      </c>
+      <c r="H269" t="n">
         <v>7.861166666666666</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9846,18 +10707,21 @@
         <v>28294.1396</v>
       </c>
       <c r="G270" t="n">
+        <v>7.989333333333335</v>
+      </c>
+      <c r="H270" t="n">
         <v>7.868666666666666</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9881,18 +10745,21 @@
         <v>21207.4566</v>
       </c>
       <c r="G271" t="n">
+        <v>7.988666666666669</v>
+      </c>
+      <c r="H271" t="n">
         <v>7.875833333333333</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9916,18 +10783,21 @@
         <v>15925.3097</v>
       </c>
       <c r="G272" t="n">
+        <v>7.993333333333336</v>
+      </c>
+      <c r="H272" t="n">
         <v>7.882666666666665</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9951,18 +10821,21 @@
         <v>261637.8712</v>
       </c>
       <c r="G273" t="n">
+        <v>7.992666666666668</v>
+      </c>
+      <c r="H273" t="n">
         <v>7.889166666666665</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9986,18 +10859,21 @@
         <v>20</v>
       </c>
       <c r="G274" t="n">
+        <v>7.983333333333335</v>
+      </c>
+      <c r="H274" t="n">
         <v>7.892499999999998</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10021,18 +10897,21 @@
         <v>10</v>
       </c>
       <c r="G275" t="n">
+        <v>7.994000000000002</v>
+      </c>
+      <c r="H275" t="n">
         <v>7.899499999999999</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10056,18 +10935,21 @@
         <v>20</v>
       </c>
       <c r="G276" t="n">
+        <v>7.990000000000003</v>
+      </c>
+      <c r="H276" t="n">
         <v>7.902833333333332</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10091,18 +10973,21 @@
         <v>12629.3439</v>
       </c>
       <c r="G277" t="n">
+        <v>7.986000000000003</v>
+      </c>
+      <c r="H277" t="n">
         <v>7.905999999999998</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10126,18 +11011,21 @@
         <v>10420.9316</v>
       </c>
       <c r="G278" t="n">
+        <v>7.997333333333336</v>
+      </c>
+      <c r="H278" t="n">
         <v>7.911666666666665</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10161,18 +11049,21 @@
         <v>10745.9499</v>
       </c>
       <c r="G279" t="n">
+        <v>8.00866666666667</v>
+      </c>
+      <c r="H279" t="n">
         <v>7.916166666666666</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10196,18 +11087,21 @@
         <v>4454.944</v>
       </c>
       <c r="G280" t="n">
+        <v>8.012666666666671</v>
+      </c>
+      <c r="H280" t="n">
         <v>7.9205</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10231,18 +11125,21 @@
         <v>42816.0901</v>
       </c>
       <c r="G281" t="n">
+        <v>7.998000000000004</v>
+      </c>
+      <c r="H281" t="n">
         <v>7.921</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10266,18 +11163,21 @@
         <v>59803.6869</v>
       </c>
       <c r="G282" t="n">
+        <v>7.996000000000004</v>
+      </c>
+      <c r="H282" t="n">
         <v>7.9225</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10301,18 +11201,21 @@
         <v>20242.5503</v>
       </c>
       <c r="G283" t="n">
+        <v>7.983333333333337</v>
+      </c>
+      <c r="H283" t="n">
         <v>7.923500000000001</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10336,18 +11239,21 @@
         <v>10197.8371</v>
       </c>
       <c r="G284" t="n">
+        <v>7.984000000000004</v>
+      </c>
+      <c r="H284" t="n">
         <v>7.925</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10371,18 +11277,21 @@
         <v>1468.9672</v>
       </c>
       <c r="G285" t="n">
+        <v>7.97066666666667</v>
+      </c>
+      <c r="H285" t="n">
         <v>7.9265</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10406,18 +11315,21 @@
         <v>9393.3477</v>
       </c>
       <c r="G286" t="n">
+        <v>7.96466666666667</v>
+      </c>
+      <c r="H286" t="n">
         <v>7.928333333333333</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10441,18 +11353,21 @@
         <v>974.1426</v>
       </c>
       <c r="G287" t="n">
+        <v>7.959333333333336</v>
+      </c>
+      <c r="H287" t="n">
         <v>7.930166666666667</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10476,18 +11391,21 @@
         <v>2852.9259</v>
       </c>
       <c r="G288" t="n">
+        <v>7.95266666666667</v>
+      </c>
+      <c r="H288" t="n">
         <v>7.931</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10511,18 +11429,21 @@
         <v>786.817</v>
       </c>
       <c r="G289" t="n">
+        <v>7.958000000000003</v>
+      </c>
+      <c r="H289" t="n">
         <v>7.932</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10546,18 +11467,21 @@
         <v>40861.2907</v>
       </c>
       <c r="G290" t="n">
+        <v>7.95266666666667</v>
+      </c>
+      <c r="H290" t="n">
         <v>7.935666666666667</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10581,18 +11505,21 @@
         <v>2605.9088</v>
       </c>
       <c r="G291" t="n">
+        <v>7.958000000000003</v>
+      </c>
+      <c r="H291" t="n">
         <v>7.939000000000002</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10616,18 +11543,21 @@
         <v>2543.8596</v>
       </c>
       <c r="G292" t="n">
+        <v>7.963333333333336</v>
+      </c>
+      <c r="H292" t="n">
         <v>7.940166666666668</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10651,18 +11581,21 @@
         <v>3391.2906</v>
       </c>
       <c r="G293" t="n">
+        <v>7.95866666666667</v>
+      </c>
+      <c r="H293" t="n">
         <v>7.941333333333334</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10686,18 +11619,21 @@
         <v>279.1353</v>
       </c>
       <c r="G294" t="n">
+        <v>7.954000000000004</v>
+      </c>
+      <c r="H294" t="n">
         <v>7.942500000000001</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10721,18 +11657,21 @@
         <v>1481.3283</v>
       </c>
       <c r="G295" t="n">
+        <v>7.949333333333338</v>
+      </c>
+      <c r="H295" t="n">
         <v>7.944000000000002</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10756,18 +11695,21 @@
         <v>1713.1641</v>
       </c>
       <c r="G296" t="n">
+        <v>7.956666666666671</v>
+      </c>
+      <c r="H296" t="n">
         <v>7.947000000000002</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10791,18 +11733,21 @@
         <v>790.6891000000001</v>
       </c>
       <c r="G297" t="n">
+        <v>7.961333333333338</v>
+      </c>
+      <c r="H297" t="n">
         <v>7.948000000000002</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10826,18 +11771,21 @@
         <v>749.9373000000001</v>
       </c>
       <c r="G298" t="n">
+        <v>7.968000000000005</v>
+      </c>
+      <c r="H298" t="n">
         <v>7.949166666666668</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10861,18 +11809,21 @@
         <v>9102.0537</v>
       </c>
       <c r="G299" t="n">
+        <v>7.966000000000006</v>
+      </c>
+      <c r="H299" t="n">
         <v>7.948333333333336</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10896,18 +11847,21 @@
         <v>2551.2541</v>
       </c>
       <c r="G300" t="n">
+        <v>7.960666666666672</v>
+      </c>
+      <c r="H300" t="n">
         <v>7.94716666666667</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10931,18 +11885,21 @@
         <v>136357.8041</v>
       </c>
       <c r="G301" t="n">
+        <v>7.946000000000006</v>
+      </c>
+      <c r="H301" t="n">
         <v>7.945500000000002</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10966,18 +11923,21 @@
         <v>3289.1416</v>
       </c>
       <c r="G302" t="n">
+        <v>7.932000000000006</v>
+      </c>
+      <c r="H302" t="n">
         <v>7.944166666666669</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11001,18 +11961,21 @@
         <v>5307.7436</v>
       </c>
       <c r="G303" t="n">
+        <v>7.918000000000005</v>
+      </c>
+      <c r="H303" t="n">
         <v>7.945666666666668</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11036,18 +11999,21 @@
         <v>2488.9328</v>
       </c>
       <c r="G304" t="n">
+        <v>7.904666666666672</v>
+      </c>
+      <c r="H304" t="n">
         <v>7.945666666666668</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11071,18 +12037,21 @@
         <v>1012.2762</v>
       </c>
       <c r="G305" t="n">
+        <v>7.894000000000005</v>
+      </c>
+      <c r="H305" t="n">
         <v>7.946333333333334</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11106,18 +12075,21 @@
         <v>95300.7549</v>
       </c>
       <c r="G306" t="n">
+        <v>7.877333333333338</v>
+      </c>
+      <c r="H306" t="n">
         <v>7.943833333333335</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11141,18 +12113,21 @@
         <v>88798.89539999999</v>
       </c>
       <c r="G307" t="n">
+        <v>7.867333333333337</v>
+      </c>
+      <c r="H307" t="n">
         <v>7.943833333333335</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11176,18 +12151,21 @@
         <v>4052.6122</v>
       </c>
       <c r="G308" t="n">
+        <v>7.856666666666671</v>
+      </c>
+      <c r="H308" t="n">
         <v>7.944166666666669</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11211,18 +12189,21 @@
         <v>14020577.6476</v>
       </c>
       <c r="G309" t="n">
+        <v>7.84666666666667</v>
+      </c>
+      <c r="H309" t="n">
         <v>7.944666666666667</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11246,18 +12227,21 @@
         <v>24512798.0064</v>
       </c>
       <c r="G310" t="n">
+        <v>7.83666666666667</v>
+      </c>
+      <c r="H310" t="n">
         <v>7.944333333333334</v>
       </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11281,18 +12265,401 @@
         <v>24141391.976</v>
       </c>
       <c r="G311" t="n">
+        <v>7.82666666666667</v>
+      </c>
+      <c r="H311" t="n">
         <v>7.944</v>
       </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C312" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="D312" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="E312" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="F312" t="n">
+        <v>21077292.2252</v>
+      </c>
+      <c r="G312" t="n">
+        <v>7.816666666666669</v>
+      </c>
+      <c r="H312" t="n">
+        <v>7.941666666666666</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="C313" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="D313" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E313" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="F313" t="n">
+        <v>117321.5809</v>
+      </c>
+      <c r="G313" t="n">
+        <v>7.816000000000003</v>
+      </c>
+      <c r="H313" t="n">
+        <v>7.941166666666666</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C314" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D314" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E314" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="F314" t="n">
+        <v>20</v>
+      </c>
+      <c r="G314" t="n">
+        <v>7.812000000000003</v>
+      </c>
+      <c r="H314" t="n">
+        <v>7.937666666666667</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C315" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="D315" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E315" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="F315" t="n">
+        <v>31536.6687</v>
+      </c>
+      <c r="G315" t="n">
+        <v>7.823333333333337</v>
+      </c>
+      <c r="H315" t="n">
+        <v>7.936000000000001</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C316" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="D316" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E316" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="F316" t="n">
+        <v>32875.9096</v>
+      </c>
+      <c r="G316" t="n">
+        <v>7.83666666666667</v>
+      </c>
+      <c r="H316" t="n">
+        <v>7.934000000000001</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="C317" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="D317" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="E317" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="F317" t="n">
+        <v>117321.5809</v>
+      </c>
+      <c r="G317" t="n">
+        <v>7.843333333333336</v>
+      </c>
+      <c r="H317" t="n">
+        <v>7.932000000000001</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="C318" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="D318" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="E318" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F318" t="n">
+        <v>2515.723270440252</v>
+      </c>
+      <c r="G318" t="n">
+        <v>7.855333333333337</v>
+      </c>
+      <c r="H318" t="n">
+        <v>7.929666666666668</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C319" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D319" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E319" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F319" t="n">
+        <v>29625.2516</v>
+      </c>
+      <c r="G319" t="n">
+        <v>7.863333333333338</v>
+      </c>
+      <c r="H319" t="n">
+        <v>7.927333333333334</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C320" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="D320" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E320" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F320" t="n">
+        <v>5724.3427</v>
+      </c>
+      <c r="G320" t="n">
+        <v>7.869333333333336</v>
+      </c>
+      <c r="H320" t="n">
+        <v>7.927500000000001</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C321" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D321" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E321" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F321" t="n">
+        <v>142768.5458</v>
+      </c>
+      <c r="G321" t="n">
+        <v>7.88066666666667</v>
+      </c>
+      <c r="H321" t="n">
+        <v>7.926500000000002</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest IOST.xlsx
+++ b/BackTest/2019-11-01 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N379"/>
+  <dimension ref="A1:M379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,19 @@
         <v>508486.5536</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>7.76</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.76</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +688,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +725,23 @@
         <v>508486.5536</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>7.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +766,19 @@
         <v>508433.5536</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>7.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.75</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +803,23 @@
         <v>508433.5536</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>7.68</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +844,23 @@
         <v>693180.1141</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>7.68</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +885,23 @@
         <v>693130.1141</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>7.84</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +926,23 @@
         <v>692920.1141</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>7.74</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +967,23 @@
         <v>878387.7897</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>7.72</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +1010,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1047,23 @@
         <v>878437.7897</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>7.82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1090,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1129,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1166,23 @@
         <v>968200.5308000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>7.86</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1207,23 @@
         <v>1071158.6084</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>7.86</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1248,23 @@
         <v>1212307.1785</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>7.87</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1289,23 @@
         <v>1071108.6084</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>7.99</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1332,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1371,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1410,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1449,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1488,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1525,23 @@
         <v>1974789.4525</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1.051774193548387</v>
+      </c>
       <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>1.024836601307189</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1566,15 @@
         <v>1969534.4525</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1599,15 @@
         <v>1914041.9189</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1632,15 @@
         <v>1652127.7892</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1665,15 @@
         <v>1658867.7892</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1698,15 @@
         <v>1635695.0827</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1731,15 @@
         <v>1636602.9947</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1764,15 @@
         <v>1636205.5093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1797,15 @@
         <v>1636580.9193</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1830,15 @@
         <v>1636580.9193</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1863,15 @@
         <v>1637423.7767</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1896,15 @@
         <v>1636645.3946</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1929,15 @@
         <v>1635542.9209</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1962,15 @@
         <v>1635795.4239</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1995,15 @@
         <v>1635522.7666</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +2028,15 @@
         <v>1635522.7666</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +2061,15 @@
         <v>1635371.2968</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2094,15 @@
         <v>1635016.7737</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2129,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2162,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2195,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2228,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2261,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2294,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2327,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2360,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2393,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2426,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2459,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2492,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2525,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2558,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2591,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2624,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2657,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2690,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2723,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2756,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2789,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2822,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2855,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2888,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2921,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2954,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2987,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +3020,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3053,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3086,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3119,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3152,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3185,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3218,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3251,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3284,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3317,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3350,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3383,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3416,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3449,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3482,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3515,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3548,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3581,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3614,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3647,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3680,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3713,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3746,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3779,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3812,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3845,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3878,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3911,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3944,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3977,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4010,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4043,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4076,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4109,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4142,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4175,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4208,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4241,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4274,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4307,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4340,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4373,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4406,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4439,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4472,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4505,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4538,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4571,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4604,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4637,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4670,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4703,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4736,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4769,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4802,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4835,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4868,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4901,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4934,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4967,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5000,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5033,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5066,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5099,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5132,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5165,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5198,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5231,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5264,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5297,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5330,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5363,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5396,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5429,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5462,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5495,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5528,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5561,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5594,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5627,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5660,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5693,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5726,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5759,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5792,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5825,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5858,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5891,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5924,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5957,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5990,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +6023,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6056,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6089,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6122,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6155,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6188,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6221,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6254,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6287,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6320,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6353,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6386,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6419,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6452,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6485,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6518,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6551,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6584,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6617,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6650,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6683,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6716,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6749,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6782,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6815,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6848,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6881,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6914,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6947,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6980,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +7013,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +7046,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +7079,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +7112,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +7145,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7178,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7211,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7244,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7277,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7310,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7343,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7376,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7409,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7442,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7475,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7508,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7541,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7574,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7607,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7640,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7673,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7706,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7739,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8268,18 +7770,19 @@
         <v>1094249.2033</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="J219" t="n">
+        <v>7.78</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7809,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8340,18 +7846,23 @@
         <v>927224.0109999997</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+        <v>7.7</v>
+      </c>
+      <c r="J221" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7889,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7928,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8448,18 +7965,23 @@
         <v>927124.0109999997</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>7.7</v>
+      </c>
+      <c r="J224" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8484,18 +8006,23 @@
         <v>866205.3201999997</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+        <v>7.69</v>
+      </c>
+      <c r="J225" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8520,18 +8047,23 @@
         <v>1110010.7077</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+        <v>7.65</v>
+      </c>
+      <c r="J226" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8556,18 +8088,23 @@
         <v>957742.2265999997</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+        <v>7.77</v>
+      </c>
+      <c r="J227" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +8131,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +8170,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +8209,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8248,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8736,22 +8285,23 @@
         <v>518174.3914999996</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>7.54</v>
       </c>
       <c r="J232" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="K232" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8776,26 +8326,23 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="J233" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K233" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8820,26 +8367,23 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>7.62</v>
       </c>
       <c r="J234" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K234" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8864,22 +8408,23 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>7.62</v>
       </c>
       <c r="J235" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K235" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8904,26 +8449,23 @@
         <v>559353.6894999996</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>7.62</v>
       </c>
       <c r="J236" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K236" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8948,24 +8490,23 @@
         <v>559353.6894999996</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+        <v>7.77</v>
+      </c>
+      <c r="J237" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8990,18 +8531,23 @@
         <v>535247.6921999996</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+        <v>7.77</v>
+      </c>
+      <c r="J238" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9026,18 +8572,23 @@
         <v>632781.1796999996</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+        <v>7.64</v>
+      </c>
+      <c r="J239" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9064,16 +8615,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9100,16 +8654,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9136,16 +8693,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9172,16 +8732,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9206,18 +8769,23 @@
         <v>571733.1796999996</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+        <v>7.74</v>
+      </c>
+      <c r="J244" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9242,18 +8810,23 @@
         <v>571722.1796999996</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+        <v>7.74</v>
+      </c>
+      <c r="J245" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9280,16 +8853,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9316,16 +8892,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9352,16 +8931,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9388,16 +8970,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9424,16 +9009,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9460,16 +9048,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9496,16 +9087,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9532,16 +9126,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9568,16 +9165,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9602,18 +9202,23 @@
         <v>608961.3761999996</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="J255" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9640,16 +9245,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9674,18 +9282,23 @@
         <v>509084.6752999996</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+        <v>7.63</v>
+      </c>
+      <c r="J257" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9710,18 +9323,23 @@
         <v>517169.5727999996</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+        <v>7.66</v>
+      </c>
+      <c r="J258" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9746,18 +9364,23 @@
         <v>517769.5727999996</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+        <v>7.67</v>
+      </c>
+      <c r="J259" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9782,18 +9405,23 @@
         <v>517769.5727999996</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+        <v>7.75</v>
+      </c>
+      <c r="J260" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9818,18 +9446,23 @@
         <v>517769.5727999996</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+        <v>7.75</v>
+      </c>
+      <c r="J261" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9856,16 +9489,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9890,18 +9526,23 @@
         <v>275066.2427999997</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+        <v>7.75</v>
+      </c>
+      <c r="J263" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9928,16 +9569,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9962,18 +9606,23 @@
         <v>835540.8301999997</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+        <v>7.74</v>
+      </c>
+      <c r="J265" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9998,18 +9647,23 @@
         <v>835540.8301999997</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+        <v>7.73</v>
+      </c>
+      <c r="J266" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10034,18 +9688,23 @@
         <v>834651.0145999998</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+        <v>7.73</v>
+      </c>
+      <c r="J267" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10070,18 +9729,23 @@
         <v>834048.0753999997</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+        <v>7.65</v>
+      </c>
+      <c r="J268" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10108,16 +9772,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10142,18 +9809,23 @@
         <v>839613.3877999998</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+        <v>7.65</v>
+      </c>
+      <c r="J270" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10180,16 +9852,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10214,18 +9889,23 @@
         <v>839643.3877999998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+        <v>7.69</v>
+      </c>
+      <c r="J272" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10250,18 +9930,23 @@
         <v>839543.3877999998</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+        <v>7.7</v>
+      </c>
+      <c r="J273" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10286,18 +9971,23 @@
         <v>1039563.3878</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+        <v>7.64</v>
+      </c>
+      <c r="J274" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10322,18 +10012,23 @@
         <v>1092128.3878</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+        <v>7.7</v>
+      </c>
+      <c r="J275" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10358,18 +10053,23 @@
         <v>1092128.3878</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+        <v>7.71</v>
+      </c>
+      <c r="J276" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10394,18 +10094,23 @@
         <v>1216291.7696</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+        <v>7.71</v>
+      </c>
+      <c r="J277" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10430,18 +10135,23 @@
         <v>1292593.1485</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="J278" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10466,18 +10176,23 @@
         <v>1293662.1485</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+        <v>7.79</v>
+      </c>
+      <c r="J279" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10504,16 +10219,19 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10538,18 +10256,23 @@
         <v>1132438.1485</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+        <v>7.82</v>
+      </c>
+      <c r="J281" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10574,18 +10297,23 @@
         <v>832438.1484999997</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+        <v>7.82</v>
+      </c>
+      <c r="J282" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10610,18 +10338,23 @@
         <v>832438.1484999997</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+        <v>7.79</v>
+      </c>
+      <c r="J283" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10646,18 +10379,23 @@
         <v>1193818.7085</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+        <v>7.79</v>
+      </c>
+      <c r="J284" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10684,16 +10422,19 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10720,16 +10461,19 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10754,18 +10498,23 @@
         <v>1527625.7085</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+        <v>7.93</v>
+      </c>
+      <c r="J287" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10792,16 +10541,19 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10828,16 +10580,19 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10864,16 +10619,19 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10900,16 +10658,19 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10936,16 +10697,19 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10970,18 +10734,23 @@
         <v>1890853.2685</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+        <v>7.91</v>
+      </c>
+      <c r="J293" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11006,18 +10775,23 @@
         <v>1668451.2685</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+        <v>7.89</v>
+      </c>
+      <c r="J294" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11042,18 +10816,23 @@
         <v>1775525.3338</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+        <v>7.8</v>
+      </c>
+      <c r="J295" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11078,18 +10857,23 @@
         <v>1775391.3338</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+        <v>7.92</v>
+      </c>
+      <c r="J296" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11114,18 +10898,23 @@
         <v>1775381.3338</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+        <v>7.91</v>
+      </c>
+      <c r="J297" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11150,18 +10939,23 @@
         <v>1775351.3338</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+        <v>7.9</v>
+      </c>
+      <c r="J298" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11186,18 +10980,23 @@
         <v>1775351.3338</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+        <v>7.87</v>
+      </c>
+      <c r="J299" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11224,16 +11023,19 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11258,18 +11060,23 @@
         <v>1614340.4893</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+        <v>7.86</v>
+      </c>
+      <c r="J301" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11294,18 +11101,23 @@
         <v>1633338.4893</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+        <v>7.68</v>
+      </c>
+      <c r="J302" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11330,18 +11142,23 @@
         <v>1633338.4893</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="J303" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11366,18 +11183,23 @@
         <v>1647503.5418</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+        <v>7.78</v>
+      </c>
+      <c r="J304" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11402,18 +11224,23 @@
         <v>1605934.5763</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+        <v>7.88</v>
+      </c>
+      <c r="J305" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11438,18 +11265,23 @@
         <v>1535625.1579</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+        <v>7.83</v>
+      </c>
+      <c r="J306" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11474,18 +11306,23 @@
         <v>1535625.1579</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+        <v>7.8</v>
+      </c>
+      <c r="J307" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11510,18 +11347,23 @@
         <v>1549944.3111</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+        <v>7.8</v>
+      </c>
+      <c r="J308" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11548,16 +11390,19 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11582,18 +11427,23 @@
         <v>1813011.1831</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+        <v>7.85</v>
+      </c>
+      <c r="J310" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11620,16 +11470,19 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11656,16 +11509,19 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11692,16 +11548,19 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11728,16 +11587,19 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11762,18 +11624,21 @@
         <v>2036632.4465</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="n">
-        <v>1</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11798,18 +11663,21 @@
         <v>2106697.5886</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11834,18 +11702,21 @@
         <v>2086404.3051</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>1</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11872,16 +11743,19 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>1</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11908,16 +11782,19 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11944,16 +11821,19 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11980,16 +11860,19 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12016,16 +11899,19 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12052,16 +11938,19 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12088,16 +11977,19 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12124,16 +12016,19 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12160,16 +12055,19 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12196,16 +12094,19 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>1</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12232,16 +12133,19 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12268,16 +12172,19 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12304,16 +12211,19 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12338,18 +12248,21 @@
         <v>2808020.9238</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1.033560411311054</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12374,18 +12287,15 @@
         <v>2808000.9238</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12410,18 +12320,15 @@
         <v>2808010.9238</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12446,18 +12353,15 @@
         <v>2807990.9238</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12484,16 +12388,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12520,16 +12421,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12556,16 +12454,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12592,16 +12487,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12628,16 +12520,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12664,16 +12553,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12700,16 +12586,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12736,16 +12619,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12772,16 +12652,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12808,16 +12685,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12844,16 +12718,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12880,16 +12751,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12916,16 +12784,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -12952,16 +12817,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12988,16 +12850,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13024,16 +12883,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13060,16 +12916,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13096,16 +12949,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13132,16 +12982,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13168,16 +13015,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13204,16 +13048,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13240,16 +13081,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13276,16 +13114,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13312,16 +13147,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13348,16 +13180,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13384,16 +13213,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13420,16 +13246,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13456,16 +13279,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13492,16 +13312,13 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13528,16 +13345,13 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13564,16 +13378,13 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13600,16 +13411,13 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13636,16 +13444,13 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -13672,16 +13477,13 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -13708,16 +13510,13 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -13744,16 +13543,13 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -13780,16 +13576,13 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -13816,16 +13609,13 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -13852,16 +13642,13 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -13888,16 +13675,13 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -13924,16 +13708,13 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -13960,16 +13741,13 @@
       <c r="H376" t="n">
         <v>0</v>
       </c>
-      <c r="I376" t="n">
-        <v>0</v>
-      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
-      <c r="M376" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -13996,16 +13774,13 @@
       <c r="H377" t="n">
         <v>0</v>
       </c>
-      <c r="I377" t="n">
-        <v>0</v>
-      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
-      <c r="M377" t="n">
-        <v>1</v>
-      </c>
-      <c r="N377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -14032,16 +13807,13 @@
       <c r="H378" t="n">
         <v>0</v>
       </c>
-      <c r="I378" t="n">
-        <v>1</v>
-      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
-      <c r="M378" t="n">
-        <v>1</v>
-      </c>
-      <c r="N378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -14068,18 +13840,15 @@
       <c r="H379" t="n">
         <v>0</v>
       </c>
-      <c r="I379" t="n">
-        <v>0</v>
-      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
-      <c r="M379" t="n">
-        <v>1</v>
-      </c>
-      <c r="N379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest IOST.xlsx
+++ b/BackTest/2019-11-01 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>508375.2488000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,14 +649,10 @@
         <v>508486.5536</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -689,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -725,19 +715,11 @@
         <v>508486.5536</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -766,14 +748,10 @@
         <v>508433.5536</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -803,19 +781,11 @@
         <v>508433.5536</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -844,19 +814,11 @@
         <v>693180.1141</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -885,19 +847,11 @@
         <v>693130.1141</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -926,19 +880,11 @@
         <v>692920.1141</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -967,19 +913,11 @@
         <v>878387.7897</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1011,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,19 +979,11 @@
         <v>878437.7897</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1091,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1130,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1166,19 +1078,11 @@
         <v>968200.5308000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1207,19 +1111,11 @@
         <v>1071158.6084</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1248,19 +1144,11 @@
         <v>1212307.1785</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="J23" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1289,19 +1177,11 @@
         <v>1071108.6084</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1333,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1372,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1411,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1450,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1489,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1525,23 +1375,15 @@
         <v>1974789.4525</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.051774193548387</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.024836601307189</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1566,7 +1408,7 @@
         <v>1969534.4525</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1599,7 +1441,7 @@
         <v>1914041.9189</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1632,7 +1474,7 @@
         <v>1652127.7892</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1665,7 +1507,7 @@
         <v>1658867.7892</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1698,7 +1540,7 @@
         <v>1635695.0827</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1731,7 +1573,7 @@
         <v>1636602.9947</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1764,7 +1606,7 @@
         <v>1636205.5093</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1797,7 +1639,7 @@
         <v>1636580.9193</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1830,7 +1672,7 @@
         <v>1636580.9193</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1863,7 +1705,7 @@
         <v>1637423.7767</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1896,7 +1738,7 @@
         <v>1636645.3946</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1929,7 +1771,7 @@
         <v>1635542.9209</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1962,7 +1804,7 @@
         <v>1635795.4239</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1995,7 +1837,7 @@
         <v>1635522.7666</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2028,7 +1870,7 @@
         <v>1635522.7666</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2061,7 +1903,7 @@
         <v>1635371.2968</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2094,7 +1936,7 @@
         <v>1635016.7737</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2820,7 +2662,7 @@
         <v>1556852.5417</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2853,7 +2695,7 @@
         <v>1556822.5417</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2886,7 +2728,7 @@
         <v>1556812.5417</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2919,7 +2761,7 @@
         <v>1557494.8277</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2952,7 +2794,7 @@
         <v>1556637.1978</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2985,7 +2827,7 @@
         <v>1556627.1978</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3018,7 +2860,7 @@
         <v>1553474.1298</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3051,7 +2893,7 @@
         <v>1552600.5133</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3084,7 +2926,7 @@
         <v>1552833.1841</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3117,7 +2959,7 @@
         <v>1551757.7248</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3150,7 +2992,7 @@
         <v>1626721.2753</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3183,7 +3025,7 @@
         <v>1625777.8217</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3216,7 +3058,7 @@
         <v>1540362.7002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3249,7 +3091,7 @@
         <v>1540352.7002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3282,7 +3124,7 @@
         <v>1540342.7002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -6681,11 +6523,17 @@
         <v>1005835.692</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>7.76</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6718,7 +6566,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6751,7 +6603,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6784,7 +6640,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6817,7 +6677,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6850,7 +6714,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6883,7 +6751,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6916,7 +6788,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6949,7 +6825,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6982,7 +6862,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7015,7 +6899,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7048,7 +6936,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7081,7 +6973,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7114,7 +7010,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7147,7 +7047,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7180,7 +7084,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7121,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7246,7 +7158,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7279,7 +7195,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7312,7 +7232,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7345,7 +7269,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7378,7 +7306,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7411,7 +7343,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7444,7 +7380,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7477,7 +7417,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7510,7 +7454,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7543,7 +7491,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7576,7 +7528,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7609,7 +7565,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7642,7 +7602,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7675,7 +7639,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7708,7 +7676,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7741,7 +7713,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7770,15 +7746,15 @@
         <v>1094249.2033</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J219" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7810,12 +7786,10 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
@@ -7846,14 +7820,10 @@
         <v>927224.0109999997</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J221" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7890,9 +7860,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7929,9 +7897,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7965,14 +7931,10 @@
         <v>927124.0109999997</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J224" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8006,14 +7968,10 @@
         <v>866205.3201999997</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="J225" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8047,14 +8005,10 @@
         <v>1110010.7077</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J226" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8088,14 +8042,10 @@
         <v>957742.2265999997</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J227" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8132,9 +8082,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8171,9 +8119,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8210,9 +8156,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8249,9 +8193,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8285,14 +8227,12 @@
         <v>518174.3914999996</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>7.54</v>
       </c>
-      <c r="J232" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,14 +8266,12 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>7.55</v>
       </c>
-      <c r="J233" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8367,14 +8305,12 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>7.62</v>
       </c>
-      <c r="J234" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8408,14 +8344,12 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>7.62</v>
       </c>
-      <c r="J235" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8449,14 +8383,12 @@
         <v>559353.6894999996</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>7.62</v>
       </c>
-      <c r="J236" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,14 +8422,12 @@
         <v>559353.6894999996</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>7.77</v>
       </c>
-      <c r="J237" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8531,14 +8461,12 @@
         <v>535247.6921999996</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>7.77</v>
       </c>
-      <c r="J238" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8572,14 +8500,10 @@
         <v>632781.1796999996</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="J239" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8616,9 +8540,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8655,9 +8577,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,9 +8614,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8733,9 +8651,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8769,14 +8685,10 @@
         <v>571733.1796999996</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="J244" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8810,14 +8722,10 @@
         <v>571722.1796999996</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="J245" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8854,9 +8762,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8890,12 +8796,12 @@
         <v>571765.9780999996</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>7.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8929,12 +8835,12 @@
         <v>571665.9780999996</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>7.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8968,12 +8874,12 @@
         <v>616305.9780999996</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>7.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9010,9 +8916,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9049,9 +8953,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9088,9 +8990,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9127,9 +9027,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9166,9 +9064,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9202,14 +9098,10 @@
         <v>608961.3761999996</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J255" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9246,9 +9138,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9282,14 +9172,10 @@
         <v>509084.6752999996</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="J257" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9323,14 +9209,12 @@
         <v>517169.5727999996</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>7.66</v>
       </c>
-      <c r="J258" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9364,14 +9248,10 @@
         <v>517769.5727999996</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="J259" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9405,14 +9285,12 @@
         <v>517769.5727999996</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>7.75</v>
       </c>
-      <c r="J260" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9446,14 +9324,10 @@
         <v>517769.5727999996</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="J261" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9490,9 +9364,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9526,14 +9398,10 @@
         <v>275066.2427999997</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="J263" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9567,12 +9435,12 @@
         <v>837121.1677999997</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>7.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9606,14 +9474,10 @@
         <v>835540.8301999997</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="J265" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9647,14 +9511,10 @@
         <v>835540.8301999997</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="J266" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9688,14 +9548,12 @@
         <v>834651.0145999998</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>7.73</v>
       </c>
-      <c r="J267" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9729,14 +9587,12 @@
         <v>834048.0753999997</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>7.65</v>
       </c>
-      <c r="J268" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9770,12 +9626,12 @@
         <v>834058.0753999997</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>7.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9809,14 +9665,10 @@
         <v>839613.3877999998</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="J270" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9850,12 +9702,12 @@
         <v>839623.3877999998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>7.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9889,14 +9741,12 @@
         <v>839643.3877999998</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>7.69</v>
       </c>
-      <c r="J272" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9930,14 +9780,12 @@
         <v>839543.3877999998</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>7.7</v>
       </c>
-      <c r="J273" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9971,14 +9819,12 @@
         <v>1039563.3878</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>7.64</v>
       </c>
-      <c r="J274" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10012,14 +9858,10 @@
         <v>1092128.3878</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J275" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10053,14 +9895,10 @@
         <v>1092128.3878</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="J276" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10094,14 +9932,10 @@
         <v>1216291.7696</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="J277" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10135,14 +9969,10 @@
         <v>1292593.1485</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J278" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10176,14 +10006,10 @@
         <v>1293662.1485</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="J279" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10220,9 +10046,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10256,14 +10080,10 @@
         <v>1132438.1485</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J281" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10297,14 +10117,10 @@
         <v>832438.1484999997</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J282" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10338,14 +10154,10 @@
         <v>832438.1484999997</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="J283" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10379,14 +10191,10 @@
         <v>1193818.7085</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="J284" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10423,9 +10231,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10462,9 +10268,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,14 +10302,10 @@
         <v>1527625.7085</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="J287" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10542,9 +10342,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10581,9 +10379,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10620,9 +10416,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10659,9 +10453,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10698,9 +10490,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10734,14 +10524,10 @@
         <v>1890853.2685</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J293" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10775,14 +10561,10 @@
         <v>1668451.2685</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="J294" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10816,14 +10598,10 @@
         <v>1775525.3338</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J295" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10857,14 +10635,10 @@
         <v>1775391.3338</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="J296" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10898,14 +10672,10 @@
         <v>1775381.3338</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J297" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10939,14 +10709,10 @@
         <v>1775351.3338</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J298" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,14 +10746,10 @@
         <v>1775351.3338</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="J299" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11024,9 +10786,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11060,14 +10820,10 @@
         <v>1614340.4893</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="J301" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11101,14 +10857,10 @@
         <v>1633338.4893</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="J302" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11142,14 +10894,10 @@
         <v>1633338.4893</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J303" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11183,14 +10931,10 @@
         <v>1647503.5418</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="J304" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11224,14 +10968,10 @@
         <v>1605934.5763</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="J305" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11265,14 +11005,10 @@
         <v>1535625.1579</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="J306" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11306,14 +11042,10 @@
         <v>1535625.1579</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J307" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11347,14 +11079,10 @@
         <v>1549944.3111</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J308" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11391,9 +11119,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11427,14 +11153,10 @@
         <v>1813011.1831</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="J310" t="n">
-        <v>7.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11471,9 +11193,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11510,9 +11230,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11549,9 +11267,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11588,9 +11304,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11624,12 +11338,10 @@
         <v>2036632.4465</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11663,12 +11375,10 @@
         <v>2106697.5886</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11702,12 +11412,10 @@
         <v>2086404.3051</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11744,9 +11452,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11783,9 +11489,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11822,9 +11526,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11861,9 +11563,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11900,9 +11600,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11939,9 +11637,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11978,9 +11674,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12017,9 +11711,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12056,9 +11748,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12095,9 +11785,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12134,9 +11822,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12173,9 +11859,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12212,9 +11896,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12248,19 +11930,17 @@
         <v>2808020.9238</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>7.78</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L331" t="n">
-        <v>1.033560411311054</v>
+        <v>1</v>
       </c>
       <c r="M331" t="inlineStr"/>
     </row>
@@ -12287,11 +11967,15 @@
         <v>2808000.9238</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12320,11 +12004,15 @@
         <v>2808010.9238</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12353,11 +12041,15 @@
         <v>2807990.9238</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12390,7 +12082,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12423,7 +12119,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12456,7 +12156,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12489,7 +12193,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12522,7 +12230,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12555,7 +12267,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12588,7 +12304,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12621,7 +12341,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12654,7 +12378,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12687,7 +12415,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12720,7 +12452,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12753,7 +12489,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12786,7 +12526,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12819,7 +12563,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12852,7 +12600,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12885,7 +12637,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12918,7 +12674,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12951,7 +12711,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12984,7 +12748,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13017,7 +12785,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13050,7 +12822,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13083,7 +12859,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13116,7 +12896,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13149,7 +12933,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13182,7 +12970,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13215,7 +13007,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13248,7 +13044,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13281,7 +13081,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13314,7 +13118,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13347,7 +13155,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13380,7 +13192,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13413,7 +13229,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13446,7 +13266,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13479,7 +13303,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13512,7 +13340,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13545,7 +13377,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13578,7 +13414,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13611,7 +13451,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13644,7 +13488,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13673,14 +13521,16 @@
         <v>16834030.2443</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
@@ -13706,7 +13556,7 @@
         <v>16716708.6634</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13739,7 +13589,7 @@
         <v>16719224.38667044</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13772,7 +13622,7 @@
         <v>16689599.13507044</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13805,7 +13655,7 @@
         <v>16695323.47777044</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13838,7 +13688,7 @@
         <v>16552554.93197044</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13849,6 +13699,6 @@
       <c r="M379" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest IOST.xlsx
+++ b/BackTest/2019-11-01 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>508375.2488000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>968200.5308000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1071158.6084</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1556852.5417</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1556822.5417</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1556812.5417</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1557494.8277</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1556637.1978</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1556627.1978</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1553474.1298</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1552600.5133</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1552833.1841</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1551757.7248</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1626721.2753</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1625777.8217</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1540362.7002</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1540352.7002</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1540342.7002</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3454,10 +3454,14 @@
         <v>1105317.0212</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="J93" t="n">
+        <v>7.81</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3490,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -6523,17 +6539,11 @@
         <v>1005835.692</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>7.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6566,11 +6576,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6603,11 +6609,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +6642,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6677,11 +6675,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6714,11 +6708,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6751,11 +6741,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6788,11 +6774,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +6807,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6862,11 +6840,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6899,11 +6873,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6936,11 +6906,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6973,11 +6939,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7010,11 +6972,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7047,11 +7005,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7038,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7121,11 +7071,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7158,11 +7104,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7195,11 +7137,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7232,11 +7170,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7269,11 +7203,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7306,11 +7236,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7343,11 +7269,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7380,11 +7302,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7417,11 +7335,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7454,11 +7368,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7491,11 +7401,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7528,11 +7434,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7565,11 +7467,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7602,11 +7500,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7639,11 +7533,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7672,15 +7562,11 @@
         <v>1117089.2033</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7709,15 +7595,11 @@
         <v>1094349.2033</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7746,15 +7628,11 @@
         <v>1094249.2033</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7787,11 +7665,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7824,11 +7698,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7861,11 +7731,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7898,11 +7764,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7935,11 +7797,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7972,11 +7830,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8009,11 +7863,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8046,11 +7896,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8083,11 +7929,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8120,11 +7962,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8157,11 +7995,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8194,11 +8028,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8232,12 +8062,10 @@
       <c r="I232" t="n">
         <v>7.54</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8271,10 +8099,12 @@
       <c r="I233" t="n">
         <v>7.55</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>7.54</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L233" t="n">
@@ -8305,15 +8135,15 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>7.54</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -8344,17 +8174,11 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>7.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8388,12 +8212,10 @@
       <c r="I236" t="n">
         <v>7.62</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8422,15 +8244,15 @@
         <v>559353.6894999996</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>7.62</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
@@ -8461,15 +8283,15 @@
         <v>535247.6921999996</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>7.62</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -8504,11 +8326,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8541,11 +8359,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8578,11 +8392,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8615,11 +8425,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8652,11 +8458,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8689,11 +8491,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8726,11 +8524,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +8557,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8796,17 +8586,11 @@
         <v>571765.9780999996</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>7.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8835,17 +8619,11 @@
         <v>571665.9780999996</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>7.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8874,17 +8652,11 @@
         <v>616305.9780999996</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>7.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8917,11 +8689,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8954,11 +8722,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8991,11 +8755,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9028,11 +8788,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9065,11 +8821,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +8854,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9139,11 +8887,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9176,11 +8920,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9209,17 +8949,11 @@
         <v>517169.5727999996</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>7.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9252,11 +8986,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9285,17 +9015,11 @@
         <v>517769.5727999996</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>7.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9052,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +9085,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9402,11 +9118,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9435,17 +9147,11 @@
         <v>837121.1677999997</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>7.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9478,11 +9184,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9515,11 +9217,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9548,17 +9246,11 @@
         <v>834651.0145999998</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>7.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9587,17 +9279,11 @@
         <v>834048.0753999997</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>7.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9626,17 +9312,11 @@
         <v>834058.0753999997</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>7.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9669,11 +9349,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9702,17 +9378,11 @@
         <v>839623.3877999998</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>7.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9741,17 +9411,11 @@
         <v>839643.3877999998</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>7.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9780,17 +9444,11 @@
         <v>839543.3877999998</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>7.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9819,17 +9477,11 @@
         <v>1039563.3878</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>7.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9862,11 +9514,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9899,11 +9547,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9936,11 +9580,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9973,11 +9613,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10010,11 +9646,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10047,11 +9679,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10084,11 +9712,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10117,15 +9741,11 @@
         <v>832438.1484999997</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10158,11 +9778,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10195,11 +9811,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10232,11 +9844,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10269,11 +9877,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10306,11 +9910,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10343,11 +9943,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10380,11 +9976,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10009,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10454,11 +10042,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10491,11 +10075,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10528,11 +10108,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10565,11 +10141,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10602,11 +10174,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10639,11 +10207,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10676,11 +10240,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10713,11 +10273,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10750,11 +10306,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10787,11 +10339,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10824,11 +10372,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10861,11 +10405,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10898,11 +10438,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10935,11 +10471,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10972,11 +10504,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11009,11 +10537,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11046,11 +10570,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11083,11 +10603,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11120,11 +10636,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11157,11 +10669,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11194,11 +10702,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11227,15 +10731,11 @@
         <v>1929341.218</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11268,11 +10768,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11305,11 +10801,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11342,11 +10834,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11379,11 +10867,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11416,11 +10900,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11453,11 +10933,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11490,11 +10966,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11527,11 +10999,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11564,11 +11032,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11601,11 +11065,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11098,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11675,11 +11131,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11712,11 +11164,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11749,11 +11197,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11786,11 +11230,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11823,11 +11263,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11860,11 +11296,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11897,11 +11329,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11934,11 +11362,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11971,11 +11395,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12008,11 +11428,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12045,11 +11461,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12082,11 +11494,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12119,11 +11527,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12156,11 +11560,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12193,11 +11593,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12230,11 +11626,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12267,11 +11659,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12304,11 +11692,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12341,11 +11725,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12378,11 +11758,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12415,11 +11791,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12452,11 +11824,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12489,11 +11857,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12526,11 +11890,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12563,11 +11923,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12600,11 +11956,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12637,11 +11989,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12674,11 +12022,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12711,11 +12055,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12748,11 +12088,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12785,11 +12121,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12822,11 +12154,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +12187,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12896,11 +12220,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12933,11 +12253,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12970,11 +12286,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13007,11 +12319,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13044,11 +12352,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13081,11 +12385,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13118,11 +12418,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13155,11 +12451,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13192,11 +12484,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13229,11 +12517,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13266,11 +12550,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13303,11 +12583,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13340,11 +12616,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13377,11 +12649,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13414,11 +12682,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13451,11 +12715,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13488,11 +12748,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13521,16 +12777,14 @@
         <v>16834030.2443</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
       <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
@@ -13556,7 +12810,7 @@
         <v>16716708.6634</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13589,7 +12843,7 @@
         <v>16719224.38667044</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13622,7 +12876,7 @@
         <v>16689599.13507044</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13655,7 +12909,7 @@
         <v>16695323.47777044</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13688,7 +12942,7 @@
         <v>16552554.93197044</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13699,6 +12953,6 @@
       <c r="M379" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest IOST.xlsx
+++ b/BackTest/2019-11-01 BackTest IOST.xlsx
@@ -1078,7 +1078,7 @@
         <v>968200.5308000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1071158.6084</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1974789.4525</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1969534.4525</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1914041.9189</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1652127.7892</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1658867.7892</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1635695.0827</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1636602.9947</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1636205.5093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1637423.7767</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1636645.3946</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1635542.9209</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1635795.4239</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1635522.7666</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1635522.7666</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1635371.2968</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1635016.7737</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1635006.7737</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1626057.1677</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1677308.1058</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3454,14 +3454,10 @@
         <v>1105317.0212</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>7.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3494,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -7562,7 +7546,7 @@
         <v>1117089.2033</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7595,7 +7579,7 @@
         <v>1094349.2033</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7628,7 +7612,7 @@
         <v>1094249.2033</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8135,9 +8119,11 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>7.62</v>
+      </c>
       <c r="J234" t="n">
         <v>7.54</v>
       </c>
@@ -8174,10 +8160,14 @@
         <v>518194.3914999996</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="J235" t="n">
+        <v>7.62</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
@@ -8215,7 +8205,11 @@
       <c r="J236" t="n">
         <v>7.62</v>
       </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8244,9 +8238,11 @@
         <v>559353.6894999996</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>7.77</v>
+      </c>
       <c r="J237" t="n">
         <v>7.62</v>
       </c>
@@ -8283,50 +8279,56 @@
         <v>535247.6921999996</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>7.77</v>
+      </c>
       <c r="J238" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="K238" t="inlineStr">
+        <v>7.77</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="C239" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="D239" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E239" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F239" t="n">
+        <v>97533.4875</v>
+      </c>
+      <c r="G239" t="n">
+        <v>632781.1796999996</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="J239" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="C239" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="D239" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="E239" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="F239" t="n">
-        <v>97533.4875</v>
-      </c>
-      <c r="G239" t="n">
-        <v>632781.1796999996</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8358,8 +8360,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9741,7 +9749,7 @@
         <v>832438.1484999997</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10731,7 +10739,7 @@
         <v>1929341.218</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10830,7 +10838,7 @@
         <v>2036632.4465</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
